--- a/companies.xlsx
+++ b/companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C174D7C-FF18-4668-A8B8-0215C2F5355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA3AEB-AB19-4BE1-8229-93F99F7B199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CB54E4C-0589-4481-857D-2442C59AF9AF}"/>
   </bookViews>
@@ -20863,12 +20863,6 @@
     <t>We are one stop solution for all your printing needs; from designing to printing to packaging We have global standrad facilities for Pre-Press, Press and Post-Press under one roof With more than 25 years in the field we have set benchmarks in quality</t>
   </si>
   <si>
-    <t>https://www.market-hr-solutions.com/</t>
-  </si>
-  <si>
-    <t>End-to-end hiring solutions to help companies find, filter the right candidates for every role — from entry-level to leadership Trusted BGV services covering ID checks, address verification, employment history, and criminal background screening Tailored HR frameworks, policy design, audit, and process improvement to align your workforce with business goals</t>
-  </si>
-  <si>
     <t>https://www.accrete.in/</t>
   </si>
   <si>
@@ -24254,16 +24248,32 @@
   </si>
   <si>
     <t>Powerful tools like Google Lens and Google Translate help you do even more With Google Lens in Chrome, you can search and ask questions about anything you see — whether it’s a photo you take, an item in an image or text in a video, all without having to open a new tab Check out these tips that make Google Search better than ever</t>
+  </si>
+  <si>
+    <t>https://www.mkthrsolutions.com/</t>
+  </si>
+  <si>
+    <t>At MKT HR Solutions Pvt. Ltd., we take pride in our over two decades of experience in Labour Law Advisory &amp; HR Compliances. We offer comprehensive services to employees, employers, and HR professionals.
+Our leadership team is dedicated to providing expert solutions for all labour law matters applicable to the class of Industry, including compliance audits, HR Policies development, Statutory Registrations, Licenses and Certifications, Employee Relations and Dispute Resolution, Liaison with Authorities, Grievance Handling and many more.
+We stay updated with the latest developments in labour laws, ensuring that our advice is timely and relevant. Our commitment to excellence and client satisfaction has earned us a solid reputation in the industry. We aim to be your trusted partner, providing reliable and effective legal support to meet your unique requirements. Whether you're navigating complex regulations or resolving disputes, we're here to offer tailored solutions that align with your needs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -24286,13 +24296,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -24661,8 +24677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70565C4-378B-42E8-9E09-9382A35FA463}">
   <dimension ref="A1:G1425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="C748" sqref="C748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41857,18 +41873,18 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>2987</v>
       </c>
-      <c r="B748" t="s">
-        <v>6938</v>
+      <c r="B748" s="1" t="s">
+        <v>8067</v>
       </c>
       <c r="C748" t="s">
-        <v>5711</v>
-      </c>
-      <c r="D748" t="s">
-        <v>6939</v>
+        <v>6781</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>8068</v>
       </c>
       <c r="E748" t="s">
         <v>2988</v>
@@ -41885,13 +41901,13 @@
         <v>2991</v>
       </c>
       <c r="B749" t="s">
-        <v>6940</v>
+        <v>6938</v>
       </c>
       <c r="C749" t="s">
         <v>5714</v>
       </c>
       <c r="D749" t="s">
-        <v>6941</v>
+        <v>6939</v>
       </c>
       <c r="E749" t="s">
         <v>2992</v>
@@ -41914,7 +41930,7 @@
         <v>5714</v>
       </c>
       <c r="D750" t="s">
-        <v>6942</v>
+        <v>6940</v>
       </c>
       <c r="E750" t="s">
         <v>2996</v>
@@ -41931,13 +41947,13 @@
         <v>2999</v>
       </c>
       <c r="B751" t="s">
-        <v>6943</v>
+        <v>6941</v>
       </c>
       <c r="C751" t="s">
         <v>5708</v>
       </c>
       <c r="D751" t="s">
-        <v>6944</v>
+        <v>6942</v>
       </c>
       <c r="E751" t="s">
         <v>3000</v>
@@ -41977,13 +41993,13 @@
         <v>3007</v>
       </c>
       <c r="B753" t="s">
-        <v>6945</v>
+        <v>6943</v>
       </c>
       <c r="C753" t="s">
         <v>5708</v>
       </c>
       <c r="D753" t="s">
-        <v>6946</v>
+        <v>6944</v>
       </c>
       <c r="E753" t="s">
         <v>3008</v>
@@ -42023,13 +42039,13 @@
         <v>3015</v>
       </c>
       <c r="B755" t="s">
-        <v>6947</v>
+        <v>6945</v>
       </c>
       <c r="C755" t="s">
         <v>5711</v>
       </c>
       <c r="D755" t="s">
-        <v>6948</v>
+        <v>6946</v>
       </c>
       <c r="E755" t="s">
         <v>3016</v>
@@ -42069,13 +42085,13 @@
         <v>3023</v>
       </c>
       <c r="B757" t="s">
-        <v>6949</v>
+        <v>6947</v>
       </c>
       <c r="C757" t="s">
         <v>5708</v>
       </c>
       <c r="D757" t="s">
-        <v>6950</v>
+        <v>6948</v>
       </c>
       <c r="E757" t="s">
         <v>3024</v>
@@ -42115,13 +42131,13 @@
         <v>3031</v>
       </c>
       <c r="B759" t="s">
-        <v>6951</v>
+        <v>6949</v>
       </c>
       <c r="C759" t="s">
         <v>5711</v>
       </c>
       <c r="D759" t="s">
-        <v>6952</v>
+        <v>6950</v>
       </c>
       <c r="E759" t="s">
         <v>3032</v>
@@ -42161,13 +42177,13 @@
         <v>3039</v>
       </c>
       <c r="B761" t="s">
-        <v>6953</v>
+        <v>6951</v>
       </c>
       <c r="C761" t="s">
         <v>5782</v>
       </c>
       <c r="D761" t="s">
-        <v>6954</v>
+        <v>6952</v>
       </c>
       <c r="E761" t="s">
         <v>3040</v>
@@ -42207,13 +42223,13 @@
         <v>3047</v>
       </c>
       <c r="B763" t="s">
-        <v>6955</v>
+        <v>6953</v>
       </c>
       <c r="C763" t="s">
         <v>5782</v>
       </c>
       <c r="D763" t="s">
-        <v>6956</v>
+        <v>6954</v>
       </c>
       <c r="E763" t="s">
         <v>3048</v>
@@ -42230,13 +42246,13 @@
         <v>3051</v>
       </c>
       <c r="B764" t="s">
-        <v>6957</v>
+        <v>6955</v>
       </c>
       <c r="C764" t="s">
         <v>5714</v>
       </c>
       <c r="D764" t="s">
-        <v>6958</v>
+        <v>6956</v>
       </c>
       <c r="E764" t="s">
         <v>3052</v>
@@ -42253,13 +42269,13 @@
         <v>3055</v>
       </c>
       <c r="B765" t="s">
-        <v>6959</v>
+        <v>6957</v>
       </c>
       <c r="C765" t="s">
         <v>5782</v>
       </c>
       <c r="D765" t="s">
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="E765" t="s">
         <v>3056</v>
@@ -42276,13 +42292,13 @@
         <v>3059</v>
       </c>
       <c r="B766" t="s">
-        <v>6961</v>
+        <v>6959</v>
       </c>
       <c r="C766" t="s">
         <v>5708</v>
       </c>
       <c r="D766" t="s">
-        <v>6962</v>
+        <v>6960</v>
       </c>
       <c r="E766" t="s">
         <v>3060</v>
@@ -42299,13 +42315,13 @@
         <v>3063</v>
       </c>
       <c r="B767" t="s">
-        <v>6963</v>
+        <v>6961</v>
       </c>
       <c r="C767" t="s">
         <v>5711</v>
       </c>
       <c r="D767" t="s">
-        <v>6964</v>
+        <v>6962</v>
       </c>
       <c r="E767" t="s">
         <v>3064</v>
@@ -42322,13 +42338,13 @@
         <v>3067</v>
       </c>
       <c r="B768" t="s">
-        <v>6965</v>
+        <v>6963</v>
       </c>
       <c r="C768" t="s">
         <v>5711</v>
       </c>
       <c r="D768" t="s">
-        <v>6966</v>
+        <v>6964</v>
       </c>
       <c r="E768" t="s">
         <v>3068</v>
@@ -42345,13 +42361,13 @@
         <v>3071</v>
       </c>
       <c r="B769" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C769" t="s">
+        <v>6966</v>
+      </c>
+      <c r="D769" t="s">
         <v>6967</v>
-      </c>
-      <c r="C769" t="s">
-        <v>6968</v>
-      </c>
-      <c r="D769" t="s">
-        <v>6969</v>
       </c>
       <c r="E769" t="s">
         <v>3072</v>
@@ -42437,13 +42453,13 @@
         <v>3087</v>
       </c>
       <c r="B773" t="s">
-        <v>6970</v>
+        <v>6968</v>
       </c>
       <c r="C773" t="s">
         <v>5708</v>
       </c>
       <c r="D773" t="s">
-        <v>6971</v>
+        <v>6969</v>
       </c>
       <c r="E773" t="s">
         <v>3088</v>
@@ -42460,13 +42476,13 @@
         <v>3091</v>
       </c>
       <c r="B774" t="s">
-        <v>6972</v>
+        <v>6970</v>
       </c>
       <c r="C774" t="s">
         <v>5711</v>
       </c>
       <c r="D774" t="s">
-        <v>6973</v>
+        <v>6971</v>
       </c>
       <c r="E774" t="s">
         <v>3092</v>
@@ -42483,13 +42499,13 @@
         <v>3095</v>
       </c>
       <c r="B775" t="s">
-        <v>6974</v>
+        <v>6972</v>
       </c>
       <c r="C775" t="s">
         <v>5711</v>
       </c>
       <c r="D775" t="s">
-        <v>6975</v>
+        <v>6973</v>
       </c>
       <c r="E775" t="s">
         <v>3096</v>
@@ -42575,13 +42591,13 @@
         <v>3111</v>
       </c>
       <c r="B779" t="s">
-        <v>6976</v>
+        <v>6974</v>
       </c>
       <c r="C779" t="s">
         <v>5714</v>
       </c>
       <c r="D779" t="s">
-        <v>6977</v>
+        <v>6975</v>
       </c>
       <c r="E779" t="s">
         <v>3112</v>
@@ -42598,13 +42614,13 @@
         <v>3115</v>
       </c>
       <c r="B780" t="s">
-        <v>6978</v>
+        <v>6976</v>
       </c>
       <c r="C780" t="s">
         <v>6424</v>
       </c>
       <c r="D780" t="s">
-        <v>6979</v>
+        <v>6977</v>
       </c>
       <c r="E780" t="s">
         <v>3116</v>
@@ -42667,13 +42683,13 @@
         <v>3127</v>
       </c>
       <c r="B783" t="s">
-        <v>6980</v>
+        <v>6978</v>
       </c>
       <c r="C783" t="s">
         <v>5714</v>
       </c>
       <c r="D783" t="s">
-        <v>6981</v>
+        <v>6979</v>
       </c>
       <c r="E783" t="s">
         <v>3128</v>
@@ -42713,13 +42729,13 @@
         <v>3135</v>
       </c>
       <c r="B785" t="s">
-        <v>6982</v>
+        <v>6980</v>
       </c>
       <c r="C785" t="s">
         <v>5714</v>
       </c>
       <c r="D785" t="s">
-        <v>6983</v>
+        <v>6981</v>
       </c>
       <c r="E785" t="s">
         <v>3136</v>
@@ -42736,13 +42752,13 @@
         <v>3139</v>
       </c>
       <c r="B786" t="s">
-        <v>6984</v>
+        <v>6982</v>
       </c>
       <c r="C786" t="s">
         <v>5714</v>
       </c>
       <c r="D786" t="s">
-        <v>6985</v>
+        <v>6983</v>
       </c>
       <c r="E786" t="s">
         <v>3140</v>
@@ -42759,13 +42775,13 @@
         <v>3143</v>
       </c>
       <c r="B787" t="s">
-        <v>6986</v>
+        <v>6984</v>
       </c>
       <c r="C787" t="s">
         <v>5714</v>
       </c>
       <c r="D787" t="s">
-        <v>6987</v>
+        <v>6985</v>
       </c>
       <c r="E787" t="s">
         <v>3144</v>
@@ -42851,13 +42867,13 @@
         <v>3159</v>
       </c>
       <c r="B791" t="s">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="C791" t="s">
         <v>5711</v>
       </c>
       <c r="D791" t="s">
-        <v>6989</v>
+        <v>6987</v>
       </c>
       <c r="E791" t="s">
         <v>3160</v>
@@ -42874,13 +42890,13 @@
         <v>3163</v>
       </c>
       <c r="B792" t="s">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="C792" t="s">
         <v>5890</v>
       </c>
       <c r="D792" t="s">
-        <v>6991</v>
+        <v>6989</v>
       </c>
       <c r="E792" t="s">
         <v>3164</v>
@@ -42897,13 +42913,13 @@
         <v>3167</v>
       </c>
       <c r="B793" t="s">
-        <v>6965</v>
+        <v>6963</v>
       </c>
       <c r="C793" t="s">
         <v>5711</v>
       </c>
       <c r="D793" t="s">
-        <v>6966</v>
+        <v>6964</v>
       </c>
       <c r="E793" t="s">
         <v>3168</v>
@@ -42920,13 +42936,13 @@
         <v>3171</v>
       </c>
       <c r="B794" t="s">
-        <v>6992</v>
+        <v>6990</v>
       </c>
       <c r="C794" t="s">
         <v>5714</v>
       </c>
       <c r="D794" t="s">
-        <v>6993</v>
+        <v>6991</v>
       </c>
       <c r="E794" t="s">
         <v>3172</v>
@@ -42943,13 +42959,13 @@
         <v>3175</v>
       </c>
       <c r="B795" t="s">
-        <v>6994</v>
+        <v>6992</v>
       </c>
       <c r="C795" t="s">
         <v>5714</v>
       </c>
       <c r="D795" t="s">
-        <v>6995</v>
+        <v>6993</v>
       </c>
       <c r="E795" t="s">
         <v>3176</v>
@@ -42966,13 +42982,13 @@
         <v>3179</v>
       </c>
       <c r="B796" t="s">
-        <v>6996</v>
+        <v>6994</v>
       </c>
       <c r="C796" t="s">
         <v>5708</v>
       </c>
       <c r="D796" t="s">
-        <v>6997</v>
+        <v>6995</v>
       </c>
       <c r="E796" t="s">
         <v>3180</v>
@@ -42989,13 +43005,13 @@
         <v>3183</v>
       </c>
       <c r="B797" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C797" t="s">
+        <v>6997</v>
+      </c>
+      <c r="D797" t="s">
         <v>6998</v>
-      </c>
-      <c r="C797" t="s">
-        <v>6999</v>
-      </c>
-      <c r="D797" t="s">
-        <v>7000</v>
       </c>
       <c r="E797" t="s">
         <v>3184</v>
@@ -43012,13 +43028,13 @@
         <v>3187</v>
       </c>
       <c r="B798" t="s">
-        <v>7001</v>
+        <v>6999</v>
       </c>
       <c r="C798" t="s">
         <v>5711</v>
       </c>
       <c r="D798" t="s">
-        <v>7002</v>
+        <v>7000</v>
       </c>
       <c r="E798" t="s">
         <v>3188</v>
@@ -43035,13 +43051,13 @@
         <v>3191</v>
       </c>
       <c r="B799" t="s">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="C799" t="s">
         <v>5890</v>
       </c>
       <c r="D799" t="s">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="E799" t="s">
         <v>3192</v>
@@ -43058,13 +43074,13 @@
         <v>3195</v>
       </c>
       <c r="B800" t="s">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="C800" t="s">
         <v>5890</v>
       </c>
       <c r="D800" t="s">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="E800" t="s">
         <v>3196</v>
@@ -43081,13 +43097,13 @@
         <v>3199</v>
       </c>
       <c r="B801" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="C801" t="s">
         <v>5732</v>
       </c>
       <c r="D801" t="s">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="E801" t="s">
         <v>3200</v>
@@ -43104,13 +43120,13 @@
         <v>3203</v>
       </c>
       <c r="B802" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C802" t="s">
+        <v>7008</v>
+      </c>
+      <c r="D802" t="s">
         <v>7009</v>
-      </c>
-      <c r="C802" t="s">
-        <v>7010</v>
-      </c>
-      <c r="D802" t="s">
-        <v>7011</v>
       </c>
       <c r="E802" t="s">
         <v>3204</v>
@@ -43127,13 +43143,13 @@
         <v>3207</v>
       </c>
       <c r="B803" t="s">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="C803" t="s">
         <v>5711</v>
       </c>
       <c r="D803" t="s">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="E803" t="s">
         <v>3208</v>
@@ -43173,13 +43189,13 @@
         <v>3215</v>
       </c>
       <c r="B805" t="s">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="C805" t="s">
         <v>5714</v>
       </c>
       <c r="D805" t="s">
-        <v>7015</v>
+        <v>7013</v>
       </c>
       <c r="E805" t="s">
         <v>3216</v>
@@ -43196,13 +43212,13 @@
         <v>3219</v>
       </c>
       <c r="B806" t="s">
-        <v>7016</v>
+        <v>7014</v>
       </c>
       <c r="C806" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="D806" t="s">
-        <v>7017</v>
+        <v>7015</v>
       </c>
       <c r="E806" t="s">
         <v>3220</v>
@@ -43242,13 +43258,13 @@
         <v>3227</v>
       </c>
       <c r="B808" t="s">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C808" t="s">
         <v>5732</v>
       </c>
       <c r="D808" t="s">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="E808" t="s">
         <v>3228</v>
@@ -43265,13 +43281,13 @@
         <v>3231</v>
       </c>
       <c r="B809" t="s">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C809" t="s">
         <v>5714</v>
       </c>
       <c r="D809" t="s">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="E809" t="s">
         <v>3232</v>
@@ -43288,13 +43304,13 @@
         <v>3235</v>
       </c>
       <c r="B810" t="s">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C810" t="s">
         <v>5714</v>
       </c>
       <c r="D810" t="s">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="E810" t="s">
         <v>3236</v>
@@ -43311,13 +43327,13 @@
         <v>3239</v>
       </c>
       <c r="B811" t="s">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C811" t="s">
         <v>5714</v>
       </c>
       <c r="D811" t="s">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="E811" t="s">
         <v>3240</v>
@@ -43334,7 +43350,7 @@
         <v>3243</v>
       </c>
       <c r="B812" t="s">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C812" t="s">
         <v>5732</v>
@@ -43357,13 +43373,13 @@
         <v>3247</v>
       </c>
       <c r="B813" t="s">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C813" t="s">
         <v>5708</v>
       </c>
       <c r="D813" t="s">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="E813" t="s">
         <v>3248</v>
@@ -43403,13 +43419,13 @@
         <v>3255</v>
       </c>
       <c r="B815" t="s">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C815" t="s">
         <v>5708</v>
       </c>
       <c r="D815" t="s">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="E815" t="s">
         <v>3256</v>
@@ -43426,13 +43442,13 @@
         <v>3259</v>
       </c>
       <c r="B816" t="s">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="C816" t="s">
         <v>5714</v>
       </c>
       <c r="D816" t="s">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="E816" t="s">
         <v>3260</v>
@@ -43449,13 +43465,13 @@
         <v>3263</v>
       </c>
       <c r="B817" t="s">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="C817" t="s">
         <v>5732</v>
       </c>
       <c r="D817" t="s">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="E817" t="s">
         <v>3264</v>
@@ -43472,13 +43488,13 @@
         <v>3267</v>
       </c>
       <c r="B818" t="s">
+        <v>7033</v>
+      </c>
+      <c r="C818" t="s">
+        <v>7034</v>
+      </c>
+      <c r="D818" t="s">
         <v>7035</v>
-      </c>
-      <c r="C818" t="s">
-        <v>7036</v>
-      </c>
-      <c r="D818" t="s">
-        <v>7037</v>
       </c>
       <c r="E818" t="s">
         <v>3268</v>
@@ -43495,13 +43511,13 @@
         <v>3271</v>
       </c>
       <c r="B819" t="s">
-        <v>7038</v>
+        <v>7036</v>
       </c>
       <c r="C819" t="s">
         <v>5714</v>
       </c>
       <c r="D819" t="s">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="E819" t="s">
         <v>3272</v>
@@ -43518,13 +43534,13 @@
         <v>3275</v>
       </c>
       <c r="B820" t="s">
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="C820" t="s">
         <v>5711</v>
       </c>
       <c r="D820" t="s">
-        <v>7041</v>
+        <v>7039</v>
       </c>
       <c r="E820" t="s">
         <v>3276</v>
@@ -43541,13 +43557,13 @@
         <v>3279</v>
       </c>
       <c r="B821" t="s">
-        <v>7042</v>
+        <v>7040</v>
       </c>
       <c r="C821" t="s">
         <v>5732</v>
       </c>
       <c r="D821" t="s">
-        <v>7043</v>
+        <v>7041</v>
       </c>
       <c r="E821" t="s">
         <v>3280</v>
@@ -43564,13 +43580,13 @@
         <v>3283</v>
       </c>
       <c r="B822" t="s">
-        <v>7044</v>
+        <v>7042</v>
       </c>
       <c r="C822" t="s">
         <v>5711</v>
       </c>
       <c r="D822" t="s">
-        <v>7045</v>
+        <v>7043</v>
       </c>
       <c r="E822" t="s">
         <v>3284</v>
@@ -43587,13 +43603,13 @@
         <v>3287</v>
       </c>
       <c r="B823" t="s">
-        <v>7046</v>
+        <v>7044</v>
       </c>
       <c r="C823" t="s">
         <v>5714</v>
       </c>
       <c r="D823" t="s">
-        <v>7047</v>
+        <v>7045</v>
       </c>
       <c r="E823" t="s">
         <v>3288</v>
@@ -43610,13 +43626,13 @@
         <v>3291</v>
       </c>
       <c r="B824" t="s">
-        <v>7048</v>
+        <v>7046</v>
       </c>
       <c r="C824" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="D824" t="s">
-        <v>7049</v>
+        <v>7047</v>
       </c>
       <c r="E824" t="s">
         <v>3292</v>
@@ -43633,13 +43649,13 @@
         <v>3295</v>
       </c>
       <c r="B825" t="s">
-        <v>7050</v>
+        <v>7048</v>
       </c>
       <c r="C825" t="s">
         <v>5711</v>
       </c>
       <c r="D825" t="s">
-        <v>7051</v>
+        <v>7049</v>
       </c>
       <c r="E825" t="s">
         <v>3296</v>
@@ -43656,13 +43672,13 @@
         <v>3299</v>
       </c>
       <c r="B826" t="s">
-        <v>7052</v>
+        <v>7050</v>
       </c>
       <c r="C826" t="s">
         <v>5782</v>
       </c>
       <c r="D826" t="s">
-        <v>7053</v>
+        <v>7051</v>
       </c>
       <c r="E826" t="s">
         <v>3300</v>
@@ -43679,13 +43695,13 @@
         <v>3303</v>
       </c>
       <c r="B827" t="s">
-        <v>7054</v>
+        <v>7052</v>
       </c>
       <c r="C827" t="s">
         <v>5930</v>
       </c>
       <c r="D827" t="s">
-        <v>7055</v>
+        <v>7053</v>
       </c>
       <c r="E827" t="s">
         <v>3304</v>
@@ -43725,13 +43741,13 @@
         <v>3311</v>
       </c>
       <c r="B829" t="s">
-        <v>7056</v>
+        <v>7054</v>
       </c>
       <c r="C829" t="s">
         <v>5927</v>
       </c>
       <c r="D829" t="s">
-        <v>7057</v>
+        <v>7055</v>
       </c>
       <c r="E829" t="s">
         <v>3312</v>
@@ -43817,13 +43833,13 @@
         <v>3327</v>
       </c>
       <c r="B833" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C833" t="s">
+        <v>7057</v>
+      </c>
+      <c r="D833" t="s">
         <v>7058</v>
-      </c>
-      <c r="C833" t="s">
-        <v>7059</v>
-      </c>
-      <c r="D833" t="s">
-        <v>7060</v>
       </c>
       <c r="E833" t="s">
         <v>3328</v>
@@ -43840,13 +43856,13 @@
         <v>3331</v>
       </c>
       <c r="B834" t="s">
-        <v>7061</v>
+        <v>7059</v>
       </c>
       <c r="C834" t="s">
         <v>5782</v>
       </c>
       <c r="D834" t="s">
-        <v>7062</v>
+        <v>7060</v>
       </c>
       <c r="E834" t="s">
         <v>3332</v>
@@ -43863,13 +43879,13 @@
         <v>3335</v>
       </c>
       <c r="B835" t="s">
-        <v>7063</v>
+        <v>7061</v>
       </c>
       <c r="C835" t="s">
         <v>5732</v>
       </c>
       <c r="D835" t="s">
-        <v>7064</v>
+        <v>7062</v>
       </c>
       <c r="E835" t="s">
         <v>3336</v>
@@ -43886,13 +43902,13 @@
         <v>3339</v>
       </c>
       <c r="B836" t="s">
-        <v>7065</v>
+        <v>7063</v>
       </c>
       <c r="C836" t="s">
         <v>5890</v>
       </c>
       <c r="D836" t="s">
-        <v>7066</v>
+        <v>7064</v>
       </c>
       <c r="E836" t="s">
         <v>3340</v>
@@ -43909,13 +43925,13 @@
         <v>3343</v>
       </c>
       <c r="B837" t="s">
-        <v>7067</v>
+        <v>7065</v>
       </c>
       <c r="C837" t="s">
         <v>5732</v>
       </c>
       <c r="D837" t="s">
-        <v>7068</v>
+        <v>7066</v>
       </c>
       <c r="E837" t="s">
         <v>3344</v>
@@ -43932,13 +43948,13 @@
         <v>3347</v>
       </c>
       <c r="B838" t="s">
-        <v>7069</v>
+        <v>7067</v>
       </c>
       <c r="C838" t="s">
         <v>5708</v>
       </c>
       <c r="D838" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
       <c r="E838" t="s">
         <v>3348</v>
@@ -43978,13 +43994,13 @@
         <v>3355</v>
       </c>
       <c r="B840" t="s">
-        <v>7071</v>
+        <v>7069</v>
       </c>
       <c r="C840" t="s">
         <v>5711</v>
       </c>
       <c r="D840" t="s">
-        <v>7072</v>
+        <v>7070</v>
       </c>
       <c r="E840" t="s">
         <v>3356</v>
@@ -44001,13 +44017,13 @@
         <v>3359</v>
       </c>
       <c r="B841" t="s">
-        <v>7073</v>
+        <v>7071</v>
       </c>
       <c r="C841" t="s">
         <v>5830</v>
       </c>
       <c r="D841" t="s">
-        <v>7074</v>
+        <v>7072</v>
       </c>
       <c r="E841" t="s">
         <v>3360</v>
@@ -44047,13 +44063,13 @@
         <v>3367</v>
       </c>
       <c r="B843" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C843" t="s">
+        <v>7074</v>
+      </c>
+      <c r="D843" t="s">
         <v>7075</v>
-      </c>
-      <c r="C843" t="s">
-        <v>7076</v>
-      </c>
-      <c r="D843" t="s">
-        <v>7077</v>
       </c>
       <c r="E843" t="s">
         <v>3368</v>
@@ -44070,13 +44086,13 @@
         <v>3371</v>
       </c>
       <c r="B844" t="s">
-        <v>7078</v>
+        <v>7076</v>
       </c>
       <c r="C844" t="s">
         <v>5714</v>
       </c>
       <c r="D844" t="s">
-        <v>7079</v>
+        <v>7077</v>
       </c>
       <c r="E844" t="s">
         <v>3372</v>
@@ -44093,13 +44109,13 @@
         <v>3375</v>
       </c>
       <c r="B845" t="s">
-        <v>7080</v>
+        <v>7078</v>
       </c>
       <c r="C845" t="s">
         <v>5714</v>
       </c>
       <c r="D845" t="s">
-        <v>7081</v>
+        <v>7079</v>
       </c>
       <c r="E845" t="s">
         <v>3376</v>
@@ -44116,13 +44132,13 @@
         <v>3379</v>
       </c>
       <c r="B846" t="s">
-        <v>7082</v>
+        <v>7080</v>
       </c>
       <c r="C846" t="s">
         <v>5711</v>
       </c>
       <c r="D846" t="s">
-        <v>7083</v>
+        <v>7081</v>
       </c>
       <c r="E846" t="s">
         <v>3380</v>
@@ -44139,13 +44155,13 @@
         <v>3383</v>
       </c>
       <c r="B847" t="s">
-        <v>7084</v>
+        <v>7082</v>
       </c>
       <c r="C847" t="s">
         <v>5732</v>
       </c>
       <c r="D847" t="s">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="E847" t="s">
         <v>3384</v>
@@ -44162,13 +44178,13 @@
         <v>3387</v>
       </c>
       <c r="B848" t="s">
-        <v>7086</v>
+        <v>7084</v>
       </c>
       <c r="C848" t="s">
         <v>5711</v>
       </c>
       <c r="D848" t="s">
-        <v>7087</v>
+        <v>7085</v>
       </c>
       <c r="E848" t="s">
         <v>3388</v>
@@ -44185,13 +44201,13 @@
         <v>3391</v>
       </c>
       <c r="B849" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="C849" t="s">
         <v>5711</v>
       </c>
       <c r="D849" t="s">
-        <v>7089</v>
+        <v>7087</v>
       </c>
       <c r="E849" t="s">
         <v>3392</v>
@@ -44208,13 +44224,13 @@
         <v>3395</v>
       </c>
       <c r="B850" t="s">
-        <v>7090</v>
+        <v>7088</v>
       </c>
       <c r="C850" t="s">
         <v>5711</v>
       </c>
       <c r="D850" t="s">
-        <v>7091</v>
+        <v>7089</v>
       </c>
       <c r="E850" t="s">
         <v>3396</v>
@@ -44254,13 +44270,13 @@
         <v>3403</v>
       </c>
       <c r="B852" t="s">
-        <v>7092</v>
+        <v>7090</v>
       </c>
       <c r="C852" t="s">
         <v>5711</v>
       </c>
       <c r="D852" t="s">
-        <v>7093</v>
+        <v>7091</v>
       </c>
       <c r="E852" t="s">
         <v>3404</v>
@@ -44277,13 +44293,13 @@
         <v>3407</v>
       </c>
       <c r="B853" t="s">
-        <v>7094</v>
+        <v>7092</v>
       </c>
       <c r="C853" t="s">
         <v>5927</v>
       </c>
       <c r="D853" t="s">
-        <v>7095</v>
+        <v>7093</v>
       </c>
       <c r="E853" t="s">
         <v>3408</v>
@@ -44300,13 +44316,13 @@
         <v>3411</v>
       </c>
       <c r="B854" t="s">
-        <v>7096</v>
+        <v>7094</v>
       </c>
       <c r="C854" t="s">
         <v>5714</v>
       </c>
       <c r="D854" t="s">
-        <v>7097</v>
+        <v>7095</v>
       </c>
       <c r="E854" t="s">
         <v>3412</v>
@@ -44323,13 +44339,13 @@
         <v>3415</v>
       </c>
       <c r="B855" t="s">
-        <v>7098</v>
+        <v>7096</v>
       </c>
       <c r="C855" t="s">
         <v>5714</v>
       </c>
       <c r="D855" t="s">
-        <v>7099</v>
+        <v>7097</v>
       </c>
       <c r="E855" t="s">
         <v>3416</v>
@@ -44346,13 +44362,13 @@
         <v>3419</v>
       </c>
       <c r="B856" t="s">
-        <v>7100</v>
+        <v>7098</v>
       </c>
       <c r="C856" t="s">
         <v>5732</v>
       </c>
       <c r="D856" t="s">
-        <v>7101</v>
+        <v>7099</v>
       </c>
       <c r="E856" t="s">
         <v>3420</v>
@@ -44369,13 +44385,13 @@
         <v>3423</v>
       </c>
       <c r="B857" t="s">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="C857" t="s">
         <v>5782</v>
       </c>
       <c r="D857" t="s">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="E857" t="s">
         <v>3424</v>
@@ -44392,13 +44408,13 @@
         <v>3427</v>
       </c>
       <c r="B858" t="s">
+        <v>7102</v>
+      </c>
+      <c r="C858" t="s">
+        <v>7103</v>
+      </c>
+      <c r="D858" t="s">
         <v>7104</v>
-      </c>
-      <c r="C858" t="s">
-        <v>7105</v>
-      </c>
-      <c r="D858" t="s">
-        <v>7106</v>
       </c>
       <c r="E858" t="s">
         <v>3428</v>
@@ -44415,13 +44431,13 @@
         <v>3431</v>
       </c>
       <c r="B859" t="s">
+        <v>7105</v>
+      </c>
+      <c r="C859" t="s">
+        <v>7106</v>
+      </c>
+      <c r="D859" t="s">
         <v>7107</v>
-      </c>
-      <c r="C859" t="s">
-        <v>7108</v>
-      </c>
-      <c r="D859" t="s">
-        <v>7109</v>
       </c>
       <c r="E859" t="s">
         <v>3432</v>
@@ -44438,13 +44454,13 @@
         <v>3435</v>
       </c>
       <c r="B860" t="s">
-        <v>7110</v>
+        <v>7108</v>
       </c>
       <c r="C860" t="s">
         <v>5782</v>
       </c>
       <c r="D860" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="E860" t="s">
         <v>3436</v>
@@ -44461,7 +44477,7 @@
         <v>3439</v>
       </c>
       <c r="B861" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="C861" t="s">
         <v>5732</v>
@@ -44484,7 +44500,7 @@
         <v>3443</v>
       </c>
       <c r="B862" t="s">
-        <v>7113</v>
+        <v>7111</v>
       </c>
       <c r="C862" t="s">
         <v>5732</v>
@@ -44507,13 +44523,13 @@
         <v>3447</v>
       </c>
       <c r="B863" t="s">
-        <v>7114</v>
+        <v>7112</v>
       </c>
       <c r="C863" t="s">
         <v>5732</v>
       </c>
       <c r="D863" t="s">
-        <v>7115</v>
+        <v>7113</v>
       </c>
       <c r="E863" t="s">
         <v>3448</v>
@@ -44530,13 +44546,13 @@
         <v>3451</v>
       </c>
       <c r="B864" t="s">
-        <v>7116</v>
+        <v>7114</v>
       </c>
       <c r="C864" t="s">
         <v>5711</v>
       </c>
       <c r="D864" t="s">
-        <v>7117</v>
+        <v>7115</v>
       </c>
       <c r="E864" t="s">
         <v>3452</v>
@@ -44553,13 +44569,13 @@
         <v>3455</v>
       </c>
       <c r="B865" t="s">
+        <v>7116</v>
+      </c>
+      <c r="C865" t="s">
+        <v>7117</v>
+      </c>
+      <c r="D865" t="s">
         <v>7118</v>
-      </c>
-      <c r="C865" t="s">
-        <v>7119</v>
-      </c>
-      <c r="D865" t="s">
-        <v>7120</v>
       </c>
       <c r="E865" t="s">
         <v>3456</v>
@@ -44576,13 +44592,13 @@
         <v>3459</v>
       </c>
       <c r="B866" t="s">
-        <v>7121</v>
+        <v>7119</v>
       </c>
       <c r="C866" t="s">
         <v>5714</v>
       </c>
       <c r="D866" t="s">
-        <v>7122</v>
+        <v>7120</v>
       </c>
       <c r="E866" t="s">
         <v>3460</v>
@@ -44622,13 +44638,13 @@
         <v>3467</v>
       </c>
       <c r="B868" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="C868" t="s">
         <v>5732</v>
       </c>
       <c r="D868" t="s">
-        <v>7124</v>
+        <v>7122</v>
       </c>
       <c r="E868" t="s">
         <v>3468</v>
@@ -44645,13 +44661,13 @@
         <v>3471</v>
       </c>
       <c r="B869" t="s">
+        <v>7123</v>
+      </c>
+      <c r="C869" t="s">
+        <v>7124</v>
+      </c>
+      <c r="D869" t="s">
         <v>7125</v>
-      </c>
-      <c r="C869" t="s">
-        <v>7126</v>
-      </c>
-      <c r="D869" t="s">
-        <v>7127</v>
       </c>
       <c r="E869" t="s">
         <v>3472</v>
@@ -44668,13 +44684,13 @@
         <v>3475</v>
       </c>
       <c r="B870" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="C870" t="s">
         <v>5711</v>
       </c>
       <c r="D870" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="E870" t="s">
         <v>3476</v>
@@ -44714,13 +44730,13 @@
         <v>3483</v>
       </c>
       <c r="B872" t="s">
-        <v>7130</v>
+        <v>7128</v>
       </c>
       <c r="C872" t="s">
         <v>5732</v>
       </c>
       <c r="D872" t="s">
-        <v>7131</v>
+        <v>7129</v>
       </c>
       <c r="E872" t="s">
         <v>3484</v>
@@ -44760,13 +44776,13 @@
         <v>3491</v>
       </c>
       <c r="B874" t="s">
-        <v>7132</v>
+        <v>7130</v>
       </c>
       <c r="C874" t="s">
         <v>5714</v>
       </c>
       <c r="D874" t="s">
-        <v>7133</v>
+        <v>7131</v>
       </c>
       <c r="E874" t="s">
         <v>3492</v>
@@ -44783,13 +44799,13 @@
         <v>3495</v>
       </c>
       <c r="B875" t="s">
-        <v>7134</v>
+        <v>7132</v>
       </c>
       <c r="C875" t="s">
         <v>5714</v>
       </c>
       <c r="D875" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="E875" t="s">
         <v>3496</v>
@@ -44806,13 +44822,13 @@
         <v>3499</v>
       </c>
       <c r="B876" t="s">
-        <v>7136</v>
+        <v>7134</v>
       </c>
       <c r="C876" t="s">
         <v>5732</v>
       </c>
       <c r="D876" t="s">
-        <v>7137</v>
+        <v>7135</v>
       </c>
       <c r="E876" t="s">
         <v>3500</v>
@@ -44852,13 +44868,13 @@
         <v>3507</v>
       </c>
       <c r="B878" t="s">
+        <v>7136</v>
+      </c>
+      <c r="C878" t="s">
+        <v>7137</v>
+      </c>
+      <c r="D878" t="s">
         <v>7138</v>
-      </c>
-      <c r="C878" t="s">
-        <v>7139</v>
-      </c>
-      <c r="D878" t="s">
-        <v>7140</v>
       </c>
       <c r="E878" t="s">
         <v>3508</v>
@@ -44921,13 +44937,13 @@
         <v>3519</v>
       </c>
       <c r="B881" t="s">
-        <v>7141</v>
+        <v>7139</v>
       </c>
       <c r="C881" t="s">
         <v>5732</v>
       </c>
       <c r="D881" t="s">
-        <v>7142</v>
+        <v>7140</v>
       </c>
       <c r="E881" t="s">
         <v>3520</v>
@@ -44944,13 +44960,13 @@
         <v>3523</v>
       </c>
       <c r="B882" t="s">
-        <v>7143</v>
+        <v>7141</v>
       </c>
       <c r="C882" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="D882" t="s">
-        <v>7144</v>
+        <v>7142</v>
       </c>
       <c r="E882" t="s">
         <v>3524</v>
@@ -44967,13 +44983,13 @@
         <v>3527</v>
       </c>
       <c r="B883" t="s">
-        <v>7145</v>
+        <v>7143</v>
       </c>
       <c r="C883" t="s">
         <v>5714</v>
       </c>
       <c r="D883" t="s">
-        <v>7146</v>
+        <v>7144</v>
       </c>
       <c r="E883" t="s">
         <v>3528</v>
@@ -44990,13 +45006,13 @@
         <v>3531</v>
       </c>
       <c r="B884" t="s">
-        <v>7147</v>
+        <v>7145</v>
       </c>
       <c r="C884" t="s">
         <v>5817</v>
       </c>
       <c r="D884" t="s">
-        <v>7148</v>
+        <v>7146</v>
       </c>
       <c r="E884" t="s">
         <v>3532</v>
@@ -45013,13 +45029,13 @@
         <v>3535</v>
       </c>
       <c r="B885" t="s">
-        <v>7149</v>
+        <v>7147</v>
       </c>
       <c r="C885" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="D885" t="s">
-        <v>7150</v>
+        <v>7148</v>
       </c>
       <c r="E885" t="s">
         <v>3536</v>
@@ -45036,13 +45052,13 @@
         <v>3539</v>
       </c>
       <c r="B886" t="s">
-        <v>7151</v>
+        <v>7149</v>
       </c>
       <c r="C886" t="s">
         <v>5711</v>
       </c>
       <c r="D886" t="s">
-        <v>7152</v>
+        <v>7150</v>
       </c>
       <c r="E886" t="s">
         <v>3540</v>
@@ -45059,13 +45075,13 @@
         <v>3543</v>
       </c>
       <c r="B887" t="s">
-        <v>7153</v>
+        <v>7151</v>
       </c>
       <c r="C887" t="s">
         <v>5890</v>
       </c>
       <c r="D887" t="s">
-        <v>7154</v>
+        <v>7152</v>
       </c>
       <c r="E887" t="s">
         <v>3544</v>
@@ -45082,13 +45098,13 @@
         <v>3547</v>
       </c>
       <c r="B888" t="s">
-        <v>7155</v>
+        <v>7153</v>
       </c>
       <c r="C888" t="s">
         <v>5708</v>
       </c>
       <c r="D888" t="s">
-        <v>7156</v>
+        <v>7154</v>
       </c>
       <c r="E888" t="s">
         <v>3548</v>
@@ -45128,13 +45144,13 @@
         <v>3555</v>
       </c>
       <c r="B890" t="s">
-        <v>7157</v>
+        <v>7155</v>
       </c>
       <c r="C890" t="s">
         <v>5711</v>
       </c>
       <c r="D890" t="s">
-        <v>7158</v>
+        <v>7156</v>
       </c>
       <c r="E890" t="s">
         <v>3556</v>
@@ -45151,13 +45167,13 @@
         <v>3559</v>
       </c>
       <c r="B891" t="s">
-        <v>7159</v>
+        <v>7157</v>
       </c>
       <c r="C891" t="s">
         <v>5714</v>
       </c>
       <c r="D891" t="s">
-        <v>7160</v>
+        <v>7158</v>
       </c>
       <c r="E891" t="s">
         <v>3560</v>
@@ -45174,13 +45190,13 @@
         <v>3563</v>
       </c>
       <c r="B892" t="s">
+        <v>7159</v>
+      </c>
+      <c r="C892" t="s">
+        <v>7160</v>
+      </c>
+      <c r="D892" t="s">
         <v>7161</v>
-      </c>
-      <c r="C892" t="s">
-        <v>7162</v>
-      </c>
-      <c r="D892" t="s">
-        <v>7163</v>
       </c>
       <c r="E892" t="s">
         <v>3564</v>
@@ -45220,13 +45236,13 @@
         <v>3571</v>
       </c>
       <c r="B894" t="s">
-        <v>7164</v>
+        <v>7162</v>
       </c>
       <c r="C894" t="s">
         <v>5732</v>
       </c>
       <c r="D894" t="s">
-        <v>7165</v>
+        <v>7163</v>
       </c>
       <c r="E894" t="s">
         <v>3572</v>
@@ -45243,13 +45259,13 @@
         <v>3571</v>
       </c>
       <c r="B895" t="s">
-        <v>7164</v>
+        <v>7162</v>
       </c>
       <c r="C895" t="s">
         <v>5714</v>
       </c>
       <c r="D895" t="s">
-        <v>7165</v>
+        <v>7163</v>
       </c>
       <c r="E895" t="s">
         <v>3572</v>
@@ -45378,13 +45394,13 @@
         <v>3595</v>
       </c>
       <c r="B901" t="s">
-        <v>7166</v>
+        <v>7164</v>
       </c>
       <c r="C901" t="s">
         <v>5782</v>
       </c>
       <c r="D901" t="s">
-        <v>7167</v>
+        <v>7165</v>
       </c>
       <c r="E901" t="s">
         <v>3596</v>
@@ -45401,13 +45417,13 @@
         <v>3599</v>
       </c>
       <c r="B902" t="s">
-        <v>7168</v>
+        <v>7166</v>
       </c>
       <c r="C902" t="s">
         <v>5782</v>
       </c>
       <c r="D902" t="s">
-        <v>7169</v>
+        <v>7167</v>
       </c>
       <c r="E902" t="s">
         <v>3600</v>
@@ -45424,13 +45440,13 @@
         <v>3603</v>
       </c>
       <c r="B903" t="s">
-        <v>7170</v>
+        <v>7168</v>
       </c>
       <c r="C903" t="s">
         <v>5782</v>
       </c>
       <c r="D903" t="s">
-        <v>7171</v>
+        <v>7169</v>
       </c>
       <c r="E903" t="s">
         <v>3604</v>
@@ -45447,13 +45463,13 @@
         <v>3607</v>
       </c>
       <c r="B904" t="s">
-        <v>7172</v>
+        <v>7170</v>
       </c>
       <c r="C904" t="s">
         <v>5782</v>
       </c>
       <c r="D904" t="s">
-        <v>7173</v>
+        <v>7171</v>
       </c>
       <c r="E904" t="s">
         <v>3608</v>
@@ -45493,13 +45509,13 @@
         <v>3615</v>
       </c>
       <c r="B906" t="s">
-        <v>7174</v>
+        <v>7172</v>
       </c>
       <c r="C906" t="s">
         <v>5711</v>
       </c>
       <c r="D906" t="s">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="E906" t="s">
         <v>3616</v>
@@ -45516,13 +45532,13 @@
         <v>3619</v>
       </c>
       <c r="B907" t="s">
-        <v>7176</v>
+        <v>7174</v>
       </c>
       <c r="C907" t="s">
         <v>5711</v>
       </c>
       <c r="D907" t="s">
-        <v>7177</v>
+        <v>7175</v>
       </c>
       <c r="E907" t="s">
         <v>3620</v>
@@ -45539,13 +45555,13 @@
         <v>3623</v>
       </c>
       <c r="B908" t="s">
-        <v>7178</v>
+        <v>7176</v>
       </c>
       <c r="C908" t="s">
         <v>5711</v>
       </c>
       <c r="D908" t="s">
-        <v>7179</v>
+        <v>7177</v>
       </c>
       <c r="E908" t="s">
         <v>3624</v>
@@ -45562,13 +45578,13 @@
         <v>3627</v>
       </c>
       <c r="B909" t="s">
-        <v>7180</v>
+        <v>7178</v>
       </c>
       <c r="C909" t="s">
         <v>5714</v>
       </c>
       <c r="D909" t="s">
-        <v>7181</v>
+        <v>7179</v>
       </c>
       <c r="E909" t="s">
         <v>3628</v>
@@ -45608,13 +45624,13 @@
         <v>3635</v>
       </c>
       <c r="B911" t="s">
-        <v>7182</v>
+        <v>7180</v>
       </c>
       <c r="C911" t="s">
         <v>5930</v>
       </c>
       <c r="D911" t="s">
-        <v>7183</v>
+        <v>7181</v>
       </c>
       <c r="E911" t="s">
         <v>3636</v>
@@ -45631,13 +45647,13 @@
         <v>3639</v>
       </c>
       <c r="B912" t="s">
-        <v>7184</v>
+        <v>7182</v>
       </c>
       <c r="C912" t="s">
         <v>5890</v>
       </c>
       <c r="D912" t="s">
-        <v>7185</v>
+        <v>7183</v>
       </c>
       <c r="E912" t="s">
         <v>3640</v>
@@ -45677,13 +45693,13 @@
         <v>3647</v>
       </c>
       <c r="B914" t="s">
-        <v>7186</v>
+        <v>7184</v>
       </c>
       <c r="C914" t="s">
         <v>5748</v>
       </c>
       <c r="D914" t="s">
-        <v>7187</v>
+        <v>7185</v>
       </c>
       <c r="E914" t="s">
         <v>3648</v>
@@ -45723,13 +45739,13 @@
         <v>3655</v>
       </c>
       <c r="B916" t="s">
-        <v>7188</v>
+        <v>7186</v>
       </c>
       <c r="C916" t="s">
         <v>5714</v>
       </c>
       <c r="D916" t="s">
-        <v>7189</v>
+        <v>7187</v>
       </c>
       <c r="E916" t="s">
         <v>3656</v>
@@ -45746,13 +45762,13 @@
         <v>3659</v>
       </c>
       <c r="B917" t="s">
-        <v>7190</v>
+        <v>7188</v>
       </c>
       <c r="C917" t="s">
         <v>5711</v>
       </c>
       <c r="D917" t="s">
-        <v>7191</v>
+        <v>7189</v>
       </c>
       <c r="E917" t="s">
         <v>3660</v>
@@ -45769,13 +45785,13 @@
         <v>3663</v>
       </c>
       <c r="B918" t="s">
-        <v>7192</v>
+        <v>7190</v>
       </c>
       <c r="C918" t="s">
         <v>5714</v>
       </c>
       <c r="D918" t="s">
-        <v>7193</v>
+        <v>7191</v>
       </c>
       <c r="E918" t="s">
         <v>3664</v>
@@ -45792,13 +45808,13 @@
         <v>3667</v>
       </c>
       <c r="B919" t="s">
-        <v>7194</v>
+        <v>7192</v>
       </c>
       <c r="C919" t="s">
         <v>5711</v>
       </c>
       <c r="D919" t="s">
-        <v>7195</v>
+        <v>7193</v>
       </c>
       <c r="E919" t="s">
         <v>3668</v>
@@ -45815,13 +45831,13 @@
         <v>3671</v>
       </c>
       <c r="B920" t="s">
-        <v>7196</v>
+        <v>7194</v>
       </c>
       <c r="C920" t="s">
         <v>5714</v>
       </c>
       <c r="D920" t="s">
-        <v>7197</v>
+        <v>7195</v>
       </c>
       <c r="E920" t="s">
         <v>3672</v>
@@ -45838,13 +45854,13 @@
         <v>3675</v>
       </c>
       <c r="B921" t="s">
-        <v>7198</v>
+        <v>7196</v>
       </c>
       <c r="C921" t="s">
         <v>5711</v>
       </c>
       <c r="D921" t="s">
-        <v>7199</v>
+        <v>7197</v>
       </c>
       <c r="E921" t="s">
         <v>3676</v>
@@ -45861,13 +45877,13 @@
         <v>3679</v>
       </c>
       <c r="B922" t="s">
-        <v>7200</v>
+        <v>7198</v>
       </c>
       <c r="C922" t="s">
         <v>5927</v>
       </c>
       <c r="D922" t="s">
-        <v>7201</v>
+        <v>7199</v>
       </c>
       <c r="E922" t="s">
         <v>3680</v>
@@ -45884,13 +45900,13 @@
         <v>3683</v>
       </c>
       <c r="B923" t="s">
-        <v>7202</v>
+        <v>7200</v>
       </c>
       <c r="C923" t="s">
         <v>5711</v>
       </c>
       <c r="D923" t="s">
-        <v>7203</v>
+        <v>7201</v>
       </c>
       <c r="E923" t="s">
         <v>3684</v>
@@ -45907,13 +45923,13 @@
         <v>3687</v>
       </c>
       <c r="B924" t="s">
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="C924" t="s">
         <v>5714</v>
       </c>
       <c r="D924" t="s">
-        <v>7205</v>
+        <v>7203</v>
       </c>
       <c r="E924" t="s">
         <v>3688</v>
@@ -45930,13 +45946,13 @@
         <v>3691</v>
       </c>
       <c r="B925" t="s">
-        <v>7206</v>
+        <v>7204</v>
       </c>
       <c r="C925" t="s">
         <v>5782</v>
       </c>
       <c r="D925" t="s">
-        <v>7207</v>
+        <v>7205</v>
       </c>
       <c r="E925" t="s">
         <v>3692</v>
@@ -45953,13 +45969,13 @@
         <v>3695</v>
       </c>
       <c r="B926" t="s">
-        <v>7208</v>
+        <v>7206</v>
       </c>
       <c r="C926" t="s">
         <v>5711</v>
       </c>
       <c r="D926" t="s">
-        <v>7209</v>
+        <v>7207</v>
       </c>
       <c r="E926" t="s">
         <v>3696</v>
@@ -45976,13 +45992,13 @@
         <v>3699</v>
       </c>
       <c r="B927" t="s">
-        <v>7210</v>
+        <v>7208</v>
       </c>
       <c r="C927" t="s">
         <v>6170</v>
       </c>
       <c r="D927" t="s">
-        <v>7211</v>
+        <v>7209</v>
       </c>
       <c r="E927" t="s">
         <v>3700</v>
@@ -45999,13 +46015,13 @@
         <v>3703</v>
       </c>
       <c r="B928" t="s">
-        <v>7212</v>
+        <v>7210</v>
       </c>
       <c r="C928" t="s">
         <v>5711</v>
       </c>
       <c r="D928" t="s">
-        <v>7213</v>
+        <v>7211</v>
       </c>
       <c r="E928" t="s">
         <v>3704</v>
@@ -46022,13 +46038,13 @@
         <v>3707</v>
       </c>
       <c r="B929" t="s">
-        <v>7214</v>
+        <v>7212</v>
       </c>
       <c r="C929" t="s">
         <v>5714</v>
       </c>
       <c r="D929" t="s">
-        <v>7215</v>
+        <v>7213</v>
       </c>
       <c r="E929" t="s">
         <v>3708</v>
@@ -46045,13 +46061,13 @@
         <v>3711</v>
       </c>
       <c r="B930" t="s">
-        <v>7216</v>
+        <v>7214</v>
       </c>
       <c r="C930" t="s">
         <v>5711</v>
       </c>
       <c r="D930" t="s">
-        <v>7217</v>
+        <v>7215</v>
       </c>
       <c r="E930" t="s">
         <v>3712</v>
@@ -46114,13 +46130,13 @@
         <v>3723</v>
       </c>
       <c r="B933" t="s">
-        <v>7218</v>
+        <v>7216</v>
       </c>
       <c r="C933" t="s">
         <v>5927</v>
       </c>
       <c r="D933" t="s">
-        <v>7219</v>
+        <v>7217</v>
       </c>
       <c r="E933" t="s">
         <v>3724</v>
@@ -46137,13 +46153,13 @@
         <v>3727</v>
       </c>
       <c r="B934" t="s">
-        <v>7220</v>
+        <v>7218</v>
       </c>
       <c r="C934" t="s">
         <v>5840</v>
       </c>
       <c r="D934" t="s">
-        <v>7221</v>
+        <v>7219</v>
       </c>
       <c r="E934" t="s">
         <v>3728</v>
@@ -46160,13 +46176,13 @@
         <v>3731</v>
       </c>
       <c r="B935" t="s">
-        <v>7222</v>
+        <v>7220</v>
       </c>
       <c r="C935" t="s">
         <v>5817</v>
       </c>
       <c r="D935" t="s">
-        <v>7223</v>
+        <v>7221</v>
       </c>
       <c r="E935" t="s">
         <v>3732</v>
@@ -46183,13 +46199,13 @@
         <v>3735</v>
       </c>
       <c r="B936" t="s">
-        <v>7224</v>
+        <v>7222</v>
       </c>
       <c r="C936" t="s">
         <v>5930</v>
       </c>
       <c r="D936" t="s">
-        <v>7225</v>
+        <v>7223</v>
       </c>
       <c r="E936" t="s">
         <v>3736</v>
@@ -46206,13 +46222,13 @@
         <v>3739</v>
       </c>
       <c r="B937" t="s">
-        <v>7226</v>
+        <v>7224</v>
       </c>
       <c r="C937" t="s">
         <v>5711</v>
       </c>
       <c r="D937" t="s">
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="E937" t="s">
         <v>3740</v>
@@ -46229,13 +46245,13 @@
         <v>3743</v>
       </c>
       <c r="B938" t="s">
-        <v>7228</v>
+        <v>7226</v>
       </c>
       <c r="C938" t="s">
         <v>5734</v>
       </c>
       <c r="D938" t="s">
-        <v>7229</v>
+        <v>7227</v>
       </c>
       <c r="E938" t="s">
         <v>3744</v>
@@ -46275,13 +46291,13 @@
         <v>3751</v>
       </c>
       <c r="B940" t="s">
-        <v>7230</v>
+        <v>7228</v>
       </c>
       <c r="C940" t="s">
         <v>5714</v>
       </c>
       <c r="D940" t="s">
-        <v>7231</v>
+        <v>7229</v>
       </c>
       <c r="E940" t="s">
         <v>3752</v>
@@ -46298,13 +46314,13 @@
         <v>3755</v>
       </c>
       <c r="B941" t="s">
-        <v>7232</v>
+        <v>7230</v>
       </c>
       <c r="C941" t="s">
         <v>5714</v>
       </c>
       <c r="D941" t="s">
-        <v>7233</v>
+        <v>7231</v>
       </c>
       <c r="E941" t="s">
         <v>3756</v>
@@ -46321,13 +46337,13 @@
         <v>3759</v>
       </c>
       <c r="B942" t="s">
-        <v>7234</v>
+        <v>7232</v>
       </c>
       <c r="C942" t="s">
         <v>5714</v>
       </c>
       <c r="D942" t="s">
-        <v>7235</v>
+        <v>7233</v>
       </c>
       <c r="E942" t="s">
         <v>3760</v>
@@ -46344,13 +46360,13 @@
         <v>3763</v>
       </c>
       <c r="B943" t="s">
-        <v>7236</v>
+        <v>7234</v>
       </c>
       <c r="C943" t="s">
         <v>5714</v>
       </c>
       <c r="D943" t="s">
-        <v>7237</v>
+        <v>7235</v>
       </c>
       <c r="E943" t="s">
         <v>3764</v>
@@ -46367,13 +46383,13 @@
         <v>3767</v>
       </c>
       <c r="B944" t="s">
-        <v>7238</v>
+        <v>7236</v>
       </c>
       <c r="C944" t="s">
         <v>5714</v>
       </c>
       <c r="D944" t="s">
-        <v>7239</v>
+        <v>7237</v>
       </c>
       <c r="E944" t="s">
         <v>3768</v>
@@ -46390,13 +46406,13 @@
         <v>3771</v>
       </c>
       <c r="B945" t="s">
-        <v>7240</v>
+        <v>7238</v>
       </c>
       <c r="C945" t="s">
         <v>5927</v>
       </c>
       <c r="D945" t="s">
-        <v>7241</v>
+        <v>7239</v>
       </c>
       <c r="E945" t="s">
         <v>3772</v>
@@ -46413,13 +46429,13 @@
         <v>3775</v>
       </c>
       <c r="B946" t="s">
-        <v>7242</v>
+        <v>7240</v>
       </c>
       <c r="C946" t="s">
         <v>5711</v>
       </c>
       <c r="D946" t="s">
-        <v>7243</v>
+        <v>7241</v>
       </c>
       <c r="E946" t="s">
         <v>3776</v>
@@ -46459,13 +46475,13 @@
         <v>3783</v>
       </c>
       <c r="B948" t="s">
-        <v>7244</v>
+        <v>7242</v>
       </c>
       <c r="C948" t="s">
         <v>5714</v>
       </c>
       <c r="D948" t="s">
-        <v>7245</v>
+        <v>7243</v>
       </c>
       <c r="E948" t="s">
         <v>3784</v>
@@ -46505,13 +46521,13 @@
         <v>3791</v>
       </c>
       <c r="B950" t="s">
-        <v>7246</v>
+        <v>7244</v>
       </c>
       <c r="C950" t="s">
         <v>5890</v>
       </c>
       <c r="D950" t="s">
-        <v>7247</v>
+        <v>7245</v>
       </c>
       <c r="E950" t="s">
         <v>3792</v>
@@ -46528,13 +46544,13 @@
         <v>3795</v>
       </c>
       <c r="B951" t="s">
-        <v>7248</v>
+        <v>7246</v>
       </c>
       <c r="C951" t="s">
         <v>5714</v>
       </c>
       <c r="D951" t="s">
-        <v>7249</v>
+        <v>7247</v>
       </c>
       <c r="E951" t="s">
         <v>3796</v>
@@ -46551,13 +46567,13 @@
         <v>3799</v>
       </c>
       <c r="B952" t="s">
-        <v>7250</v>
+        <v>7248</v>
       </c>
       <c r="C952" t="s">
         <v>5748</v>
       </c>
       <c r="D952" t="s">
-        <v>7251</v>
+        <v>7249</v>
       </c>
       <c r="E952" t="s">
         <v>3800</v>
@@ -46574,13 +46590,13 @@
         <v>3803</v>
       </c>
       <c r="B953" t="s">
-        <v>7252</v>
+        <v>7250</v>
       </c>
       <c r="C953" t="s">
         <v>5711</v>
       </c>
       <c r="D953" t="s">
-        <v>7253</v>
+        <v>7251</v>
       </c>
       <c r="E953" t="s">
         <v>3804</v>
@@ -46597,13 +46613,13 @@
         <v>3807</v>
       </c>
       <c r="B954" t="s">
-        <v>7254</v>
+        <v>7252</v>
       </c>
       <c r="C954" t="s">
         <v>5714</v>
       </c>
       <c r="D954" t="s">
-        <v>7255</v>
+        <v>7253</v>
       </c>
       <c r="E954" t="s">
         <v>3808</v>
@@ -46620,13 +46636,13 @@
         <v>3811</v>
       </c>
       <c r="B955" t="s">
-        <v>7256</v>
+        <v>7254</v>
       </c>
       <c r="C955" t="s">
         <v>5711</v>
       </c>
       <c r="D955" t="s">
-        <v>7257</v>
+        <v>7255</v>
       </c>
       <c r="E955" t="s">
         <v>3812</v>
@@ -46643,13 +46659,13 @@
         <v>3815</v>
       </c>
       <c r="B956" t="s">
-        <v>7258</v>
+        <v>7256</v>
       </c>
       <c r="C956" t="s">
         <v>5711</v>
       </c>
       <c r="D956" t="s">
-        <v>7259</v>
+        <v>7257</v>
       </c>
       <c r="E956" t="s">
         <v>3816</v>
@@ -46666,13 +46682,13 @@
         <v>3819</v>
       </c>
       <c r="B957" t="s">
-        <v>7260</v>
+        <v>7258</v>
       </c>
       <c r="C957" t="s">
         <v>5732</v>
       </c>
       <c r="D957" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="E957" t="s">
         <v>3820</v>
@@ -46689,13 +46705,13 @@
         <v>3823</v>
       </c>
       <c r="B958" t="s">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="C958" t="s">
         <v>5714</v>
       </c>
       <c r="D958" t="s">
-        <v>7263</v>
+        <v>7261</v>
       </c>
       <c r="E958" t="s">
         <v>3824</v>
@@ -46712,13 +46728,13 @@
         <v>3827</v>
       </c>
       <c r="B959" t="s">
-        <v>7264</v>
+        <v>7262</v>
       </c>
       <c r="C959" t="s">
         <v>5782</v>
       </c>
       <c r="D959" t="s">
-        <v>7265</v>
+        <v>7263</v>
       </c>
       <c r="E959" t="s">
         <v>3828</v>
@@ -46735,13 +46751,13 @@
         <v>3831</v>
       </c>
       <c r="B960" t="s">
-        <v>7266</v>
+        <v>7264</v>
       </c>
       <c r="C960" t="s">
         <v>5711</v>
       </c>
       <c r="D960" t="s">
-        <v>7267</v>
+        <v>7265</v>
       </c>
       <c r="E960" t="s">
         <v>3832</v>
@@ -46758,13 +46774,13 @@
         <v>3835</v>
       </c>
       <c r="B961" t="s">
-        <v>7268</v>
+        <v>7266</v>
       </c>
       <c r="C961" t="s">
         <v>5714</v>
       </c>
       <c r="D961" t="s">
-        <v>7269</v>
+        <v>7267</v>
       </c>
       <c r="E961" t="s">
         <v>3836</v>
@@ -46781,13 +46797,13 @@
         <v>3839</v>
       </c>
       <c r="B962" t="s">
-        <v>7270</v>
+        <v>7268</v>
       </c>
       <c r="C962" t="s">
         <v>5711</v>
       </c>
       <c r="D962" t="s">
-        <v>7271</v>
+        <v>7269</v>
       </c>
       <c r="E962" t="s">
         <v>3840</v>
@@ -46804,13 +46820,13 @@
         <v>3843</v>
       </c>
       <c r="B963" t="s">
-        <v>7272</v>
+        <v>7270</v>
       </c>
       <c r="C963" t="s">
         <v>5708</v>
       </c>
       <c r="D963" t="s">
-        <v>7273</v>
+        <v>7271</v>
       </c>
       <c r="E963" t="s">
         <v>3844</v>
@@ -46827,13 +46843,13 @@
         <v>3847</v>
       </c>
       <c r="B964" t="s">
-        <v>7274</v>
+        <v>7272</v>
       </c>
       <c r="C964" t="s">
         <v>5714</v>
       </c>
       <c r="D964" t="s">
-        <v>7275</v>
+        <v>7273</v>
       </c>
       <c r="E964" t="s">
         <v>3848</v>
@@ -46850,13 +46866,13 @@
         <v>3851</v>
       </c>
       <c r="B965" t="s">
-        <v>7276</v>
+        <v>7274</v>
       </c>
       <c r="C965" t="s">
         <v>5714</v>
       </c>
       <c r="D965" t="s">
-        <v>7277</v>
+        <v>7275</v>
       </c>
       <c r="E965" t="s">
         <v>3852</v>
@@ -46873,13 +46889,13 @@
         <v>3855</v>
       </c>
       <c r="B966" t="s">
-        <v>7278</v>
+        <v>7276</v>
       </c>
       <c r="C966" t="s">
         <v>5930</v>
       </c>
       <c r="D966" t="s">
-        <v>7279</v>
+        <v>7277</v>
       </c>
       <c r="E966" t="s">
         <v>3856</v>
@@ -46896,13 +46912,13 @@
         <v>3859</v>
       </c>
       <c r="B967" t="s">
-        <v>7280</v>
+        <v>7278</v>
       </c>
       <c r="C967" t="s">
         <v>6224</v>
       </c>
       <c r="D967" t="s">
-        <v>7281</v>
+        <v>7279</v>
       </c>
       <c r="E967" t="s">
         <v>3860</v>
@@ -46942,13 +46958,13 @@
         <v>3867</v>
       </c>
       <c r="B969" t="s">
-        <v>7282</v>
+        <v>7280</v>
       </c>
       <c r="C969" t="s">
         <v>5714</v>
       </c>
       <c r="D969" t="s">
-        <v>7283</v>
+        <v>7281</v>
       </c>
       <c r="E969" t="s">
         <v>3868</v>
@@ -46965,13 +46981,13 @@
         <v>3871</v>
       </c>
       <c r="B970" t="s">
-        <v>7284</v>
+        <v>7282</v>
       </c>
       <c r="C970" t="s">
         <v>5714</v>
       </c>
       <c r="D970" t="s">
-        <v>7285</v>
+        <v>7283</v>
       </c>
       <c r="E970" t="s">
         <v>3872</v>
@@ -47011,13 +47027,13 @@
         <v>3879</v>
       </c>
       <c r="B972" t="s">
-        <v>7286</v>
+        <v>7284</v>
       </c>
       <c r="C972" t="s">
         <v>5714</v>
       </c>
       <c r="D972" t="s">
-        <v>7287</v>
+        <v>7285</v>
       </c>
       <c r="E972" t="s">
         <v>3880</v>
@@ -47034,13 +47050,13 @@
         <v>3883</v>
       </c>
       <c r="B973" t="s">
-        <v>7288</v>
+        <v>7286</v>
       </c>
       <c r="C973" t="s">
         <v>5711</v>
       </c>
       <c r="D973" t="s">
-        <v>7289</v>
+        <v>7287</v>
       </c>
       <c r="E973" t="s">
         <v>3884</v>
@@ -47080,13 +47096,13 @@
         <v>3891</v>
       </c>
       <c r="B975" t="s">
-        <v>7290</v>
+        <v>7288</v>
       </c>
       <c r="C975" t="s">
         <v>5711</v>
       </c>
       <c r="D975" t="s">
-        <v>7291</v>
+        <v>7289</v>
       </c>
       <c r="E975" t="s">
         <v>3892</v>
@@ -47103,13 +47119,13 @@
         <v>3895</v>
       </c>
       <c r="B976" t="s">
-        <v>7292</v>
+        <v>7290</v>
       </c>
       <c r="C976" t="s">
         <v>5711</v>
       </c>
       <c r="D976" t="s">
-        <v>7293</v>
+        <v>7291</v>
       </c>
       <c r="E976" t="s">
         <v>3896</v>
@@ -47126,13 +47142,13 @@
         <v>3899</v>
       </c>
       <c r="B977" t="s">
-        <v>7294</v>
+        <v>7292</v>
       </c>
       <c r="C977" t="s">
         <v>5711</v>
       </c>
       <c r="D977" t="s">
-        <v>7295</v>
+        <v>7293</v>
       </c>
       <c r="E977" t="s">
         <v>3900</v>
@@ -47149,13 +47165,13 @@
         <v>3903</v>
       </c>
       <c r="B978" t="s">
-        <v>7296</v>
+        <v>7294</v>
       </c>
       <c r="C978" t="s">
         <v>5711</v>
       </c>
       <c r="D978" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="E978" t="s">
         <v>3904</v>
@@ -47172,13 +47188,13 @@
         <v>3907</v>
       </c>
       <c r="B979" t="s">
-        <v>7298</v>
+        <v>7296</v>
       </c>
       <c r="C979" t="s">
         <v>5711</v>
       </c>
       <c r="D979" t="s">
-        <v>7299</v>
+        <v>7297</v>
       </c>
       <c r="E979" t="s">
         <v>3908</v>
@@ -47195,13 +47211,13 @@
         <v>3911</v>
       </c>
       <c r="B980" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="C980" t="s">
         <v>5782</v>
       </c>
       <c r="D980" t="s">
-        <v>7301</v>
+        <v>7299</v>
       </c>
       <c r="E980" t="s">
         <v>3912</v>
@@ -47218,13 +47234,13 @@
         <v>3915</v>
       </c>
       <c r="B981" t="s">
-        <v>7302</v>
+        <v>7300</v>
       </c>
       <c r="C981" t="s">
         <v>5714</v>
       </c>
       <c r="D981" t="s">
-        <v>7303</v>
+        <v>7301</v>
       </c>
       <c r="E981" t="s">
         <v>3916</v>
@@ -47241,13 +47257,13 @@
         <v>3919</v>
       </c>
       <c r="B982" t="s">
-        <v>7304</v>
+        <v>7302</v>
       </c>
       <c r="C982" t="s">
         <v>5817</v>
       </c>
       <c r="D982" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="E982" t="s">
         <v>3920</v>
@@ -47264,13 +47280,13 @@
         <v>3923</v>
       </c>
       <c r="B983" t="s">
-        <v>7306</v>
+        <v>7304</v>
       </c>
       <c r="C983" t="s">
         <v>5714</v>
       </c>
       <c r="D983" t="s">
-        <v>7307</v>
+        <v>7305</v>
       </c>
       <c r="E983" t="s">
         <v>3924</v>
@@ -47287,13 +47303,13 @@
         <v>3927</v>
       </c>
       <c r="B984" t="s">
-        <v>7308</v>
+        <v>7306</v>
       </c>
       <c r="C984" t="s">
         <v>5714</v>
       </c>
       <c r="D984" t="s">
-        <v>7309</v>
+        <v>7307</v>
       </c>
       <c r="E984" t="s">
         <v>3928</v>
@@ -47310,13 +47326,13 @@
         <v>3931</v>
       </c>
       <c r="B985" t="s">
-        <v>7310</v>
+        <v>7308</v>
       </c>
       <c r="C985" t="s">
         <v>5714</v>
       </c>
       <c r="D985" t="s">
-        <v>7311</v>
+        <v>7309</v>
       </c>
       <c r="E985" t="s">
         <v>3932</v>
@@ -47333,13 +47349,13 @@
         <v>3935</v>
       </c>
       <c r="B986" t="s">
-        <v>7312</v>
+        <v>7310</v>
       </c>
       <c r="C986" t="s">
         <v>5708</v>
       </c>
       <c r="D986" t="s">
-        <v>7313</v>
+        <v>7311</v>
       </c>
       <c r="E986" t="s">
         <v>3936</v>
@@ -47356,13 +47372,13 @@
         <v>3939</v>
       </c>
       <c r="B987" t="s">
-        <v>7314</v>
+        <v>7312</v>
       </c>
       <c r="C987" t="s">
         <v>5927</v>
       </c>
       <c r="D987" t="s">
-        <v>7315</v>
+        <v>7313</v>
       </c>
       <c r="E987" t="s">
         <v>3940</v>
@@ -47379,13 +47395,13 @@
         <v>3943</v>
       </c>
       <c r="B988" t="s">
-        <v>7316</v>
+        <v>7314</v>
       </c>
       <c r="C988" t="s">
         <v>5711</v>
       </c>
       <c r="D988" t="s">
-        <v>7317</v>
+        <v>7315</v>
       </c>
       <c r="E988" t="s">
         <v>3944</v>
@@ -47402,13 +47418,13 @@
         <v>3947</v>
       </c>
       <c r="B989" t="s">
-        <v>7318</v>
+        <v>7316</v>
       </c>
       <c r="C989" t="s">
         <v>5711</v>
       </c>
       <c r="D989" t="s">
-        <v>7319</v>
+        <v>7317</v>
       </c>
       <c r="E989" t="s">
         <v>3948</v>
@@ -47425,13 +47441,13 @@
         <v>3951</v>
       </c>
       <c r="B990" t="s">
-        <v>7320</v>
+        <v>7318</v>
       </c>
       <c r="C990" t="s">
         <v>5711</v>
       </c>
       <c r="D990" t="s">
-        <v>7321</v>
+        <v>7319</v>
       </c>
       <c r="E990" t="s">
         <v>3952</v>
@@ -47448,13 +47464,13 @@
         <v>3955</v>
       </c>
       <c r="B991" t="s">
-        <v>7322</v>
+        <v>7320</v>
       </c>
       <c r="C991" t="s">
         <v>5711</v>
       </c>
       <c r="D991" t="s">
-        <v>7323</v>
+        <v>7321</v>
       </c>
       <c r="E991" t="s">
         <v>3956</v>
@@ -47471,13 +47487,13 @@
         <v>3959</v>
       </c>
       <c r="B992" t="s">
-        <v>7324</v>
+        <v>7322</v>
       </c>
       <c r="C992" t="s">
         <v>5748</v>
       </c>
       <c r="D992" t="s">
-        <v>7325</v>
+        <v>7323</v>
       </c>
       <c r="E992" t="s">
         <v>3960</v>
@@ -47494,13 +47510,13 @@
         <v>3963</v>
       </c>
       <c r="B993" t="s">
-        <v>7326</v>
+        <v>7324</v>
       </c>
       <c r="C993" t="s">
         <v>5714</v>
       </c>
       <c r="D993" t="s">
-        <v>7327</v>
+        <v>7325</v>
       </c>
       <c r="E993" t="s">
         <v>3964</v>
@@ -47517,13 +47533,13 @@
         <v>3967</v>
       </c>
       <c r="B994" t="s">
-        <v>7328</v>
+        <v>7326</v>
       </c>
       <c r="C994" t="s">
         <v>5714</v>
       </c>
       <c r="D994" t="s">
-        <v>7329</v>
+        <v>7327</v>
       </c>
       <c r="E994" t="s">
         <v>3968</v>
@@ -47540,13 +47556,13 @@
         <v>3971</v>
       </c>
       <c r="B995" t="s">
-        <v>7330</v>
+        <v>7328</v>
       </c>
       <c r="C995" t="s">
         <v>5714</v>
       </c>
       <c r="D995" t="s">
-        <v>7331</v>
+        <v>7329</v>
       </c>
       <c r="E995" t="s">
         <v>3972</v>
@@ -47563,13 +47579,13 @@
         <v>3975</v>
       </c>
       <c r="B996" t="s">
+        <v>7330</v>
+      </c>
+      <c r="C996" t="s">
+        <v>7331</v>
+      </c>
+      <c r="D996" t="s">
         <v>7332</v>
-      </c>
-      <c r="C996" t="s">
-        <v>7333</v>
-      </c>
-      <c r="D996" t="s">
-        <v>7334</v>
       </c>
       <c r="E996" t="s">
         <v>3976</v>
@@ -47586,13 +47602,13 @@
         <v>3979</v>
       </c>
       <c r="B997" t="s">
-        <v>7335</v>
+        <v>7333</v>
       </c>
       <c r="C997" t="s">
         <v>5714</v>
       </c>
       <c r="D997" t="s">
-        <v>7336</v>
+        <v>7334</v>
       </c>
       <c r="E997" t="s">
         <v>3980</v>
@@ -47609,13 +47625,13 @@
         <v>3983</v>
       </c>
       <c r="B998" t="s">
-        <v>7337</v>
+        <v>7335</v>
       </c>
       <c r="C998" t="s">
         <v>5890</v>
       </c>
       <c r="D998" t="s">
-        <v>7338</v>
+        <v>7336</v>
       </c>
       <c r="E998" t="s">
         <v>3984</v>
@@ -47632,13 +47648,13 @@
         <v>3987</v>
       </c>
       <c r="B999" t="s">
-        <v>7339</v>
+        <v>7337</v>
       </c>
       <c r="C999" t="s">
         <v>5751</v>
       </c>
       <c r="D999" t="s">
-        <v>7340</v>
+        <v>7338</v>
       </c>
       <c r="E999" t="s">
         <v>3988</v>
@@ -47655,13 +47671,13 @@
         <v>3991</v>
       </c>
       <c r="B1000" t="s">
-        <v>7341</v>
+        <v>7339</v>
       </c>
       <c r="C1000" t="s">
         <v>5817</v>
       </c>
       <c r="D1000" t="s">
-        <v>7342</v>
+        <v>7340</v>
       </c>
       <c r="E1000" t="s">
         <v>3992</v>
@@ -47678,13 +47694,13 @@
         <v>3995</v>
       </c>
       <c r="B1001" t="s">
-        <v>7343</v>
+        <v>7341</v>
       </c>
       <c r="C1001" t="s">
         <v>5890</v>
       </c>
       <c r="D1001" t="s">
-        <v>7344</v>
+        <v>7342</v>
       </c>
       <c r="E1001" t="s">
         <v>3996</v>
@@ -47701,13 +47717,13 @@
         <v>3999</v>
       </c>
       <c r="B1002" t="s">
-        <v>7345</v>
+        <v>7343</v>
       </c>
       <c r="C1002" t="s">
         <v>5927</v>
       </c>
       <c r="D1002" t="s">
-        <v>7346</v>
+        <v>7344</v>
       </c>
       <c r="E1002" t="s">
         <v>4000</v>
@@ -47724,13 +47740,13 @@
         <v>4003</v>
       </c>
       <c r="B1003" t="s">
-        <v>7347</v>
+        <v>7345</v>
       </c>
       <c r="C1003" t="s">
         <v>5927</v>
       </c>
       <c r="D1003" t="s">
-        <v>7348</v>
+        <v>7346</v>
       </c>
       <c r="E1003" t="s">
         <v>4004</v>
@@ -47747,13 +47763,13 @@
         <v>4007</v>
       </c>
       <c r="B1004" t="s">
-        <v>7349</v>
+        <v>7347</v>
       </c>
       <c r="C1004" t="s">
         <v>5823</v>
       </c>
       <c r="D1004" t="s">
-        <v>7350</v>
+        <v>7348</v>
       </c>
       <c r="E1004" t="s">
         <v>4008</v>
@@ -47770,13 +47786,13 @@
         <v>4011</v>
       </c>
       <c r="B1005" t="s">
-        <v>7351</v>
+        <v>7349</v>
       </c>
       <c r="C1005" t="s">
         <v>5714</v>
       </c>
       <c r="D1005" t="s">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="E1005" t="s">
         <v>4012</v>
@@ -47816,13 +47832,13 @@
         <v>4019</v>
       </c>
       <c r="B1007" t="s">
-        <v>7353</v>
+        <v>7351</v>
       </c>
       <c r="C1007" t="s">
         <v>6030</v>
       </c>
       <c r="D1007" t="s">
-        <v>7354</v>
+        <v>7352</v>
       </c>
       <c r="E1007" t="s">
         <v>4020</v>
@@ -47862,13 +47878,13 @@
         <v>4027</v>
       </c>
       <c r="B1009" t="s">
-        <v>7355</v>
+        <v>7353</v>
       </c>
       <c r="C1009" t="s">
         <v>5711</v>
       </c>
       <c r="D1009" t="s">
-        <v>7356</v>
+        <v>7354</v>
       </c>
       <c r="E1009" t="s">
         <v>4028</v>
@@ -47931,13 +47947,13 @@
         <v>4039</v>
       </c>
       <c r="B1012" t="s">
-        <v>7357</v>
+        <v>7355</v>
       </c>
       <c r="C1012" t="s">
         <v>5711</v>
       </c>
       <c r="D1012" t="s">
-        <v>7358</v>
+        <v>7356</v>
       </c>
       <c r="E1012" t="s">
         <v>4040</v>
@@ -47954,13 +47970,13 @@
         <v>4043</v>
       </c>
       <c r="B1013" t="s">
-        <v>7359</v>
+        <v>7357</v>
       </c>
       <c r="C1013" t="s">
         <v>5708</v>
       </c>
       <c r="D1013" t="s">
-        <v>7360</v>
+        <v>7358</v>
       </c>
       <c r="E1013" t="s">
         <v>4044</v>
@@ -48023,13 +48039,13 @@
         <v>4055</v>
       </c>
       <c r="B1016" t="s">
-        <v>7361</v>
+        <v>7359</v>
       </c>
       <c r="C1016" t="s">
         <v>5711</v>
       </c>
       <c r="D1016" t="s">
-        <v>7362</v>
+        <v>7360</v>
       </c>
       <c r="E1016" t="s">
         <v>4056</v>
@@ -48046,13 +48062,13 @@
         <v>4059</v>
       </c>
       <c r="B1017" t="s">
-        <v>7363</v>
+        <v>7361</v>
       </c>
       <c r="C1017" t="s">
         <v>5714</v>
       </c>
       <c r="D1017" t="s">
-        <v>7364</v>
+        <v>7362</v>
       </c>
       <c r="E1017" t="s">
         <v>4060</v>
@@ -48092,13 +48108,13 @@
         <v>4067</v>
       </c>
       <c r="B1019" t="s">
-        <v>7365</v>
+        <v>7363</v>
       </c>
       <c r="C1019" t="s">
         <v>5711</v>
       </c>
       <c r="D1019" t="s">
-        <v>7366</v>
+        <v>7364</v>
       </c>
       <c r="E1019" t="s">
         <v>4068</v>
@@ -48115,13 +48131,13 @@
         <v>4071</v>
       </c>
       <c r="B1020" t="s">
-        <v>7367</v>
+        <v>7365</v>
       </c>
       <c r="C1020" t="s">
         <v>5817</v>
       </c>
       <c r="D1020" t="s">
-        <v>7368</v>
+        <v>7366</v>
       </c>
       <c r="E1020" t="s">
         <v>4072</v>
@@ -48138,13 +48154,13 @@
         <v>4075</v>
       </c>
       <c r="B1021" t="s">
-        <v>7369</v>
+        <v>7367</v>
       </c>
       <c r="C1021" t="s">
         <v>5714</v>
       </c>
       <c r="D1021" t="s">
-        <v>7370</v>
+        <v>7368</v>
       </c>
       <c r="E1021" t="s">
         <v>4076</v>
@@ -48161,13 +48177,13 @@
         <v>4079</v>
       </c>
       <c r="B1022" t="s">
-        <v>7371</v>
+        <v>7369</v>
       </c>
       <c r="C1022" t="s">
         <v>6289</v>
       </c>
       <c r="D1022" t="s">
-        <v>7372</v>
+        <v>7370</v>
       </c>
       <c r="E1022" t="s">
         <v>4080</v>
@@ -48184,13 +48200,13 @@
         <v>4083</v>
       </c>
       <c r="B1023" t="s">
-        <v>7373</v>
+        <v>7371</v>
       </c>
       <c r="C1023" t="s">
         <v>5976</v>
       </c>
       <c r="D1023" t="s">
-        <v>7374</v>
+        <v>7372</v>
       </c>
       <c r="E1023" t="s">
         <v>4084</v>
@@ -48207,13 +48223,13 @@
         <v>4087</v>
       </c>
       <c r="B1024" t="s">
-        <v>7375</v>
+        <v>7373</v>
       </c>
       <c r="C1024" t="s">
         <v>5714</v>
       </c>
       <c r="D1024" t="s">
-        <v>7376</v>
+        <v>7374</v>
       </c>
       <c r="E1024" t="s">
         <v>4088</v>
@@ -48230,13 +48246,13 @@
         <v>4091</v>
       </c>
       <c r="B1025" t="s">
-        <v>7377</v>
+        <v>7375</v>
       </c>
       <c r="C1025" t="s">
         <v>5711</v>
       </c>
       <c r="D1025" t="s">
-        <v>7378</v>
+        <v>7376</v>
       </c>
       <c r="E1025" t="s">
         <v>4092</v>
@@ -48253,13 +48269,13 @@
         <v>4095</v>
       </c>
       <c r="B1026" t="s">
-        <v>7379</v>
+        <v>7377</v>
       </c>
       <c r="C1026" t="s">
         <v>5711</v>
       </c>
       <c r="D1026" t="s">
-        <v>7380</v>
+        <v>7378</v>
       </c>
       <c r="E1026" t="s">
         <v>4096</v>
@@ -48276,13 +48292,13 @@
         <v>4099</v>
       </c>
       <c r="B1027" t="s">
-        <v>7381</v>
+        <v>7379</v>
       </c>
       <c r="C1027" t="s">
         <v>5976</v>
       </c>
       <c r="D1027" t="s">
-        <v>7382</v>
+        <v>7380</v>
       </c>
       <c r="E1027" t="s">
         <v>4100</v>
@@ -48299,13 +48315,13 @@
         <v>4103</v>
       </c>
       <c r="B1028" t="s">
-        <v>7383</v>
+        <v>7381</v>
       </c>
       <c r="C1028" t="s">
         <v>5930</v>
       </c>
       <c r="D1028" t="s">
-        <v>7384</v>
+        <v>7382</v>
       </c>
       <c r="E1028" t="s">
         <v>4104</v>
@@ -48345,13 +48361,13 @@
         <v>4111</v>
       </c>
       <c r="B1030" t="s">
-        <v>7385</v>
+        <v>7383</v>
       </c>
       <c r="C1030" t="s">
         <v>5714</v>
       </c>
       <c r="D1030" t="s">
-        <v>7386</v>
+        <v>7384</v>
       </c>
       <c r="E1030" t="s">
         <v>4112</v>
@@ -48368,13 +48384,13 @@
         <v>4115</v>
       </c>
       <c r="B1031" t="s">
-        <v>7387</v>
+        <v>7385</v>
       </c>
       <c r="C1031" t="s">
         <v>5711</v>
       </c>
       <c r="D1031" t="s">
-        <v>7388</v>
+        <v>7386</v>
       </c>
       <c r="E1031" t="s">
         <v>4116</v>
@@ -48391,13 +48407,13 @@
         <v>4119</v>
       </c>
       <c r="B1032" t="s">
-        <v>7389</v>
+        <v>7387</v>
       </c>
       <c r="C1032" t="s">
         <v>5711</v>
       </c>
       <c r="D1032" t="s">
-        <v>7390</v>
+        <v>7388</v>
       </c>
       <c r="E1032" t="s">
         <v>4120</v>
@@ -48414,13 +48430,13 @@
         <v>4123</v>
       </c>
       <c r="B1033" t="s">
-        <v>7391</v>
+        <v>7389</v>
       </c>
       <c r="C1033" t="s">
         <v>5732</v>
       </c>
       <c r="D1033" t="s">
-        <v>7392</v>
+        <v>7390</v>
       </c>
       <c r="E1033" t="s">
         <v>4124</v>
@@ -48437,13 +48453,13 @@
         <v>4127</v>
       </c>
       <c r="B1034" t="s">
-        <v>7393</v>
+        <v>7391</v>
       </c>
       <c r="C1034" t="s">
         <v>6424</v>
       </c>
       <c r="D1034" t="s">
-        <v>7394</v>
+        <v>7392</v>
       </c>
       <c r="E1034" t="s">
         <v>4128</v>
@@ -48460,13 +48476,13 @@
         <v>4131</v>
       </c>
       <c r="B1035" t="s">
-        <v>7395</v>
+        <v>7393</v>
       </c>
       <c r="C1035" t="s">
         <v>5714</v>
       </c>
       <c r="D1035" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="E1035" t="s">
         <v>4132</v>
@@ -48483,13 +48499,13 @@
         <v>4135</v>
       </c>
       <c r="B1036" t="s">
-        <v>7397</v>
+        <v>7395</v>
       </c>
       <c r="C1036" t="s">
         <v>5927</v>
       </c>
       <c r="D1036" t="s">
-        <v>7398</v>
+        <v>7396</v>
       </c>
       <c r="E1036" t="s">
         <v>4136</v>
@@ -48506,13 +48522,13 @@
         <v>4139</v>
       </c>
       <c r="B1037" t="s">
-        <v>7399</v>
+        <v>7397</v>
       </c>
       <c r="C1037" t="s">
         <v>5976</v>
       </c>
       <c r="D1037" t="s">
-        <v>7400</v>
+        <v>7398</v>
       </c>
       <c r="E1037" t="s">
         <v>4140</v>
@@ -48529,13 +48545,13 @@
         <v>4143</v>
       </c>
       <c r="B1038" t="s">
-        <v>7401</v>
+        <v>7399</v>
       </c>
       <c r="C1038" t="s">
         <v>5711</v>
       </c>
       <c r="D1038" t="s">
-        <v>7402</v>
+        <v>7400</v>
       </c>
       <c r="E1038" t="s">
         <v>4144</v>
@@ -48575,13 +48591,13 @@
         <v>4151</v>
       </c>
       <c r="B1040" t="s">
-        <v>7403</v>
+        <v>7401</v>
       </c>
       <c r="C1040" t="s">
         <v>5714</v>
       </c>
       <c r="D1040" t="s">
-        <v>7404</v>
+        <v>7402</v>
       </c>
       <c r="E1040" t="s">
         <v>4152</v>
@@ -48598,13 +48614,13 @@
         <v>4155</v>
       </c>
       <c r="B1041" t="s">
-        <v>7405</v>
+        <v>7403</v>
       </c>
       <c r="C1041" t="s">
         <v>5714</v>
       </c>
       <c r="D1041" t="s">
-        <v>7406</v>
+        <v>7404</v>
       </c>
       <c r="E1041" t="s">
         <v>4156</v>
@@ -48621,13 +48637,13 @@
         <v>4159</v>
       </c>
       <c r="B1042" t="s">
-        <v>7407</v>
+        <v>7405</v>
       </c>
       <c r="C1042" t="s">
         <v>5714</v>
       </c>
       <c r="D1042" t="s">
-        <v>7408</v>
+        <v>7406</v>
       </c>
       <c r="E1042" t="s">
         <v>4160</v>
@@ -48644,13 +48660,13 @@
         <v>4163</v>
       </c>
       <c r="B1043" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
       <c r="C1043" t="s">
         <v>5890</v>
       </c>
       <c r="D1043" t="s">
-        <v>7410</v>
+        <v>7408</v>
       </c>
       <c r="E1043" t="s">
         <v>4164</v>
@@ -48667,13 +48683,13 @@
         <v>4167</v>
       </c>
       <c r="B1044" t="s">
-        <v>7411</v>
+        <v>7409</v>
       </c>
       <c r="C1044" t="s">
         <v>5927</v>
       </c>
       <c r="D1044" t="s">
-        <v>7412</v>
+        <v>7410</v>
       </c>
       <c r="E1044" t="s">
         <v>4168</v>
@@ -48690,13 +48706,13 @@
         <v>4171</v>
       </c>
       <c r="B1045" t="s">
-        <v>7413</v>
+        <v>7411</v>
       </c>
       <c r="C1045" t="s">
         <v>5708</v>
       </c>
       <c r="D1045" t="s">
-        <v>7414</v>
+        <v>7412</v>
       </c>
       <c r="E1045" t="s">
         <v>4172</v>
@@ -48713,13 +48729,13 @@
         <v>4175</v>
       </c>
       <c r="B1046" t="s">
-        <v>7415</v>
+        <v>7413</v>
       </c>
       <c r="C1046" t="s">
         <v>5927</v>
       </c>
       <c r="D1046" t="s">
-        <v>7416</v>
+        <v>7414</v>
       </c>
       <c r="E1046" t="s">
         <v>4176</v>
@@ -48736,13 +48752,13 @@
         <v>4179</v>
       </c>
       <c r="B1047" t="s">
-        <v>7417</v>
+        <v>7415</v>
       </c>
       <c r="C1047" t="s">
         <v>5714</v>
       </c>
       <c r="D1047" t="s">
-        <v>7418</v>
+        <v>7416</v>
       </c>
       <c r="E1047" t="s">
         <v>4180</v>
@@ -48759,13 +48775,13 @@
         <v>4183</v>
       </c>
       <c r="B1048" t="s">
-        <v>7419</v>
+        <v>7417</v>
       </c>
       <c r="C1048" t="s">
         <v>5927</v>
       </c>
       <c r="D1048" t="s">
-        <v>7420</v>
+        <v>7418</v>
       </c>
       <c r="E1048" t="s">
         <v>4184</v>
@@ -48782,13 +48798,13 @@
         <v>4187</v>
       </c>
       <c r="B1049" t="s">
-        <v>7421</v>
+        <v>7419</v>
       </c>
       <c r="C1049" t="s">
         <v>5927</v>
       </c>
       <c r="D1049" t="s">
-        <v>7422</v>
+        <v>7420</v>
       </c>
       <c r="E1049" t="s">
         <v>4188</v>
@@ -48805,13 +48821,13 @@
         <v>4191</v>
       </c>
       <c r="B1050" t="s">
-        <v>7423</v>
+        <v>7421</v>
       </c>
       <c r="C1050" t="s">
         <v>5714</v>
       </c>
       <c r="D1050" t="s">
-        <v>7424</v>
+        <v>7422</v>
       </c>
       <c r="E1050" t="s">
         <v>4192</v>
@@ -48828,13 +48844,13 @@
         <v>4195</v>
       </c>
       <c r="B1051" t="s">
-        <v>7425</v>
+        <v>7423</v>
       </c>
       <c r="C1051" t="s">
         <v>5714</v>
       </c>
       <c r="D1051" t="s">
-        <v>7426</v>
+        <v>7424</v>
       </c>
       <c r="E1051" t="s">
         <v>4196</v>
@@ -48851,13 +48867,13 @@
         <v>4199</v>
       </c>
       <c r="B1052" t="s">
+        <v>7425</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>7426</v>
+      </c>
+      <c r="D1052" t="s">
         <v>7427</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>7428</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>7429</v>
       </c>
       <c r="E1052" t="s">
         <v>4200</v>
@@ -48874,13 +48890,13 @@
         <v>4203</v>
       </c>
       <c r="B1053" t="s">
-        <v>7430</v>
+        <v>7428</v>
       </c>
       <c r="C1053" t="s">
         <v>5711</v>
       </c>
       <c r="D1053" t="s">
-        <v>7431</v>
+        <v>7429</v>
       </c>
       <c r="E1053" t="s">
         <v>4204</v>
@@ -48897,13 +48913,13 @@
         <v>4207</v>
       </c>
       <c r="B1054" t="s">
-        <v>7432</v>
+        <v>7430</v>
       </c>
       <c r="C1054" t="s">
         <v>5714</v>
       </c>
       <c r="D1054" t="s">
-        <v>7433</v>
+        <v>7431</v>
       </c>
       <c r="E1054" t="s">
         <v>4208</v>
@@ -48920,13 +48936,13 @@
         <v>4211</v>
       </c>
       <c r="B1055" t="s">
-        <v>7434</v>
+        <v>7432</v>
       </c>
       <c r="C1055" t="s">
         <v>5711</v>
       </c>
       <c r="D1055" t="s">
-        <v>7435</v>
+        <v>7433</v>
       </c>
       <c r="E1055" t="s">
         <v>4212</v>
@@ -48943,13 +48959,13 @@
         <v>4215</v>
       </c>
       <c r="B1056" t="s">
-        <v>7436</v>
+        <v>7434</v>
       </c>
       <c r="C1056" t="s">
         <v>5711</v>
       </c>
       <c r="D1056" t="s">
-        <v>7437</v>
+        <v>7435</v>
       </c>
       <c r="E1056" t="s">
         <v>4216</v>
@@ -48966,13 +48982,13 @@
         <v>4219</v>
       </c>
       <c r="B1057" t="s">
-        <v>7438</v>
+        <v>7436</v>
       </c>
       <c r="C1057" t="s">
         <v>5927</v>
       </c>
       <c r="D1057" t="s">
-        <v>7439</v>
+        <v>7437</v>
       </c>
       <c r="E1057" t="s">
         <v>4220</v>
@@ -48989,13 +49005,13 @@
         <v>4223</v>
       </c>
       <c r="B1058" t="s">
-        <v>7440</v>
+        <v>7438</v>
       </c>
       <c r="C1058" t="s">
         <v>5708</v>
       </c>
       <c r="D1058" t="s">
-        <v>7441</v>
+        <v>7439</v>
       </c>
       <c r="E1058" t="s">
         <v>4224</v>
@@ -49012,13 +49028,13 @@
         <v>4227</v>
       </c>
       <c r="B1059" t="s">
-        <v>7442</v>
+        <v>7440</v>
       </c>
       <c r="C1059" t="s">
         <v>5711</v>
       </c>
       <c r="D1059" t="s">
-        <v>7443</v>
+        <v>7441</v>
       </c>
       <c r="E1059" t="s">
         <v>4228</v>
@@ -49035,13 +49051,13 @@
         <v>4231</v>
       </c>
       <c r="B1060" t="s">
-        <v>7444</v>
+        <v>7442</v>
       </c>
       <c r="C1060" t="s">
         <v>5711</v>
       </c>
       <c r="D1060" t="s">
-        <v>7445</v>
+        <v>7443</v>
       </c>
       <c r="E1060" t="s">
         <v>4232</v>
@@ -49058,13 +49074,13 @@
         <v>4235</v>
       </c>
       <c r="B1061" t="s">
-        <v>7446</v>
+        <v>7444</v>
       </c>
       <c r="C1061" t="s">
         <v>5890</v>
       </c>
       <c r="D1061" t="s">
-        <v>7447</v>
+        <v>7445</v>
       </c>
       <c r="E1061" t="s">
         <v>4236</v>
@@ -49081,13 +49097,13 @@
         <v>4239</v>
       </c>
       <c r="B1062" t="s">
-        <v>7448</v>
+        <v>7446</v>
       </c>
       <c r="C1062" t="s">
         <v>5714</v>
       </c>
       <c r="D1062" t="s">
-        <v>7449</v>
+        <v>7447</v>
       </c>
       <c r="E1062" t="s">
         <v>4240</v>
@@ -49104,13 +49120,13 @@
         <v>4243</v>
       </c>
       <c r="B1063" t="s">
-        <v>7450</v>
+        <v>7448</v>
       </c>
       <c r="C1063" t="s">
         <v>5782</v>
       </c>
       <c r="D1063" t="s">
-        <v>7451</v>
+        <v>7449</v>
       </c>
       <c r="E1063" t="s">
         <v>4244</v>
@@ -49127,13 +49143,13 @@
         <v>4247</v>
       </c>
       <c r="B1064" t="s">
-        <v>7452</v>
+        <v>7450</v>
       </c>
       <c r="C1064" t="s">
         <v>5734</v>
       </c>
       <c r="D1064" t="s">
-        <v>7453</v>
+        <v>7451</v>
       </c>
       <c r="E1064" t="s">
         <v>4248</v>
@@ -49150,13 +49166,13 @@
         <v>4251</v>
       </c>
       <c r="B1065" t="s">
-        <v>7454</v>
+        <v>7452</v>
       </c>
       <c r="C1065" t="s">
         <v>6424</v>
       </c>
       <c r="D1065" t="s">
-        <v>7455</v>
+        <v>7453</v>
       </c>
       <c r="E1065" t="s">
         <v>4252</v>
@@ -49173,13 +49189,13 @@
         <v>4255</v>
       </c>
       <c r="B1066" t="s">
-        <v>7456</v>
+        <v>7454</v>
       </c>
       <c r="C1066" t="s">
         <v>5711</v>
       </c>
       <c r="D1066" t="s">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="E1066" t="s">
         <v>4256</v>
@@ -49196,13 +49212,13 @@
         <v>4259</v>
       </c>
       <c r="B1067" t="s">
-        <v>7458</v>
+        <v>7456</v>
       </c>
       <c r="C1067" t="s">
         <v>5927</v>
       </c>
       <c r="D1067" t="s">
-        <v>7459</v>
+        <v>7457</v>
       </c>
       <c r="E1067" t="s">
         <v>4260</v>
@@ -49219,13 +49235,13 @@
         <v>4263</v>
       </c>
       <c r="B1068" t="s">
+        <v>7458</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>7459</v>
+      </c>
+      <c r="D1068" t="s">
         <v>7460</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>7461</v>
-      </c>
-      <c r="D1068" t="s">
-        <v>7462</v>
       </c>
       <c r="E1068" t="s">
         <v>4264</v>
@@ -49242,13 +49258,13 @@
         <v>4267</v>
       </c>
       <c r="B1069" t="s">
+        <v>7461</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>7462</v>
+      </c>
+      <c r="D1069" t="s">
         <v>7463</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>7464</v>
-      </c>
-      <c r="D1069" t="s">
-        <v>7465</v>
       </c>
       <c r="E1069" t="s">
         <v>4268</v>
@@ -49265,13 +49281,13 @@
         <v>4271</v>
       </c>
       <c r="B1070" t="s">
-        <v>7466</v>
+        <v>7464</v>
       </c>
       <c r="C1070" t="s">
         <v>5830</v>
       </c>
       <c r="D1070" t="s">
-        <v>7467</v>
+        <v>7465</v>
       </c>
       <c r="E1070" t="s">
         <v>4272</v>
@@ -49311,13 +49327,13 @@
         <v>4279</v>
       </c>
       <c r="B1072" t="s">
-        <v>7468</v>
+        <v>7466</v>
       </c>
       <c r="C1072" t="s">
         <v>5711</v>
       </c>
       <c r="D1072" t="s">
-        <v>7469</v>
+        <v>7467</v>
       </c>
       <c r="E1072" t="s">
         <v>4280</v>
@@ -49334,13 +49350,13 @@
         <v>4283</v>
       </c>
       <c r="B1073" t="s">
-        <v>7470</v>
+        <v>7468</v>
       </c>
       <c r="C1073" t="s">
         <v>5927</v>
       </c>
       <c r="D1073" t="s">
-        <v>7471</v>
+        <v>7469</v>
       </c>
       <c r="E1073" t="s">
         <v>4284</v>
@@ -49357,13 +49373,13 @@
         <v>4287</v>
       </c>
       <c r="B1074" t="s">
-        <v>7472</v>
+        <v>7470</v>
       </c>
       <c r="C1074" t="s">
         <v>5830</v>
       </c>
       <c r="D1074" t="s">
-        <v>7473</v>
+        <v>7471</v>
       </c>
       <c r="E1074" t="s">
         <v>4288</v>
@@ -49403,13 +49419,13 @@
         <v>4295</v>
       </c>
       <c r="B1076" t="s">
-        <v>7474</v>
+        <v>7472</v>
       </c>
       <c r="C1076" t="s">
         <v>5711</v>
       </c>
       <c r="D1076" t="s">
-        <v>7475</v>
+        <v>7473</v>
       </c>
       <c r="E1076" t="s">
         <v>4296</v>
@@ -49426,13 +49442,13 @@
         <v>4299</v>
       </c>
       <c r="B1077" t="s">
-        <v>7476</v>
+        <v>7474</v>
       </c>
       <c r="C1077" t="s">
         <v>5830</v>
       </c>
       <c r="D1077" t="s">
-        <v>7477</v>
+        <v>7475</v>
       </c>
       <c r="E1077" t="s">
         <v>4300</v>
@@ -49449,13 +49465,13 @@
         <v>4303</v>
       </c>
       <c r="B1078" t="s">
-        <v>7478</v>
+        <v>7476</v>
       </c>
       <c r="C1078" t="s">
         <v>5708</v>
       </c>
       <c r="D1078" t="s">
-        <v>7479</v>
+        <v>7477</v>
       </c>
       <c r="E1078" t="s">
         <v>4304</v>
@@ -49472,13 +49488,13 @@
         <v>4307</v>
       </c>
       <c r="B1079" t="s">
-        <v>7480</v>
+        <v>7478</v>
       </c>
       <c r="C1079" t="s">
         <v>5711</v>
       </c>
       <c r="D1079" t="s">
-        <v>7481</v>
+        <v>7479</v>
       </c>
       <c r="E1079" t="s">
         <v>4308</v>
@@ -49495,13 +49511,13 @@
         <v>4311</v>
       </c>
       <c r="B1080" t="s">
-        <v>7482</v>
+        <v>7480</v>
       </c>
       <c r="C1080" t="s">
         <v>5927</v>
       </c>
       <c r="D1080" t="s">
-        <v>7483</v>
+        <v>7481</v>
       </c>
       <c r="E1080" t="s">
         <v>4312</v>
@@ -49541,13 +49557,13 @@
         <v>4319</v>
       </c>
       <c r="B1082" t="s">
-        <v>7484</v>
+        <v>7482</v>
       </c>
       <c r="C1082" t="s">
         <v>5927</v>
       </c>
       <c r="D1082" t="s">
-        <v>7485</v>
+        <v>7483</v>
       </c>
       <c r="E1082" t="s">
         <v>4320</v>
@@ -49610,13 +49626,13 @@
         <v>4331</v>
       </c>
       <c r="B1085" t="s">
-        <v>7486</v>
+        <v>7484</v>
       </c>
       <c r="C1085" t="s">
         <v>5714</v>
       </c>
       <c r="D1085" t="s">
-        <v>7487</v>
+        <v>7485</v>
       </c>
       <c r="E1085" t="s">
         <v>4332</v>
@@ -49639,7 +49655,7 @@
         <v>5711</v>
       </c>
       <c r="D1086" t="s">
-        <v>7488</v>
+        <v>7486</v>
       </c>
       <c r="E1086" t="s">
         <v>4336</v>
@@ -49656,13 +49672,13 @@
         <v>4339</v>
       </c>
       <c r="B1087" t="s">
-        <v>7489</v>
+        <v>7487</v>
       </c>
       <c r="C1087" t="s">
         <v>5714</v>
       </c>
       <c r="D1087" t="s">
-        <v>7490</v>
+        <v>7488</v>
       </c>
       <c r="E1087" t="s">
         <v>4340</v>
@@ -49702,7 +49718,7 @@
         <v>4347</v>
       </c>
       <c r="B1089" t="s">
-        <v>7491</v>
+        <v>7489</v>
       </c>
       <c r="C1089" t="s">
         <v>5732</v>
@@ -49731,7 +49747,7 @@
         <v>5714</v>
       </c>
       <c r="D1090" t="s">
-        <v>7492</v>
+        <v>7490</v>
       </c>
       <c r="E1090" t="s">
         <v>4352</v>
@@ -49748,13 +49764,13 @@
         <v>4355</v>
       </c>
       <c r="B1091" t="s">
-        <v>7493</v>
+        <v>7491</v>
       </c>
       <c r="C1091" t="s">
         <v>5711</v>
       </c>
       <c r="D1091" t="s">
-        <v>7494</v>
+        <v>7492</v>
       </c>
       <c r="E1091" t="s">
         <v>4356</v>
@@ -49777,7 +49793,7 @@
         <v>5714</v>
       </c>
       <c r="D1092" t="s">
-        <v>7495</v>
+        <v>7493</v>
       </c>
       <c r="E1092" t="s">
         <v>4360</v>
@@ -49794,13 +49810,13 @@
         <v>4363</v>
       </c>
       <c r="B1093" t="s">
-        <v>7496</v>
+        <v>7494</v>
       </c>
       <c r="C1093" t="s">
         <v>5708</v>
       </c>
       <c r="D1093" t="s">
-        <v>7497</v>
+        <v>7495</v>
       </c>
       <c r="E1093" t="s">
         <v>4364</v>
@@ -49817,13 +49833,13 @@
         <v>4367</v>
       </c>
       <c r="B1094" t="s">
-        <v>7498</v>
+        <v>7496</v>
       </c>
       <c r="C1094" t="s">
         <v>5714</v>
       </c>
       <c r="D1094" t="s">
-        <v>7499</v>
+        <v>7497</v>
       </c>
       <c r="E1094" t="s">
         <v>4368</v>
@@ -49840,13 +49856,13 @@
         <v>4371</v>
       </c>
       <c r="B1095" t="s">
-        <v>7500</v>
+        <v>7498</v>
       </c>
       <c r="C1095" t="s">
         <v>5927</v>
       </c>
       <c r="D1095" t="s">
-        <v>7501</v>
+        <v>7499</v>
       </c>
       <c r="E1095" t="s">
         <v>4372</v>
@@ -49863,13 +49879,13 @@
         <v>4375</v>
       </c>
       <c r="B1096" t="s">
-        <v>7502</v>
+        <v>7500</v>
       </c>
       <c r="C1096" t="s">
         <v>5714</v>
       </c>
       <c r="D1096" t="s">
-        <v>7503</v>
+        <v>7501</v>
       </c>
       <c r="E1096" t="s">
         <v>4376</v>
@@ -49886,13 +49902,13 @@
         <v>4379</v>
       </c>
       <c r="B1097" t="s">
-        <v>7504</v>
+        <v>7502</v>
       </c>
       <c r="C1097" t="s">
         <v>5711</v>
       </c>
       <c r="D1097" t="s">
-        <v>7505</v>
+        <v>7503</v>
       </c>
       <c r="E1097" t="s">
         <v>4380</v>
@@ -49909,13 +49925,13 @@
         <v>4383</v>
       </c>
       <c r="B1098" t="s">
-        <v>7506</v>
+        <v>7504</v>
       </c>
       <c r="C1098" t="s">
         <v>5711</v>
       </c>
       <c r="D1098" t="s">
-        <v>7507</v>
+        <v>7505</v>
       </c>
       <c r="E1098" t="s">
         <v>4384</v>
@@ -49932,13 +49948,13 @@
         <v>4387</v>
       </c>
       <c r="B1099" t="s">
-        <v>7508</v>
+        <v>7506</v>
       </c>
       <c r="C1099" t="s">
         <v>5714</v>
       </c>
       <c r="D1099" t="s">
-        <v>7509</v>
+        <v>7507</v>
       </c>
       <c r="E1099" t="s">
         <v>4388</v>
@@ -49955,13 +49971,13 @@
         <v>4391</v>
       </c>
       <c r="B1100" t="s">
-        <v>7510</v>
+        <v>7508</v>
       </c>
       <c r="C1100" t="s">
         <v>5714</v>
       </c>
       <c r="D1100" t="s">
-        <v>7511</v>
+        <v>7509</v>
       </c>
       <c r="E1100" t="s">
         <v>4392</v>
@@ -49978,13 +49994,13 @@
         <v>4395</v>
       </c>
       <c r="B1101" t="s">
-        <v>7512</v>
+        <v>7510</v>
       </c>
       <c r="C1101" t="s">
         <v>5711</v>
       </c>
       <c r="D1101" t="s">
-        <v>7513</v>
+        <v>7511</v>
       </c>
       <c r="E1101" t="s">
         <v>4396</v>
@@ -50024,13 +50040,13 @@
         <v>4403</v>
       </c>
       <c r="B1103" t="s">
-        <v>7514</v>
+        <v>7512</v>
       </c>
       <c r="C1103" t="s">
         <v>5711</v>
       </c>
       <c r="D1103" t="s">
-        <v>7515</v>
+        <v>7513</v>
       </c>
       <c r="E1103" t="s">
         <v>4404</v>
@@ -50047,13 +50063,13 @@
         <v>4407</v>
       </c>
       <c r="B1104" t="s">
-        <v>7516</v>
+        <v>7514</v>
       </c>
       <c r="C1104" t="s">
         <v>5708</v>
       </c>
       <c r="D1104" t="s">
-        <v>7517</v>
+        <v>7515</v>
       </c>
       <c r="E1104" t="s">
         <v>4408</v>
@@ -50093,13 +50109,13 @@
         <v>4415</v>
       </c>
       <c r="B1106" t="s">
-        <v>7518</v>
+        <v>7516</v>
       </c>
       <c r="C1106" t="s">
         <v>5714</v>
       </c>
       <c r="D1106" t="s">
-        <v>7519</v>
+        <v>7517</v>
       </c>
       <c r="E1106" t="s">
         <v>4416</v>
@@ -50116,13 +50132,13 @@
         <v>4419</v>
       </c>
       <c r="B1107" t="s">
-        <v>7520</v>
+        <v>7518</v>
       </c>
       <c r="C1107" t="s">
         <v>5711</v>
       </c>
       <c r="D1107" t="s">
-        <v>7521</v>
+        <v>7519</v>
       </c>
       <c r="E1107" t="s">
         <v>4420</v>
@@ -50139,13 +50155,13 @@
         <v>4423</v>
       </c>
       <c r="B1108" t="s">
-        <v>7522</v>
+        <v>7520</v>
       </c>
       <c r="C1108" t="s">
         <v>5708</v>
       </c>
       <c r="D1108" t="s">
-        <v>7523</v>
+        <v>7521</v>
       </c>
       <c r="E1108" t="s">
         <v>4424</v>
@@ -50162,13 +50178,13 @@
         <v>4427</v>
       </c>
       <c r="B1109" t="s">
-        <v>7524</v>
+        <v>7522</v>
       </c>
       <c r="C1109" t="s">
         <v>5817</v>
       </c>
       <c r="D1109" t="s">
-        <v>7525</v>
+        <v>7523</v>
       </c>
       <c r="E1109" t="s">
         <v>4428</v>
@@ -50208,13 +50224,13 @@
         <v>4435</v>
       </c>
       <c r="B1111" t="s">
+        <v>7524</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>7525</v>
+      </c>
+      <c r="D1111" t="s">
         <v>7526</v>
-      </c>
-      <c r="C1111" t="s">
-        <v>7527</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>7528</v>
       </c>
       <c r="E1111" t="s">
         <v>4436</v>
@@ -50231,13 +50247,13 @@
         <v>4439</v>
       </c>
       <c r="B1112" t="s">
-        <v>7529</v>
+        <v>7527</v>
       </c>
       <c r="C1112" t="s">
         <v>5714</v>
       </c>
       <c r="D1112" t="s">
-        <v>7530</v>
+        <v>7528</v>
       </c>
       <c r="E1112" t="s">
         <v>4440</v>
@@ -50277,13 +50293,13 @@
         <v>4447</v>
       </c>
       <c r="B1114" t="s">
+        <v>7529</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>7530</v>
+      </c>
+      <c r="D1114" t="s">
         <v>7531</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>7532</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>7533</v>
       </c>
       <c r="E1114" t="s">
         <v>4448</v>
@@ -50300,13 +50316,13 @@
         <v>4451</v>
       </c>
       <c r="B1115" t="s">
-        <v>7534</v>
+        <v>7532</v>
       </c>
       <c r="C1115" t="s">
         <v>5782</v>
       </c>
       <c r="D1115" t="s">
-        <v>7535</v>
+        <v>7533</v>
       </c>
       <c r="E1115" t="s">
         <v>4452</v>
@@ -50323,13 +50339,13 @@
         <v>4455</v>
       </c>
       <c r="B1116" t="s">
-        <v>7536</v>
+        <v>7534</v>
       </c>
       <c r="C1116" t="s">
         <v>5751</v>
       </c>
       <c r="D1116" t="s">
-        <v>7537</v>
+        <v>7535</v>
       </c>
       <c r="E1116" t="s">
         <v>4456</v>
@@ -50369,13 +50385,13 @@
         <v>4463</v>
       </c>
       <c r="B1118" t="s">
-        <v>7538</v>
+        <v>7536</v>
       </c>
       <c r="C1118" t="s">
         <v>5711</v>
       </c>
       <c r="D1118" t="s">
-        <v>7539</v>
+        <v>7537</v>
       </c>
       <c r="E1118" t="s">
         <v>4464</v>
@@ -50392,13 +50408,13 @@
         <v>4467</v>
       </c>
       <c r="B1119" t="s">
-        <v>7538</v>
+        <v>7536</v>
       </c>
       <c r="C1119" t="s">
         <v>5711</v>
       </c>
       <c r="D1119" t="s">
-        <v>7539</v>
+        <v>7537</v>
       </c>
       <c r="E1119" t="s">
         <v>4468</v>
@@ -50438,13 +50454,13 @@
         <v>4475</v>
       </c>
       <c r="B1121" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="C1121" t="s">
-        <v>7527</v>
+        <v>7525</v>
       </c>
       <c r="D1121" t="s">
-        <v>7541</v>
+        <v>7539</v>
       </c>
       <c r="E1121" t="s">
         <v>4476</v>
@@ -50461,13 +50477,13 @@
         <v>4479</v>
       </c>
       <c r="B1122" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="C1122" t="s">
         <v>5714</v>
       </c>
       <c r="D1122" t="s">
-        <v>7543</v>
+        <v>7541</v>
       </c>
       <c r="E1122" t="s">
         <v>4480</v>
@@ -50484,13 +50500,13 @@
         <v>4483</v>
       </c>
       <c r="B1123" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="C1123" t="s">
         <v>5711</v>
       </c>
       <c r="D1123" t="s">
-        <v>7545</v>
+        <v>7543</v>
       </c>
       <c r="E1123" t="s">
         <v>4484</v>
@@ -50513,7 +50529,7 @@
         <v>5927</v>
       </c>
       <c r="D1124" t="s">
-        <v>7546</v>
+        <v>7544</v>
       </c>
       <c r="E1124" t="s">
         <v>4488</v>
@@ -50530,13 +50546,13 @@
         <v>4491</v>
       </c>
       <c r="B1125" t="s">
-        <v>7547</v>
+        <v>7545</v>
       </c>
       <c r="C1125" t="s">
         <v>5714</v>
       </c>
       <c r="D1125" t="s">
-        <v>7548</v>
+        <v>7546</v>
       </c>
       <c r="E1125" t="s">
         <v>4492</v>
@@ -50553,13 +50569,13 @@
         <v>4495</v>
       </c>
       <c r="B1126" t="s">
-        <v>7549</v>
+        <v>7547</v>
       </c>
       <c r="C1126" t="s">
         <v>5708</v>
       </c>
       <c r="D1126" t="s">
-        <v>7550</v>
+        <v>7548</v>
       </c>
       <c r="E1126" t="s">
         <v>4496</v>
@@ -50576,13 +50592,13 @@
         <v>4499</v>
       </c>
       <c r="B1127" t="s">
-        <v>7551</v>
+        <v>7549</v>
       </c>
       <c r="C1127" t="s">
         <v>5711</v>
       </c>
       <c r="D1127" t="s">
-        <v>7552</v>
+        <v>7550</v>
       </c>
       <c r="E1127" t="s">
         <v>4500</v>
@@ -50599,13 +50615,13 @@
         <v>4503</v>
       </c>
       <c r="B1128" t="s">
-        <v>7553</v>
+        <v>7551</v>
       </c>
       <c r="C1128" t="s">
         <v>5714</v>
       </c>
       <c r="D1128" t="s">
-        <v>7554</v>
+        <v>7552</v>
       </c>
       <c r="E1128" t="s">
         <v>4504</v>
@@ -50622,13 +50638,13 @@
         <v>4507</v>
       </c>
       <c r="B1129" t="s">
-        <v>7555</v>
+        <v>7553</v>
       </c>
       <c r="C1129" t="s">
         <v>5708</v>
       </c>
       <c r="D1129" t="s">
-        <v>7556</v>
+        <v>7554</v>
       </c>
       <c r="E1129" t="s">
         <v>4508</v>
@@ -50645,13 +50661,13 @@
         <v>4511</v>
       </c>
       <c r="B1130" t="s">
-        <v>7557</v>
+        <v>7555</v>
       </c>
       <c r="C1130" t="s">
         <v>5711</v>
       </c>
       <c r="D1130" t="s">
-        <v>7558</v>
+        <v>7556</v>
       </c>
       <c r="E1130" t="s">
         <v>4512</v>
@@ -50668,13 +50684,13 @@
         <v>4515</v>
       </c>
       <c r="B1131" t="s">
-        <v>7559</v>
+        <v>7557</v>
       </c>
       <c r="C1131" t="s">
         <v>5890</v>
       </c>
       <c r="D1131" t="s">
-        <v>7560</v>
+        <v>7558</v>
       </c>
       <c r="E1131" t="s">
         <v>4516</v>
@@ -50691,13 +50707,13 @@
         <v>4519</v>
       </c>
       <c r="B1132" t="s">
-        <v>7561</v>
+        <v>7559</v>
       </c>
       <c r="C1132" t="s">
         <v>5711</v>
       </c>
       <c r="D1132" t="s">
-        <v>7562</v>
+        <v>7560</v>
       </c>
       <c r="E1132" t="s">
         <v>4520</v>
@@ -50714,13 +50730,13 @@
         <v>4523</v>
       </c>
       <c r="B1133" t="s">
-        <v>7563</v>
+        <v>7561</v>
       </c>
       <c r="C1133" t="s">
         <v>5782</v>
       </c>
       <c r="D1133" t="s">
-        <v>7564</v>
+        <v>7562</v>
       </c>
       <c r="E1133" t="s">
         <v>4524</v>
@@ -50737,13 +50753,13 @@
         <v>4527</v>
       </c>
       <c r="B1134" t="s">
-        <v>7565</v>
+        <v>7563</v>
       </c>
       <c r="C1134" t="s">
         <v>5711</v>
       </c>
       <c r="D1134" t="s">
-        <v>7566</v>
+        <v>7564</v>
       </c>
       <c r="E1134" t="s">
         <v>4528</v>
@@ -50783,13 +50799,13 @@
         <v>4535</v>
       </c>
       <c r="B1136" t="s">
-        <v>7567</v>
+        <v>7565</v>
       </c>
       <c r="C1136" t="s">
         <v>5711</v>
       </c>
       <c r="D1136" t="s">
-        <v>7568</v>
+        <v>7566</v>
       </c>
       <c r="E1136" t="s">
         <v>4536</v>
@@ -50806,13 +50822,13 @@
         <v>4539</v>
       </c>
       <c r="B1137" t="s">
-        <v>7569</v>
+        <v>7567</v>
       </c>
       <c r="C1137" t="s">
         <v>5711</v>
       </c>
       <c r="D1137" t="s">
-        <v>7570</v>
+        <v>7568</v>
       </c>
       <c r="E1137" t="s">
         <v>4540</v>
@@ -50829,13 +50845,13 @@
         <v>4543</v>
       </c>
       <c r="B1138" t="s">
-        <v>7571</v>
+        <v>7569</v>
       </c>
       <c r="C1138" t="s">
         <v>5711</v>
       </c>
       <c r="D1138" t="s">
-        <v>7572</v>
+        <v>7570</v>
       </c>
       <c r="E1138" t="s">
         <v>4544</v>
@@ -50852,13 +50868,13 @@
         <v>4547</v>
       </c>
       <c r="B1139" t="s">
-        <v>7573</v>
+        <v>7571</v>
       </c>
       <c r="C1139" t="s">
         <v>5711</v>
       </c>
       <c r="D1139" t="s">
-        <v>7574</v>
+        <v>7572</v>
       </c>
       <c r="E1139" t="s">
         <v>4548</v>
@@ -50875,13 +50891,13 @@
         <v>4551</v>
       </c>
       <c r="B1140" t="s">
-        <v>7575</v>
+        <v>7573</v>
       </c>
       <c r="C1140" t="s">
         <v>5711</v>
       </c>
       <c r="D1140" t="s">
-        <v>7576</v>
+        <v>7574</v>
       </c>
       <c r="E1140" t="s">
         <v>4552</v>
@@ -50898,13 +50914,13 @@
         <v>4555</v>
       </c>
       <c r="B1141" t="s">
-        <v>7577</v>
+        <v>7575</v>
       </c>
       <c r="C1141" t="s">
         <v>5714</v>
       </c>
       <c r="D1141" t="s">
-        <v>7578</v>
+        <v>7576</v>
       </c>
       <c r="E1141" t="s">
         <v>4556</v>
@@ -50944,13 +50960,13 @@
         <v>4563</v>
       </c>
       <c r="B1143" t="s">
-        <v>7579</v>
+        <v>7577</v>
       </c>
       <c r="C1143" t="s">
         <v>5714</v>
       </c>
       <c r="D1143" t="s">
-        <v>7580</v>
+        <v>7578</v>
       </c>
       <c r="E1143" t="s">
         <v>4564</v>
@@ -50967,13 +50983,13 @@
         <v>4567</v>
       </c>
       <c r="B1144" t="s">
-        <v>7581</v>
+        <v>7579</v>
       </c>
       <c r="C1144" t="s">
         <v>5708</v>
       </c>
       <c r="D1144" t="s">
-        <v>7582</v>
+        <v>7580</v>
       </c>
       <c r="E1144" t="s">
         <v>4568</v>
@@ -50990,13 +51006,13 @@
         <v>4571</v>
       </c>
       <c r="B1145" t="s">
-        <v>7583</v>
+        <v>7581</v>
       </c>
       <c r="C1145" t="s">
         <v>5714</v>
       </c>
       <c r="D1145" t="s">
-        <v>7584</v>
+        <v>7582</v>
       </c>
       <c r="E1145" t="s">
         <v>4572</v>
@@ -51013,13 +51029,13 @@
         <v>4575</v>
       </c>
       <c r="B1146" t="s">
-        <v>7585</v>
+        <v>7583</v>
       </c>
       <c r="C1146" t="s">
         <v>5711</v>
       </c>
       <c r="D1146" t="s">
-        <v>7586</v>
+        <v>7584</v>
       </c>
       <c r="E1146" t="s">
         <v>4576</v>
@@ -51036,13 +51052,13 @@
         <v>4579</v>
       </c>
       <c r="B1147" t="s">
-        <v>7587</v>
+        <v>7585</v>
       </c>
       <c r="C1147" t="s">
         <v>5711</v>
       </c>
       <c r="D1147" t="s">
-        <v>7588</v>
+        <v>7586</v>
       </c>
       <c r="E1147" t="s">
         <v>4580</v>
@@ -51059,13 +51075,13 @@
         <v>4583</v>
       </c>
       <c r="B1148" t="s">
-        <v>7589</v>
+        <v>7587</v>
       </c>
       <c r="C1148" t="s">
         <v>5714</v>
       </c>
       <c r="D1148" t="s">
-        <v>7590</v>
+        <v>7588</v>
       </c>
       <c r="E1148" t="s">
         <v>4584</v>
@@ -51082,13 +51098,13 @@
         <v>4587</v>
       </c>
       <c r="B1149" t="s">
-        <v>7591</v>
+        <v>7589</v>
       </c>
       <c r="C1149" t="s">
         <v>5708</v>
       </c>
       <c r="D1149" t="s">
-        <v>7592</v>
+        <v>7590</v>
       </c>
       <c r="E1149" t="s">
         <v>4588</v>
@@ -51105,13 +51121,13 @@
         <v>4591</v>
       </c>
       <c r="B1150" t="s">
-        <v>7593</v>
+        <v>7591</v>
       </c>
       <c r="C1150" t="s">
         <v>5711</v>
       </c>
       <c r="D1150" t="s">
-        <v>7594</v>
+        <v>7592</v>
       </c>
       <c r="E1150" t="s">
         <v>4592</v>
@@ -51128,13 +51144,13 @@
         <v>4595</v>
       </c>
       <c r="B1151" t="s">
-        <v>7595</v>
+        <v>7593</v>
       </c>
       <c r="C1151" t="s">
         <v>5927</v>
       </c>
       <c r="D1151" t="s">
-        <v>7596</v>
+        <v>7594</v>
       </c>
       <c r="E1151" t="s">
         <v>4596</v>
@@ -51151,13 +51167,13 @@
         <v>4599</v>
       </c>
       <c r="B1152" t="s">
-        <v>7597</v>
+        <v>7595</v>
       </c>
       <c r="C1152" t="s">
         <v>5927</v>
       </c>
       <c r="D1152" t="s">
-        <v>7598</v>
+        <v>7596</v>
       </c>
       <c r="E1152" t="s">
         <v>4600</v>
@@ -51197,13 +51213,13 @@
         <v>4607</v>
       </c>
       <c r="B1154" t="s">
-        <v>7599</v>
+        <v>7597</v>
       </c>
       <c r="C1154" t="s">
         <v>5711</v>
       </c>
       <c r="D1154" t="s">
-        <v>7600</v>
+        <v>7598</v>
       </c>
       <c r="E1154" t="s">
         <v>4608</v>
@@ -51220,13 +51236,13 @@
         <v>4611</v>
       </c>
       <c r="B1155" t="s">
-        <v>7601</v>
+        <v>7599</v>
       </c>
       <c r="C1155" t="s">
         <v>5927</v>
       </c>
       <c r="D1155" t="s">
-        <v>7602</v>
+        <v>7600</v>
       </c>
       <c r="E1155" t="s">
         <v>4612</v>
@@ -51243,13 +51259,13 @@
         <v>4615</v>
       </c>
       <c r="B1156" t="s">
+        <v>7601</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>7602</v>
+      </c>
+      <c r="D1156" t="s">
         <v>7603</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>7604</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>7605</v>
       </c>
       <c r="E1156" t="s">
         <v>4616</v>
@@ -51266,13 +51282,13 @@
         <v>4619</v>
       </c>
       <c r="B1157" t="s">
-        <v>7606</v>
+        <v>7604</v>
       </c>
       <c r="C1157" t="s">
         <v>5711</v>
       </c>
       <c r="D1157" t="s">
-        <v>7607</v>
+        <v>7605</v>
       </c>
       <c r="E1157" t="s">
         <v>4620</v>
@@ -51289,13 +51305,13 @@
         <v>4623</v>
       </c>
       <c r="B1158" t="s">
-        <v>7608</v>
+        <v>7606</v>
       </c>
       <c r="C1158" t="s">
         <v>5711</v>
       </c>
       <c r="D1158" t="s">
-        <v>7609</v>
+        <v>7607</v>
       </c>
       <c r="E1158" t="s">
         <v>4624</v>
@@ -51312,13 +51328,13 @@
         <v>4627</v>
       </c>
       <c r="B1159" t="s">
-        <v>7610</v>
+        <v>7608</v>
       </c>
       <c r="C1159" t="s">
         <v>5760</v>
       </c>
       <c r="D1159" t="s">
-        <v>7611</v>
+        <v>7609</v>
       </c>
       <c r="E1159" t="s">
         <v>4628</v>
@@ -51335,13 +51351,13 @@
         <v>4631</v>
       </c>
       <c r="B1160" t="s">
-        <v>7612</v>
+        <v>7610</v>
       </c>
       <c r="C1160" t="s">
         <v>5714</v>
       </c>
       <c r="D1160" t="s">
-        <v>7613</v>
+        <v>7611</v>
       </c>
       <c r="E1160" t="s">
         <v>4632</v>
@@ -51358,13 +51374,13 @@
         <v>4635</v>
       </c>
       <c r="B1161" t="s">
-        <v>7614</v>
+        <v>7612</v>
       </c>
       <c r="C1161" t="s">
         <v>5711</v>
       </c>
       <c r="D1161" t="s">
-        <v>7615</v>
+        <v>7613</v>
       </c>
       <c r="E1161" t="s">
         <v>4636</v>
@@ -51381,13 +51397,13 @@
         <v>4639</v>
       </c>
       <c r="B1162" t="s">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="C1162" t="s">
         <v>5714</v>
       </c>
       <c r="D1162" t="s">
-        <v>7617</v>
+        <v>7615</v>
       </c>
       <c r="E1162" t="s">
         <v>4640</v>
@@ -51404,13 +51420,13 @@
         <v>4643</v>
       </c>
       <c r="B1163" t="s">
+        <v>7616</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>7617</v>
+      </c>
+      <c r="D1163" t="s">
         <v>7618</v>
-      </c>
-      <c r="C1163" t="s">
-        <v>7619</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>7620</v>
       </c>
       <c r="E1163" t="s">
         <v>4644</v>
@@ -51427,13 +51443,13 @@
         <v>4647</v>
       </c>
       <c r="B1164" t="s">
-        <v>7621</v>
+        <v>7619</v>
       </c>
       <c r="C1164" t="s">
         <v>5711</v>
       </c>
       <c r="D1164" t="s">
-        <v>7622</v>
+        <v>7620</v>
       </c>
       <c r="E1164" t="s">
         <v>4648</v>
@@ -51450,13 +51466,13 @@
         <v>4651</v>
       </c>
       <c r="B1165" t="s">
-        <v>7623</v>
+        <v>7621</v>
       </c>
       <c r="C1165" t="s">
-        <v>7604</v>
+        <v>7602</v>
       </c>
       <c r="D1165" t="s">
-        <v>7624</v>
+        <v>7622</v>
       </c>
       <c r="E1165" t="s">
         <v>4652</v>
@@ -51473,13 +51489,13 @@
         <v>4655</v>
       </c>
       <c r="B1166" t="s">
-        <v>7625</v>
+        <v>7623</v>
       </c>
       <c r="C1166" t="s">
         <v>5817</v>
       </c>
       <c r="D1166" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="E1166" t="s">
         <v>4656</v>
@@ -51496,13 +51512,13 @@
         <v>4659</v>
       </c>
       <c r="B1167" t="s">
-        <v>7627</v>
+        <v>7625</v>
       </c>
       <c r="C1167" t="s">
         <v>5714</v>
       </c>
       <c r="D1167" t="s">
-        <v>7628</v>
+        <v>7626</v>
       </c>
       <c r="E1167" t="s">
         <v>4660</v>
@@ -51519,13 +51535,13 @@
         <v>4663</v>
       </c>
       <c r="B1168" t="s">
-        <v>7629</v>
+        <v>7627</v>
       </c>
       <c r="C1168" t="s">
         <v>5711</v>
       </c>
       <c r="D1168" t="s">
-        <v>7630</v>
+        <v>7628</v>
       </c>
       <c r="E1168" t="s">
         <v>4664</v>
@@ -51542,13 +51558,13 @@
         <v>4667</v>
       </c>
       <c r="B1169" t="s">
-        <v>7631</v>
+        <v>7629</v>
       </c>
       <c r="C1169" t="s">
         <v>5711</v>
       </c>
       <c r="D1169" t="s">
-        <v>7632</v>
+        <v>7630</v>
       </c>
       <c r="E1169" t="s">
         <v>4668</v>
@@ -51565,13 +51581,13 @@
         <v>4671</v>
       </c>
       <c r="B1170" t="s">
-        <v>7633</v>
+        <v>7631</v>
       </c>
       <c r="C1170" t="s">
         <v>5708</v>
       </c>
       <c r="D1170" t="s">
-        <v>7634</v>
+        <v>7632</v>
       </c>
       <c r="E1170" t="s">
         <v>4672</v>
@@ -51588,13 +51604,13 @@
         <v>4675</v>
       </c>
       <c r="B1171" t="s">
-        <v>7635</v>
+        <v>7633</v>
       </c>
       <c r="C1171" t="s">
         <v>5708</v>
       </c>
       <c r="D1171" t="s">
-        <v>7636</v>
+        <v>7634</v>
       </c>
       <c r="E1171" t="s">
         <v>4676</v>
@@ -51657,13 +51673,13 @@
         <v>4687</v>
       </c>
       <c r="B1174" t="s">
-        <v>7637</v>
+        <v>7635</v>
       </c>
       <c r="C1174" t="s">
         <v>5714</v>
       </c>
       <c r="D1174" t="s">
-        <v>7638</v>
+        <v>7636</v>
       </c>
       <c r="E1174" t="s">
         <v>4688</v>
@@ -51680,13 +51696,13 @@
         <v>4691</v>
       </c>
       <c r="B1175" t="s">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="C1175" t="s">
         <v>5927</v>
       </c>
       <c r="D1175" t="s">
-        <v>7640</v>
+        <v>7638</v>
       </c>
       <c r="E1175" t="s">
         <v>4692</v>
@@ -51703,13 +51719,13 @@
         <v>4695</v>
       </c>
       <c r="B1176" t="s">
-        <v>7641</v>
+        <v>7639</v>
       </c>
       <c r="C1176" t="s">
         <v>5714</v>
       </c>
       <c r="D1176" t="s">
-        <v>7642</v>
+        <v>7640</v>
       </c>
       <c r="E1176" t="s">
         <v>4696</v>
@@ -51726,13 +51742,13 @@
         <v>4699</v>
       </c>
       <c r="B1177" t="s">
-        <v>7643</v>
+        <v>7641</v>
       </c>
       <c r="C1177" t="s">
         <v>5711</v>
       </c>
       <c r="D1177" t="s">
-        <v>7644</v>
+        <v>7642</v>
       </c>
       <c r="E1177" t="s">
         <v>4700</v>
@@ -51749,13 +51765,13 @@
         <v>4703</v>
       </c>
       <c r="B1178" t="s">
-        <v>7645</v>
+        <v>7643</v>
       </c>
       <c r="C1178" t="s">
         <v>5714</v>
       </c>
       <c r="D1178" t="s">
-        <v>7646</v>
+        <v>7644</v>
       </c>
       <c r="E1178" t="s">
         <v>4704</v>
@@ -51795,13 +51811,13 @@
         <v>4711</v>
       </c>
       <c r="B1180" t="s">
-        <v>7647</v>
+        <v>7645</v>
       </c>
       <c r="C1180" t="s">
         <v>5927</v>
       </c>
       <c r="D1180" t="s">
-        <v>7648</v>
+        <v>7646</v>
       </c>
       <c r="E1180" t="s">
         <v>4712</v>
@@ -51818,13 +51834,13 @@
         <v>4715</v>
       </c>
       <c r="B1181" t="s">
-        <v>7649</v>
+        <v>7647</v>
       </c>
       <c r="C1181" t="s">
         <v>5711</v>
       </c>
       <c r="D1181" t="s">
-        <v>7650</v>
+        <v>7648</v>
       </c>
       <c r="E1181" t="s">
         <v>4716</v>
@@ -51841,13 +51857,13 @@
         <v>4719</v>
       </c>
       <c r="B1182" t="s">
-        <v>7651</v>
+        <v>7649</v>
       </c>
       <c r="C1182" t="s">
         <v>6424</v>
       </c>
       <c r="D1182" t="s">
-        <v>7652</v>
+        <v>7650</v>
       </c>
       <c r="E1182" t="s">
         <v>4720</v>
@@ -51864,13 +51880,13 @@
         <v>4723</v>
       </c>
       <c r="B1183" t="s">
-        <v>7653</v>
+        <v>7651</v>
       </c>
       <c r="C1183" t="s">
         <v>5774</v>
       </c>
       <c r="D1183" t="s">
-        <v>7654</v>
+        <v>7652</v>
       </c>
       <c r="E1183" t="s">
         <v>4724</v>
@@ -51887,13 +51903,13 @@
         <v>4727</v>
       </c>
       <c r="B1184" t="s">
-        <v>7655</v>
+        <v>7653</v>
       </c>
       <c r="C1184" t="s">
         <v>5714</v>
       </c>
       <c r="D1184" t="s">
-        <v>7656</v>
+        <v>7654</v>
       </c>
       <c r="E1184" t="s">
         <v>4728</v>
@@ -51910,13 +51926,13 @@
         <v>4731</v>
       </c>
       <c r="B1185" t="s">
-        <v>7657</v>
+        <v>7655</v>
       </c>
       <c r="C1185" t="s">
         <v>5711</v>
       </c>
       <c r="D1185" t="s">
-        <v>7658</v>
+        <v>7656</v>
       </c>
       <c r="E1185" t="s">
         <v>4732</v>
@@ -51933,13 +51949,13 @@
         <v>4735</v>
       </c>
       <c r="B1186" t="s">
+        <v>7657</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>7658</v>
+      </c>
+      <c r="D1186" t="s">
         <v>7659</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>7660</v>
-      </c>
-      <c r="D1186" t="s">
-        <v>7661</v>
       </c>
       <c r="E1186" t="s">
         <v>4736</v>
@@ -51956,13 +51972,13 @@
         <v>4739</v>
       </c>
       <c r="B1187" t="s">
+        <v>7660</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>7661</v>
+      </c>
+      <c r="D1187" t="s">
         <v>7662</v>
-      </c>
-      <c r="C1187" t="s">
-        <v>7663</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>7664</v>
       </c>
       <c r="E1187" t="s">
         <v>4740</v>
@@ -51979,13 +51995,13 @@
         <v>4743</v>
       </c>
       <c r="B1188" t="s">
-        <v>7665</v>
+        <v>7663</v>
       </c>
       <c r="C1188" t="s">
         <v>5930</v>
       </c>
       <c r="D1188" t="s">
-        <v>7666</v>
+        <v>7664</v>
       </c>
       <c r="E1188" t="s">
         <v>4744</v>
@@ -52025,13 +52041,13 @@
         <v>4751</v>
       </c>
       <c r="B1190" t="s">
-        <v>7667</v>
+        <v>7665</v>
       </c>
       <c r="C1190" t="s">
         <v>5927</v>
       </c>
       <c r="D1190" t="s">
-        <v>7668</v>
+        <v>7666</v>
       </c>
       <c r="E1190" t="s">
         <v>4752</v>
@@ -52048,13 +52064,13 @@
         <v>4755</v>
       </c>
       <c r="B1191" t="s">
-        <v>7669</v>
+        <v>7667</v>
       </c>
       <c r="C1191" t="s">
         <v>5711</v>
       </c>
       <c r="D1191" t="s">
-        <v>7670</v>
+        <v>7668</v>
       </c>
       <c r="E1191" t="s">
         <v>4756</v>
@@ -52071,13 +52087,13 @@
         <v>4759</v>
       </c>
       <c r="B1192" t="s">
-        <v>7671</v>
+        <v>7669</v>
       </c>
       <c r="C1192" t="s">
         <v>5817</v>
       </c>
       <c r="D1192" t="s">
-        <v>7672</v>
+        <v>7670</v>
       </c>
       <c r="E1192" t="s">
         <v>4760</v>
@@ -52094,13 +52110,13 @@
         <v>4763</v>
       </c>
       <c r="B1193" t="s">
-        <v>7673</v>
+        <v>7671</v>
       </c>
       <c r="C1193" t="s">
         <v>5817</v>
       </c>
       <c r="D1193" t="s">
-        <v>7674</v>
+        <v>7672</v>
       </c>
       <c r="E1193" t="s">
         <v>4764</v>
@@ -52117,13 +52133,13 @@
         <v>4767</v>
       </c>
       <c r="B1194" t="s">
-        <v>7675</v>
+        <v>7673</v>
       </c>
       <c r="C1194" t="s">
         <v>5782</v>
       </c>
       <c r="D1194" t="s">
-        <v>7676</v>
+        <v>7674</v>
       </c>
       <c r="E1194" t="s">
         <v>4768</v>
@@ -52186,13 +52202,13 @@
         <v>4779</v>
       </c>
       <c r="B1197" t="s">
-        <v>7677</v>
+        <v>7675</v>
       </c>
       <c r="C1197" t="s">
         <v>5714</v>
       </c>
       <c r="D1197" t="s">
-        <v>7678</v>
+        <v>7676</v>
       </c>
       <c r="E1197" t="s">
         <v>4780</v>
@@ -52209,13 +52225,13 @@
         <v>4783</v>
       </c>
       <c r="B1198" t="s">
+        <v>7677</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>7678</v>
+      </c>
+      <c r="D1198" t="s">
         <v>7679</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>7680</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>7681</v>
       </c>
       <c r="E1198" t="s">
         <v>4784</v>
@@ -52232,13 +52248,13 @@
         <v>4787</v>
       </c>
       <c r="B1199" t="s">
+        <v>7680</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>7681</v>
+      </c>
+      <c r="D1199" t="s">
         <v>7682</v>
-      </c>
-      <c r="C1199" t="s">
-        <v>7683</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>7684</v>
       </c>
       <c r="E1199" t="s">
         <v>4788</v>
@@ -52255,13 +52271,13 @@
         <v>4791</v>
       </c>
       <c r="B1200" t="s">
-        <v>7685</v>
+        <v>7683</v>
       </c>
       <c r="C1200" t="s">
         <v>5935</v>
       </c>
       <c r="D1200" t="s">
-        <v>7686</v>
+        <v>7684</v>
       </c>
       <c r="E1200" t="s">
         <v>4792</v>
@@ -52324,13 +52340,13 @@
         <v>4803</v>
       </c>
       <c r="B1203" t="s">
-        <v>7687</v>
+        <v>7685</v>
       </c>
       <c r="C1203" t="s">
         <v>5714</v>
       </c>
       <c r="D1203" t="s">
-        <v>7688</v>
+        <v>7686</v>
       </c>
       <c r="E1203" t="s">
         <v>4804</v>
@@ -52347,13 +52363,13 @@
         <v>4807</v>
       </c>
       <c r="B1204" t="s">
+        <v>7687</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>7688</v>
+      </c>
+      <c r="D1204" t="s">
         <v>7689</v>
-      </c>
-      <c r="C1204" t="s">
-        <v>7690</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>7691</v>
       </c>
       <c r="E1204" t="s">
         <v>4808</v>
@@ -52439,13 +52455,13 @@
         <v>4823</v>
       </c>
       <c r="B1208" t="s">
-        <v>7328</v>
+        <v>7326</v>
       </c>
       <c r="C1208" t="s">
         <v>5714</v>
       </c>
       <c r="D1208" t="s">
-        <v>7692</v>
+        <v>7690</v>
       </c>
       <c r="E1208" t="s">
         <v>4824</v>
@@ -52462,13 +52478,13 @@
         <v>4827</v>
       </c>
       <c r="B1209" t="s">
-        <v>7693</v>
+        <v>7691</v>
       </c>
       <c r="C1209" t="s">
         <v>5714</v>
       </c>
       <c r="D1209" t="s">
-        <v>7694</v>
+        <v>7692</v>
       </c>
       <c r="E1209" t="s">
         <v>4828</v>
@@ -52485,13 +52501,13 @@
         <v>4831</v>
       </c>
       <c r="B1210" t="s">
-        <v>7695</v>
+        <v>7693</v>
       </c>
       <c r="C1210" t="s">
         <v>5711</v>
       </c>
       <c r="D1210" t="s">
-        <v>7696</v>
+        <v>7694</v>
       </c>
       <c r="E1210" t="s">
         <v>4832</v>
@@ -52508,13 +52524,13 @@
         <v>4835</v>
       </c>
       <c r="B1211" t="s">
-        <v>7697</v>
+        <v>7695</v>
       </c>
       <c r="C1211" t="s">
         <v>5711</v>
       </c>
       <c r="D1211" t="s">
-        <v>7698</v>
+        <v>7696</v>
       </c>
       <c r="E1211" t="s">
         <v>4836</v>
@@ -52531,13 +52547,13 @@
         <v>4839</v>
       </c>
       <c r="B1212" t="s">
+        <v>7697</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>7698</v>
+      </c>
+      <c r="D1212" t="s">
         <v>7699</v>
-      </c>
-      <c r="C1212" t="s">
-        <v>7700</v>
-      </c>
-      <c r="D1212" t="s">
-        <v>7701</v>
       </c>
       <c r="E1212" t="s">
         <v>4840</v>
@@ -52600,13 +52616,13 @@
         <v>4851</v>
       </c>
       <c r="B1215" t="s">
+        <v>7700</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>7701</v>
+      </c>
+      <c r="D1215" t="s">
         <v>7702</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>7703</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>7704</v>
       </c>
       <c r="E1215" t="s">
         <v>4852</v>
@@ -52675,7 +52691,7 @@
         <v>5782</v>
       </c>
       <c r="D1218" t="s">
-        <v>7705</v>
+        <v>7703</v>
       </c>
       <c r="E1218" t="s">
         <v>4864</v>
@@ -52692,13 +52708,13 @@
         <v>4867</v>
       </c>
       <c r="B1219" t="s">
-        <v>7706</v>
+        <v>7704</v>
       </c>
       <c r="C1219" t="s">
         <v>5708</v>
       </c>
       <c r="D1219" t="s">
-        <v>7707</v>
+        <v>7705</v>
       </c>
       <c r="E1219" t="s">
         <v>4868</v>
@@ -52715,13 +52731,13 @@
         <v>4871</v>
       </c>
       <c r="B1220" t="s">
-        <v>7708</v>
+        <v>7706</v>
       </c>
       <c r="C1220" t="s">
         <v>5714</v>
       </c>
       <c r="D1220" t="s">
-        <v>7709</v>
+        <v>7707</v>
       </c>
       <c r="E1220" t="s">
         <v>4872</v>
@@ -52738,13 +52754,13 @@
         <v>4875</v>
       </c>
       <c r="B1221" t="s">
-        <v>7710</v>
+        <v>7708</v>
       </c>
       <c r="C1221" t="s">
         <v>5782</v>
       </c>
       <c r="D1221" t="s">
-        <v>7711</v>
+        <v>7709</v>
       </c>
       <c r="E1221" t="s">
         <v>4876</v>
@@ -52761,13 +52777,13 @@
         <v>4879</v>
       </c>
       <c r="B1222" t="s">
-        <v>7712</v>
+        <v>7710</v>
       </c>
       <c r="C1222" t="s">
         <v>5711</v>
       </c>
       <c r="D1222" t="s">
-        <v>7713</v>
+        <v>7711</v>
       </c>
       <c r="E1222" t="s">
         <v>4880</v>
@@ -52784,13 +52800,13 @@
         <v>4883</v>
       </c>
       <c r="B1223" t="s">
-        <v>7714</v>
+        <v>7712</v>
       </c>
       <c r="C1223" t="s">
         <v>5711</v>
       </c>
       <c r="D1223" t="s">
-        <v>7715</v>
+        <v>7713</v>
       </c>
       <c r="E1223" t="s">
         <v>4884</v>
@@ -52807,13 +52823,13 @@
         <v>4887</v>
       </c>
       <c r="B1224" t="s">
-        <v>7716</v>
+        <v>7714</v>
       </c>
       <c r="C1224" t="s">
         <v>5817</v>
       </c>
       <c r="D1224" t="s">
-        <v>7717</v>
+        <v>7715</v>
       </c>
       <c r="E1224" t="s">
         <v>4888</v>
@@ -52830,13 +52846,13 @@
         <v>4891</v>
       </c>
       <c r="B1225" t="s">
+        <v>7716</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>7717</v>
+      </c>
+      <c r="D1225" t="s">
         <v>7718</v>
-      </c>
-      <c r="C1225" t="s">
-        <v>7719</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>7720</v>
       </c>
       <c r="E1225" t="s">
         <v>4892</v>
@@ -52853,13 +52869,13 @@
         <v>4895</v>
       </c>
       <c r="B1226" t="s">
-        <v>7721</v>
+        <v>7719</v>
       </c>
       <c r="C1226" t="s">
         <v>5927</v>
       </c>
       <c r="D1226" t="s">
-        <v>7722</v>
+        <v>7720</v>
       </c>
       <c r="E1226" t="s">
         <v>4896</v>
@@ -52876,13 +52892,13 @@
         <v>4899</v>
       </c>
       <c r="B1227" t="s">
+        <v>7721</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>7722</v>
+      </c>
+      <c r="D1227" t="s">
         <v>7723</v>
-      </c>
-      <c r="C1227" t="s">
-        <v>7724</v>
-      </c>
-      <c r="D1227" t="s">
-        <v>7725</v>
       </c>
       <c r="E1227" t="s">
         <v>4900</v>
@@ -52899,13 +52915,13 @@
         <v>4903</v>
       </c>
       <c r="B1228" t="s">
-        <v>7726</v>
+        <v>7724</v>
       </c>
       <c r="C1228" t="s">
         <v>5714</v>
       </c>
       <c r="D1228" t="s">
-        <v>7727</v>
+        <v>7725</v>
       </c>
       <c r="E1228" t="s">
         <v>4904</v>
@@ -52922,13 +52938,13 @@
         <v>4907</v>
       </c>
       <c r="B1229" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>7727</v>
+      </c>
+      <c r="D1229" t="s">
         <v>7728</v>
-      </c>
-      <c r="C1229" t="s">
-        <v>7729</v>
-      </c>
-      <c r="D1229" t="s">
-        <v>7730</v>
       </c>
       <c r="E1229" t="s">
         <v>4908</v>
@@ -52945,13 +52961,13 @@
         <v>4911</v>
       </c>
       <c r="B1230" t="s">
-        <v>7731</v>
+        <v>7729</v>
       </c>
       <c r="C1230" t="s">
         <v>5732</v>
       </c>
       <c r="D1230" t="s">
-        <v>7732</v>
+        <v>7730</v>
       </c>
       <c r="E1230" t="s">
         <v>4912</v>
@@ -52968,13 +52984,13 @@
         <v>4915</v>
       </c>
       <c r="B1231" t="s">
-        <v>7733</v>
+        <v>7731</v>
       </c>
       <c r="C1231" t="s">
         <v>5714</v>
       </c>
       <c r="D1231" t="s">
-        <v>7734</v>
+        <v>7732</v>
       </c>
       <c r="E1231" t="s">
         <v>4916</v>
@@ -53014,13 +53030,13 @@
         <v>4923</v>
       </c>
       <c r="B1233" t="s">
-        <v>7735</v>
+        <v>7733</v>
       </c>
       <c r="C1233" t="s">
         <v>5711</v>
       </c>
       <c r="D1233" t="s">
-        <v>7736</v>
+        <v>7734</v>
       </c>
       <c r="E1233" t="s">
         <v>4924</v>
@@ -53037,13 +53053,13 @@
         <v>4927</v>
       </c>
       <c r="B1234" t="s">
-        <v>7737</v>
+        <v>7735</v>
       </c>
       <c r="C1234" t="s">
         <v>5711</v>
       </c>
       <c r="D1234" t="s">
-        <v>7738</v>
+        <v>7736</v>
       </c>
       <c r="E1234" t="s">
         <v>4928</v>
@@ -53060,13 +53076,13 @@
         <v>4931</v>
       </c>
       <c r="B1235" t="s">
+        <v>7737</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>7738</v>
+      </c>
+      <c r="D1235" t="s">
         <v>7739</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>7740</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>7741</v>
       </c>
       <c r="E1235" t="s">
         <v>4932</v>
@@ -53089,7 +53105,7 @@
         <v>5714</v>
       </c>
       <c r="D1236" t="s">
-        <v>7742</v>
+        <v>7740</v>
       </c>
       <c r="E1236" t="s">
         <v>4936</v>
@@ -53129,13 +53145,13 @@
         <v>4943</v>
       </c>
       <c r="B1238" t="s">
-        <v>7743</v>
+        <v>7741</v>
       </c>
       <c r="C1238" t="s">
         <v>5714</v>
       </c>
       <c r="D1238" t="s">
-        <v>7744</v>
+        <v>7742</v>
       </c>
       <c r="E1238" t="s">
         <v>4944</v>
@@ -53152,13 +53168,13 @@
         <v>4947</v>
       </c>
       <c r="B1239" t="s">
-        <v>7745</v>
+        <v>7743</v>
       </c>
       <c r="C1239" t="s">
         <v>5711</v>
       </c>
       <c r="D1239" t="s">
-        <v>7746</v>
+        <v>7744</v>
       </c>
       <c r="E1239" t="s">
         <v>4948</v>
@@ -53175,7 +53191,7 @@
         <v>4951</v>
       </c>
       <c r="B1240" t="s">
-        <v>7747</v>
+        <v>7745</v>
       </c>
       <c r="C1240" t="s">
         <v>5732</v>
@@ -53204,7 +53220,7 @@
         <v>5751</v>
       </c>
       <c r="D1241" t="s">
-        <v>7748</v>
+        <v>7746</v>
       </c>
       <c r="E1241" t="s">
         <v>4956</v>
@@ -53227,7 +53243,7 @@
         <v>5782</v>
       </c>
       <c r="D1242" t="s">
-        <v>7749</v>
+        <v>7747</v>
       </c>
       <c r="E1242" t="s">
         <v>4960</v>
@@ -53250,7 +53266,7 @@
         <v>5714</v>
       </c>
       <c r="D1243" t="s">
-        <v>7750</v>
+        <v>7748</v>
       </c>
       <c r="E1243" t="s">
         <v>4964</v>
@@ -53270,10 +53286,10 @@
         <v>5732</v>
       </c>
       <c r="C1244" t="s">
-        <v>7751</v>
+        <v>7749</v>
       </c>
       <c r="D1244" t="s">
-        <v>7752</v>
+        <v>7750</v>
       </c>
       <c r="E1244" t="s">
         <v>4968</v>
@@ -53290,13 +53306,13 @@
         <v>4971</v>
       </c>
       <c r="B1245" t="s">
-        <v>7753</v>
+        <v>7751</v>
       </c>
       <c r="C1245" t="s">
         <v>5782</v>
       </c>
       <c r="D1245" t="s">
-        <v>7754</v>
+        <v>7752</v>
       </c>
       <c r="E1245" t="s">
         <v>4972</v>
@@ -53313,13 +53329,13 @@
         <v>4975</v>
       </c>
       <c r="B1246" t="s">
-        <v>7755</v>
+        <v>7753</v>
       </c>
       <c r="C1246" t="s">
         <v>5714</v>
       </c>
       <c r="D1246" t="s">
-        <v>7756</v>
+        <v>7754</v>
       </c>
       <c r="E1246" t="s">
         <v>4976</v>
@@ -53336,13 +53352,13 @@
         <v>4979</v>
       </c>
       <c r="B1247" t="s">
+        <v>7755</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>7756</v>
+      </c>
+      <c r="D1247" t="s">
         <v>7757</v>
-      </c>
-      <c r="C1247" t="s">
-        <v>7758</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>7759</v>
       </c>
       <c r="E1247" t="s">
         <v>4980</v>
@@ -53365,7 +53381,7 @@
         <v>5714</v>
       </c>
       <c r="D1248" t="s">
-        <v>7760</v>
+        <v>7758</v>
       </c>
       <c r="E1248" t="s">
         <v>4984</v>
@@ -53382,13 +53398,13 @@
         <v>4987</v>
       </c>
       <c r="B1249" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="C1249" t="s">
         <v>5714</v>
       </c>
       <c r="D1249" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="E1249" t="s">
         <v>4988</v>
@@ -53405,13 +53421,13 @@
         <v>4991</v>
       </c>
       <c r="B1250" t="s">
+        <v>7761</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>7762</v>
+      </c>
+      <c r="D1250" t="s">
         <v>7763</v>
-      </c>
-      <c r="C1250" t="s">
-        <v>7764</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>7765</v>
       </c>
       <c r="E1250" t="s">
         <v>4992</v>
@@ -53434,7 +53450,7 @@
         <v>5830</v>
       </c>
       <c r="D1251" t="s">
-        <v>7766</v>
+        <v>7764</v>
       </c>
       <c r="E1251" t="s">
         <v>4996</v>
@@ -53451,13 +53467,13 @@
         <v>4999</v>
       </c>
       <c r="B1252" t="s">
-        <v>7767</v>
+        <v>7765</v>
       </c>
       <c r="C1252" t="s">
         <v>5714</v>
       </c>
       <c r="D1252" t="s">
-        <v>7768</v>
+        <v>7766</v>
       </c>
       <c r="E1252" t="s">
         <v>5000</v>
@@ -53474,13 +53490,13 @@
         <v>5003</v>
       </c>
       <c r="B1253" t="s">
-        <v>7769</v>
+        <v>7767</v>
       </c>
       <c r="C1253" t="s">
-        <v>7764</v>
+        <v>7762</v>
       </c>
       <c r="D1253" t="s">
-        <v>7770</v>
+        <v>7768</v>
       </c>
       <c r="E1253" t="s">
         <v>5004</v>
@@ -53500,7 +53516,7 @@
         <v>5732</v>
       </c>
       <c r="C1254" t="s">
-        <v>7527</v>
+        <v>7525</v>
       </c>
       <c r="D1254" t="s">
         <v>5732</v>
@@ -53520,13 +53536,13 @@
         <v>5011</v>
       </c>
       <c r="B1255" t="s">
-        <v>7771</v>
+        <v>7769</v>
       </c>
       <c r="C1255" t="s">
         <v>5782</v>
       </c>
       <c r="D1255" t="s">
-        <v>7772</v>
+        <v>7770</v>
       </c>
       <c r="E1255" t="s">
         <v>5012</v>
@@ -53543,13 +53559,13 @@
         <v>5015</v>
       </c>
       <c r="B1256" t="s">
-        <v>7773</v>
+        <v>7771</v>
       </c>
       <c r="C1256" t="s">
         <v>5782</v>
       </c>
       <c r="D1256" t="s">
-        <v>7774</v>
+        <v>7772</v>
       </c>
       <c r="E1256" t="s">
         <v>5016</v>
@@ -53566,13 +53582,13 @@
         <v>5019</v>
       </c>
       <c r="B1257" t="s">
+        <v>7773</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>7774</v>
+      </c>
+      <c r="D1257" t="s">
         <v>7775</v>
-      </c>
-      <c r="C1257" t="s">
-        <v>7776</v>
-      </c>
-      <c r="D1257" t="s">
-        <v>7777</v>
       </c>
       <c r="E1257" t="s">
         <v>5020</v>
@@ -53589,13 +53605,13 @@
         <v>5023</v>
       </c>
       <c r="B1258" t="s">
-        <v>7778</v>
+        <v>7776</v>
       </c>
       <c r="C1258" t="s">
         <v>5714</v>
       </c>
       <c r="D1258" t="s">
-        <v>7779</v>
+        <v>7777</v>
       </c>
       <c r="E1258" t="s">
         <v>5024</v>
@@ -53615,10 +53631,10 @@
         <v>5732</v>
       </c>
       <c r="C1259" t="s">
-        <v>7780</v>
+        <v>7778</v>
       </c>
       <c r="D1259" t="s">
-        <v>7781</v>
+        <v>7779</v>
       </c>
       <c r="E1259" t="s">
         <v>5028</v>
@@ -53635,13 +53651,13 @@
         <v>5031</v>
       </c>
       <c r="B1260" t="s">
-        <v>7782</v>
+        <v>7780</v>
       </c>
       <c r="C1260" t="s">
         <v>5714</v>
       </c>
       <c r="D1260" t="s">
-        <v>7783</v>
+        <v>7781</v>
       </c>
       <c r="E1260" t="s">
         <v>5032</v>
@@ -53658,13 +53674,13 @@
         <v>5035</v>
       </c>
       <c r="B1261" t="s">
-        <v>7784</v>
+        <v>7782</v>
       </c>
       <c r="C1261" t="s">
         <v>5817</v>
       </c>
       <c r="D1261" t="s">
-        <v>7785</v>
+        <v>7783</v>
       </c>
       <c r="E1261" t="s">
         <v>5036</v>
@@ -53681,13 +53697,13 @@
         <v>5039</v>
       </c>
       <c r="B1262" t="s">
-        <v>7786</v>
+        <v>7784</v>
       </c>
       <c r="C1262" t="s">
         <v>5708</v>
       </c>
       <c r="D1262" t="s">
-        <v>7787</v>
+        <v>7785</v>
       </c>
       <c r="E1262" t="s">
         <v>5040</v>
@@ -53704,13 +53720,13 @@
         <v>5043</v>
       </c>
       <c r="B1263" t="s">
-        <v>7788</v>
+        <v>7786</v>
       </c>
       <c r="C1263" t="s">
         <v>5927</v>
       </c>
       <c r="D1263" t="s">
-        <v>7789</v>
+        <v>7787</v>
       </c>
       <c r="E1263" t="s">
         <v>5044</v>
@@ -53727,13 +53743,13 @@
         <v>5047</v>
       </c>
       <c r="B1264" t="s">
-        <v>7790</v>
+        <v>7788</v>
       </c>
       <c r="C1264" t="s">
         <v>5751</v>
       </c>
       <c r="D1264" t="s">
-        <v>7791</v>
+        <v>7789</v>
       </c>
       <c r="E1264" t="s">
         <v>5048</v>
@@ -53750,13 +53766,13 @@
         <v>5051</v>
       </c>
       <c r="B1265" t="s">
-        <v>7577</v>
+        <v>7575</v>
       </c>
       <c r="C1265" t="s">
         <v>5830</v>
       </c>
       <c r="D1265" t="s">
-        <v>7792</v>
+        <v>7790</v>
       </c>
       <c r="E1265" t="s">
         <v>5052</v>
@@ -53773,13 +53789,13 @@
         <v>5055</v>
       </c>
       <c r="B1266" t="s">
-        <v>7793</v>
+        <v>7791</v>
       </c>
       <c r="C1266" t="s">
         <v>5751</v>
       </c>
       <c r="D1266" t="s">
-        <v>7794</v>
+        <v>7792</v>
       </c>
       <c r="E1266" t="s">
         <v>5056</v>
@@ -53796,13 +53812,13 @@
         <v>5059</v>
       </c>
       <c r="B1267" t="s">
-        <v>7795</v>
+        <v>7793</v>
       </c>
       <c r="C1267" t="s">
         <v>5708</v>
       </c>
       <c r="D1267" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="E1267" t="s">
         <v>5060</v>
@@ -53822,10 +53838,10 @@
         <v>5732</v>
       </c>
       <c r="C1268" t="s">
-        <v>7797</v>
+        <v>7795</v>
       </c>
       <c r="D1268" t="s">
-        <v>7798</v>
+        <v>7796</v>
       </c>
       <c r="E1268" t="s">
         <v>5064</v>
@@ -53842,13 +53858,13 @@
         <v>5067</v>
       </c>
       <c r="B1269" t="s">
-        <v>7799</v>
+        <v>7797</v>
       </c>
       <c r="C1269" t="s">
         <v>5714</v>
       </c>
       <c r="D1269" t="s">
-        <v>7800</v>
+        <v>7798</v>
       </c>
       <c r="E1269" t="s">
         <v>5068</v>
@@ -53865,13 +53881,13 @@
         <v>5071</v>
       </c>
       <c r="B1270" t="s">
-        <v>7801</v>
+        <v>7799</v>
       </c>
       <c r="C1270" t="s">
-        <v>7428</v>
+        <v>7426</v>
       </c>
       <c r="D1270" t="s">
-        <v>7802</v>
+        <v>7800</v>
       </c>
       <c r="E1270" t="s">
         <v>5072</v>
@@ -53888,13 +53904,13 @@
         <v>5075</v>
       </c>
       <c r="B1271" t="s">
+        <v>7801</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>7802</v>
+      </c>
+      <c r="D1271" t="s">
         <v>7803</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>7804</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>7805</v>
       </c>
       <c r="E1271" t="s">
         <v>5076</v>
@@ -53911,13 +53927,13 @@
         <v>5079</v>
       </c>
       <c r="B1272" t="s">
-        <v>7806</v>
+        <v>7804</v>
       </c>
       <c r="C1272" t="s">
         <v>5711</v>
       </c>
       <c r="D1272" t="s">
-        <v>7807</v>
+        <v>7805</v>
       </c>
       <c r="E1272" t="s">
         <v>5080</v>
@@ -53934,13 +53950,13 @@
         <v>5083</v>
       </c>
       <c r="B1273" t="s">
-        <v>7808</v>
+        <v>7806</v>
       </c>
       <c r="C1273" t="s">
         <v>6000</v>
       </c>
       <c r="D1273" t="s">
-        <v>7809</v>
+        <v>7807</v>
       </c>
       <c r="E1273" t="s">
         <v>5084</v>
@@ -53960,10 +53976,10 @@
         <v>5732</v>
       </c>
       <c r="C1274" t="s">
-        <v>7810</v>
+        <v>7808</v>
       </c>
       <c r="D1274" t="s">
-        <v>7811</v>
+        <v>7809</v>
       </c>
       <c r="E1274" t="s">
         <v>5088</v>
@@ -53986,7 +54002,7 @@
         <v>5714</v>
       </c>
       <c r="D1275" t="s">
-        <v>7812</v>
+        <v>7810</v>
       </c>
       <c r="E1275" t="s">
         <v>5092</v>
@@ -54003,13 +54019,13 @@
         <v>5095</v>
       </c>
       <c r="B1276" t="s">
+        <v>7811</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>7812</v>
+      </c>
+      <c r="D1276" t="s">
         <v>7813</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>7814</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>7815</v>
       </c>
       <c r="E1276" t="s">
         <v>5096</v>
@@ -54032,7 +54048,7 @@
         <v>5714</v>
       </c>
       <c r="D1277" t="s">
-        <v>7816</v>
+        <v>7814</v>
       </c>
       <c r="E1277" t="s">
         <v>5100</v>
@@ -54049,13 +54065,13 @@
         <v>5103</v>
       </c>
       <c r="B1278" t="s">
-        <v>7817</v>
+        <v>7815</v>
       </c>
       <c r="C1278" t="s">
         <v>5711</v>
       </c>
       <c r="D1278" t="s">
-        <v>7818</v>
+        <v>7816</v>
       </c>
       <c r="E1278" t="s">
         <v>5104</v>
@@ -54072,13 +54088,13 @@
         <v>5107</v>
       </c>
       <c r="B1279" t="s">
-        <v>7819</v>
+        <v>7817</v>
       </c>
       <c r="C1279" t="s">
         <v>5708</v>
       </c>
       <c r="D1279" t="s">
-        <v>7820</v>
+        <v>7818</v>
       </c>
       <c r="E1279" t="s">
         <v>5108</v>
@@ -54095,13 +54111,13 @@
         <v>5111</v>
       </c>
       <c r="B1280" t="s">
-        <v>7821</v>
+        <v>7819</v>
       </c>
       <c r="C1280" t="s">
         <v>5732</v>
       </c>
       <c r="D1280" t="s">
-        <v>7822</v>
+        <v>7820</v>
       </c>
       <c r="E1280" t="s">
         <v>5112</v>
@@ -54118,13 +54134,13 @@
         <v>5115</v>
       </c>
       <c r="B1281" t="s">
-        <v>7823</v>
+        <v>7821</v>
       </c>
       <c r="C1281" t="s">
         <v>5732</v>
       </c>
       <c r="D1281" t="s">
-        <v>7824</v>
+        <v>7822</v>
       </c>
       <c r="E1281" t="s">
         <v>5116</v>
@@ -54141,13 +54157,13 @@
         <v>5119</v>
       </c>
       <c r="B1282" t="s">
-        <v>7825</v>
+        <v>7823</v>
       </c>
       <c r="C1282" t="s">
         <v>5927</v>
       </c>
       <c r="D1282" t="s">
-        <v>7826</v>
+        <v>7824</v>
       </c>
       <c r="E1282" t="s">
         <v>5120</v>
@@ -54164,13 +54180,13 @@
         <v>5123</v>
       </c>
       <c r="B1283" t="s">
-        <v>7827</v>
+        <v>7825</v>
       </c>
       <c r="C1283" t="s">
         <v>5817</v>
       </c>
       <c r="D1283" t="s">
-        <v>7828</v>
+        <v>7826</v>
       </c>
       <c r="E1283" t="s">
         <v>5124</v>
@@ -54187,13 +54203,13 @@
         <v>5127</v>
       </c>
       <c r="B1284" t="s">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="C1284" t="s">
         <v>5708</v>
       </c>
       <c r="D1284" t="s">
-        <v>7830</v>
+        <v>7828</v>
       </c>
       <c r="E1284" t="s">
         <v>5128</v>
@@ -54210,13 +54226,13 @@
         <v>5131</v>
       </c>
       <c r="B1285" t="s">
-        <v>7831</v>
+        <v>7829</v>
       </c>
       <c r="C1285" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="D1285" t="s">
-        <v>7832</v>
+        <v>7830</v>
       </c>
       <c r="E1285" t="s">
         <v>5132</v>
@@ -54233,13 +54249,13 @@
         <v>5135</v>
       </c>
       <c r="B1286" t="s">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="C1286" t="s">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="D1286" t="s">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="E1286" t="s">
         <v>5136</v>
@@ -54256,13 +54272,13 @@
         <v>5139</v>
       </c>
       <c r="B1287" t="s">
-        <v>7834</v>
+        <v>7832</v>
       </c>
       <c r="C1287" t="s">
         <v>5732</v>
       </c>
       <c r="D1287" t="s">
-        <v>7835</v>
+        <v>7833</v>
       </c>
       <c r="E1287" t="s">
         <v>5140</v>
@@ -54279,13 +54295,13 @@
         <v>5143</v>
       </c>
       <c r="B1288" t="s">
-        <v>7836</v>
+        <v>7834</v>
       </c>
       <c r="C1288" t="s">
         <v>5711</v>
       </c>
       <c r="D1288" t="s">
-        <v>7837</v>
+        <v>7835</v>
       </c>
       <c r="E1288" t="s">
         <v>5144</v>
@@ -54325,13 +54341,13 @@
         <v>5151</v>
       </c>
       <c r="B1290" t="s">
-        <v>7838</v>
+        <v>7836</v>
       </c>
       <c r="C1290" t="s">
         <v>5714</v>
       </c>
       <c r="D1290" t="s">
-        <v>7839</v>
+        <v>7837</v>
       </c>
       <c r="E1290" t="s">
         <v>5152</v>
@@ -54348,13 +54364,13 @@
         <v>5155</v>
       </c>
       <c r="B1291" t="s">
-        <v>7840</v>
+        <v>7838</v>
       </c>
       <c r="C1291" t="s">
         <v>5732</v>
       </c>
       <c r="D1291" t="s">
-        <v>7841</v>
+        <v>7839</v>
       </c>
       <c r="E1291" t="s">
         <v>5156</v>
@@ -54371,13 +54387,13 @@
         <v>5159</v>
       </c>
       <c r="B1292" t="s">
-        <v>7842</v>
+        <v>7840</v>
       </c>
       <c r="C1292" t="s">
         <v>5817</v>
       </c>
       <c r="D1292" t="s">
-        <v>7843</v>
+        <v>7841</v>
       </c>
       <c r="E1292" t="s">
         <v>5160</v>
@@ -54394,13 +54410,13 @@
         <v>5163</v>
       </c>
       <c r="B1293" t="s">
-        <v>7844</v>
+        <v>7842</v>
       </c>
       <c r="C1293" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="D1293" t="s">
-        <v>7845</v>
+        <v>7843</v>
       </c>
       <c r="E1293" t="s">
         <v>5164</v>
@@ -54417,13 +54433,13 @@
         <v>5167</v>
       </c>
       <c r="B1294" t="s">
-        <v>7846</v>
+        <v>7844</v>
       </c>
       <c r="C1294" t="s">
         <v>5732</v>
       </c>
       <c r="D1294" t="s">
-        <v>7847</v>
+        <v>7845</v>
       </c>
       <c r="E1294" t="s">
         <v>5168</v>
@@ -54440,13 +54456,13 @@
         <v>5171</v>
       </c>
       <c r="B1295" t="s">
-        <v>7848</v>
+        <v>7846</v>
       </c>
       <c r="C1295" t="s">
         <v>5732</v>
       </c>
       <c r="D1295" t="s">
-        <v>7849</v>
+        <v>7847</v>
       </c>
       <c r="E1295" t="s">
         <v>5172</v>
@@ -54463,13 +54479,13 @@
         <v>5175</v>
       </c>
       <c r="B1296" t="s">
-        <v>7850</v>
+        <v>7848</v>
       </c>
       <c r="C1296" t="s">
         <v>5711</v>
       </c>
       <c r="D1296" t="s">
-        <v>7851</v>
+        <v>7849</v>
       </c>
       <c r="E1296" t="s">
         <v>5176</v>
@@ -54509,7 +54525,7 @@
         <v>5183</v>
       </c>
       <c r="B1298" t="s">
-        <v>7852</v>
+        <v>7850</v>
       </c>
       <c r="C1298" t="s">
         <v>5732</v>
@@ -54532,13 +54548,13 @@
         <v>5187</v>
       </c>
       <c r="B1299" t="s">
-        <v>7853</v>
+        <v>7851</v>
       </c>
       <c r="C1299" t="s">
         <v>5711</v>
       </c>
       <c r="D1299" t="s">
-        <v>7854</v>
+        <v>7852</v>
       </c>
       <c r="E1299" t="s">
         <v>5188</v>
@@ -54555,13 +54571,13 @@
         <v>5191</v>
       </c>
       <c r="B1300" t="s">
-        <v>7855</v>
+        <v>7853</v>
       </c>
       <c r="C1300" t="s">
         <v>5732</v>
       </c>
       <c r="D1300" t="s">
-        <v>7856</v>
+        <v>7854</v>
       </c>
       <c r="E1300" t="s">
         <v>5192</v>
@@ -54578,13 +54594,13 @@
         <v>5195</v>
       </c>
       <c r="B1301" t="s">
-        <v>7857</v>
+        <v>7855</v>
       </c>
       <c r="C1301" t="s">
         <v>5714</v>
       </c>
       <c r="D1301" t="s">
-        <v>7858</v>
+        <v>7856</v>
       </c>
       <c r="E1301" t="s">
         <v>5196</v>
@@ -54601,13 +54617,13 @@
         <v>5199</v>
       </c>
       <c r="B1302" t="s">
-        <v>7859</v>
+        <v>7857</v>
       </c>
       <c r="C1302" t="s">
         <v>5732</v>
       </c>
       <c r="D1302" t="s">
-        <v>7860</v>
+        <v>7858</v>
       </c>
       <c r="E1302" t="s">
         <v>5200</v>
@@ -54624,13 +54640,13 @@
         <v>5203</v>
       </c>
       <c r="B1303" t="s">
-        <v>7861</v>
+        <v>7859</v>
       </c>
       <c r="C1303" t="s">
         <v>5714</v>
       </c>
       <c r="D1303" t="s">
-        <v>7862</v>
+        <v>7860</v>
       </c>
       <c r="E1303" t="s">
         <v>5204</v>
@@ -54647,13 +54663,13 @@
         <v>5207</v>
       </c>
       <c r="B1304" t="s">
-        <v>7863</v>
+        <v>7861</v>
       </c>
       <c r="C1304" t="s">
         <v>5711</v>
       </c>
       <c r="D1304" t="s">
-        <v>7864</v>
+        <v>7862</v>
       </c>
       <c r="E1304" t="s">
         <v>5208</v>
@@ -54693,13 +54709,13 @@
         <v>5215</v>
       </c>
       <c r="B1306" t="s">
-        <v>7865</v>
+        <v>7863</v>
       </c>
       <c r="C1306" t="s">
         <v>5711</v>
       </c>
       <c r="D1306" t="s">
-        <v>7866</v>
+        <v>7864</v>
       </c>
       <c r="E1306" t="s">
         <v>5216</v>
@@ -54716,13 +54732,13 @@
         <v>5219</v>
       </c>
       <c r="B1307" t="s">
-        <v>7867</v>
+        <v>7865</v>
       </c>
       <c r="C1307" t="s">
         <v>5711</v>
       </c>
       <c r="D1307" t="s">
-        <v>7868</v>
+        <v>7866</v>
       </c>
       <c r="E1307" t="s">
         <v>5220</v>
@@ -54785,13 +54801,13 @@
         <v>5231</v>
       </c>
       <c r="B1310" t="s">
-        <v>7869</v>
+        <v>7867</v>
       </c>
       <c r="C1310" t="s">
         <v>5732</v>
       </c>
       <c r="D1310" t="s">
-        <v>7870</v>
+        <v>7868</v>
       </c>
       <c r="E1310" t="s">
         <v>5232</v>
@@ -54808,13 +54824,13 @@
         <v>5235</v>
       </c>
       <c r="B1311" t="s">
-        <v>7871</v>
+        <v>7869</v>
       </c>
       <c r="C1311" t="s">
         <v>5714</v>
       </c>
       <c r="D1311" t="s">
-        <v>7872</v>
+        <v>7870</v>
       </c>
       <c r="E1311" t="s">
         <v>5236</v>
@@ -54831,13 +54847,13 @@
         <v>5239</v>
       </c>
       <c r="B1312" t="s">
-        <v>7873</v>
+        <v>7871</v>
       </c>
       <c r="C1312" t="s">
         <v>5714</v>
       </c>
       <c r="D1312" t="s">
-        <v>7874</v>
+        <v>7872</v>
       </c>
       <c r="E1312" t="s">
         <v>5240</v>
@@ -54854,13 +54870,13 @@
         <v>5243</v>
       </c>
       <c r="B1313" t="s">
-        <v>7875</v>
+        <v>7873</v>
       </c>
       <c r="C1313" t="s">
         <v>5732</v>
       </c>
       <c r="D1313" t="s">
-        <v>7876</v>
+        <v>7874</v>
       </c>
       <c r="E1313" t="s">
         <v>5244</v>
@@ -54877,7 +54893,7 @@
         <v>5247</v>
       </c>
       <c r="B1314" t="s">
-        <v>7877</v>
+        <v>7875</v>
       </c>
       <c r="C1314" t="s">
         <v>5732</v>
@@ -54900,13 +54916,13 @@
         <v>5251</v>
       </c>
       <c r="B1315" t="s">
-        <v>7878</v>
+        <v>7876</v>
       </c>
       <c r="C1315" t="s">
         <v>5732</v>
       </c>
       <c r="D1315" t="s">
-        <v>7879</v>
+        <v>7877</v>
       </c>
       <c r="E1315" t="s">
         <v>5252</v>
@@ -54969,13 +54985,13 @@
         <v>5263</v>
       </c>
       <c r="B1318" t="s">
-        <v>7880</v>
+        <v>7878</v>
       </c>
       <c r="C1318" t="s">
         <v>5732</v>
       </c>
       <c r="D1318" t="s">
-        <v>7881</v>
+        <v>7879</v>
       </c>
       <c r="E1318" t="s">
         <v>5264</v>
@@ -55015,13 +55031,13 @@
         <v>5271</v>
       </c>
       <c r="B1320" t="s">
-        <v>7882</v>
+        <v>7880</v>
       </c>
       <c r="C1320" t="s">
         <v>5927</v>
       </c>
       <c r="D1320" t="s">
-        <v>7883</v>
+        <v>7881</v>
       </c>
       <c r="E1320" t="s">
         <v>5272</v>
@@ -55038,13 +55054,13 @@
         <v>5275</v>
       </c>
       <c r="B1321" t="s">
-        <v>7884</v>
+        <v>7882</v>
       </c>
       <c r="C1321" t="s">
         <v>5711</v>
       </c>
       <c r="D1321" t="s">
-        <v>7885</v>
+        <v>7883</v>
       </c>
       <c r="E1321" t="s">
         <v>5276</v>
@@ -55061,13 +55077,13 @@
         <v>5279</v>
       </c>
       <c r="B1322" t="s">
-        <v>7886</v>
+        <v>7884</v>
       </c>
       <c r="C1322" t="s">
         <v>5708</v>
       </c>
       <c r="D1322" t="s">
-        <v>7887</v>
+        <v>7885</v>
       </c>
       <c r="E1322" t="s">
         <v>5280</v>
@@ -55084,13 +55100,13 @@
         <v>5283</v>
       </c>
       <c r="B1323" t="s">
-        <v>7888</v>
+        <v>7886</v>
       </c>
       <c r="C1323" t="s">
         <v>5711</v>
       </c>
       <c r="D1323" t="s">
-        <v>7889</v>
+        <v>7887</v>
       </c>
       <c r="E1323" t="s">
         <v>5284</v>
@@ -55107,13 +55123,13 @@
         <v>5287</v>
       </c>
       <c r="B1324" t="s">
-        <v>7890</v>
+        <v>7888</v>
       </c>
       <c r="C1324" t="s">
         <v>5711</v>
       </c>
       <c r="D1324" t="s">
-        <v>7891</v>
+        <v>7889</v>
       </c>
       <c r="E1324" t="s">
         <v>5288</v>
@@ -55153,13 +55169,13 @@
         <v>5295</v>
       </c>
       <c r="B1326" t="s">
-        <v>7892</v>
+        <v>7890</v>
       </c>
       <c r="C1326" t="s">
         <v>5714</v>
       </c>
       <c r="D1326" t="s">
-        <v>7893</v>
+        <v>7891</v>
       </c>
       <c r="E1326" t="s">
         <v>5296</v>
@@ -55176,13 +55192,13 @@
         <v>5299</v>
       </c>
       <c r="B1327" t="s">
-        <v>7894</v>
+        <v>7892</v>
       </c>
       <c r="C1327" t="s">
         <v>5732</v>
       </c>
       <c r="D1327" t="s">
-        <v>7895</v>
+        <v>7893</v>
       </c>
       <c r="E1327" t="s">
         <v>5300</v>
@@ -55222,13 +55238,13 @@
         <v>5307</v>
       </c>
       <c r="B1329" t="s">
-        <v>7896</v>
+        <v>7894</v>
       </c>
       <c r="C1329" t="s">
         <v>5714</v>
       </c>
       <c r="D1329" t="s">
-        <v>7897</v>
+        <v>7895</v>
       </c>
       <c r="E1329" t="s">
         <v>5308</v>
@@ -55245,13 +55261,13 @@
         <v>5311</v>
       </c>
       <c r="B1330" t="s">
-        <v>7898</v>
+        <v>7896</v>
       </c>
       <c r="C1330" t="s">
         <v>5714</v>
       </c>
       <c r="D1330" t="s">
-        <v>7899</v>
+        <v>7897</v>
       </c>
       <c r="E1330" t="s">
         <v>5312</v>
@@ -55291,13 +55307,13 @@
         <v>5319</v>
       </c>
       <c r="B1332" t="s">
-        <v>7900</v>
+        <v>7898</v>
       </c>
       <c r="C1332" t="s">
         <v>5711</v>
       </c>
       <c r="D1332" t="s">
-        <v>7901</v>
+        <v>7899</v>
       </c>
       <c r="E1332" t="s">
         <v>5320</v>
@@ -55337,13 +55353,13 @@
         <v>5327</v>
       </c>
       <c r="B1334" t="s">
-        <v>7902</v>
+        <v>7900</v>
       </c>
       <c r="C1334" t="s">
         <v>5714</v>
       </c>
       <c r="D1334" t="s">
-        <v>7903</v>
+        <v>7901</v>
       </c>
       <c r="E1334" t="s">
         <v>5328</v>
@@ -55360,13 +55376,13 @@
         <v>5331</v>
       </c>
       <c r="B1335" t="s">
-        <v>7904</v>
+        <v>7902</v>
       </c>
       <c r="C1335" t="s">
         <v>5708</v>
       </c>
       <c r="D1335" t="s">
-        <v>7905</v>
+        <v>7903</v>
       </c>
       <c r="E1335" t="s">
         <v>5332</v>
@@ -55383,13 +55399,13 @@
         <v>5335</v>
       </c>
       <c r="B1336" t="s">
-        <v>7906</v>
+        <v>7904</v>
       </c>
       <c r="C1336" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="D1336" t="s">
-        <v>7907</v>
+        <v>7905</v>
       </c>
       <c r="E1336" t="s">
         <v>5336</v>
@@ -55406,13 +55422,13 @@
         <v>5339</v>
       </c>
       <c r="B1337" t="s">
-        <v>7908</v>
+        <v>7906</v>
       </c>
       <c r="C1337" t="s">
         <v>5820</v>
       </c>
       <c r="D1337" t="s">
-        <v>7909</v>
+        <v>7907</v>
       </c>
       <c r="E1337" t="s">
         <v>5340</v>
@@ -55429,13 +55445,13 @@
         <v>5343</v>
       </c>
       <c r="B1338" t="s">
-        <v>7910</v>
+        <v>7908</v>
       </c>
       <c r="C1338" t="s">
         <v>5732</v>
       </c>
       <c r="D1338" t="s">
-        <v>7911</v>
+        <v>7909</v>
       </c>
       <c r="E1338" t="s">
         <v>5344</v>
@@ -55452,13 +55468,13 @@
         <v>5347</v>
       </c>
       <c r="B1339" t="s">
-        <v>7912</v>
+        <v>7910</v>
       </c>
       <c r="C1339" t="s">
         <v>5820</v>
       </c>
       <c r="D1339" t="s">
-        <v>7913</v>
+        <v>7911</v>
       </c>
       <c r="E1339" t="s">
         <v>5348</v>
@@ -55475,13 +55491,13 @@
         <v>5351</v>
       </c>
       <c r="B1340" t="s">
-        <v>7914</v>
+        <v>7912</v>
       </c>
       <c r="C1340" t="s">
         <v>5711</v>
       </c>
       <c r="D1340" t="s">
-        <v>7513</v>
+        <v>7511</v>
       </c>
       <c r="E1340" t="s">
         <v>5352</v>
@@ -55498,13 +55514,13 @@
         <v>5355</v>
       </c>
       <c r="B1341" t="s">
-        <v>7915</v>
+        <v>7913</v>
       </c>
       <c r="C1341" t="s">
         <v>5732</v>
       </c>
       <c r="D1341" t="s">
-        <v>7916</v>
+        <v>7914</v>
       </c>
       <c r="E1341" t="s">
         <v>5356</v>
@@ -55521,13 +55537,13 @@
         <v>5359</v>
       </c>
       <c r="B1342" t="s">
-        <v>7917</v>
+        <v>7915</v>
       </c>
       <c r="C1342" t="s">
         <v>5732</v>
       </c>
       <c r="D1342" t="s">
-        <v>7918</v>
+        <v>7916</v>
       </c>
       <c r="E1342" t="s">
         <v>5360</v>
@@ -55544,13 +55560,13 @@
         <v>5363</v>
       </c>
       <c r="B1343" t="s">
-        <v>7919</v>
+        <v>7917</v>
       </c>
       <c r="C1343" t="s">
         <v>5711</v>
       </c>
       <c r="D1343" t="s">
-        <v>7920</v>
+        <v>7918</v>
       </c>
       <c r="E1343" t="s">
         <v>5364</v>
@@ -55567,13 +55583,13 @@
         <v>5367</v>
       </c>
       <c r="B1344" t="s">
-        <v>7921</v>
+        <v>7919</v>
       </c>
       <c r="C1344" t="s">
         <v>5732</v>
       </c>
       <c r="D1344" t="s">
-        <v>7922</v>
+        <v>7920</v>
       </c>
       <c r="E1344" t="s">
         <v>5368</v>
@@ -55590,13 +55606,13 @@
         <v>5371</v>
       </c>
       <c r="B1345" t="s">
-        <v>7923</v>
+        <v>7921</v>
       </c>
       <c r="C1345" t="s">
         <v>5714</v>
       </c>
       <c r="D1345" t="s">
-        <v>7924</v>
+        <v>7922</v>
       </c>
       <c r="E1345" t="s">
         <v>5372</v>
@@ -55613,13 +55629,13 @@
         <v>5375</v>
       </c>
       <c r="B1346" t="s">
-        <v>7925</v>
+        <v>7923</v>
       </c>
       <c r="C1346" t="s">
         <v>5711</v>
       </c>
       <c r="D1346" t="s">
-        <v>7926</v>
+        <v>7924</v>
       </c>
       <c r="E1346" t="s">
         <v>5376</v>
@@ -55636,13 +55652,13 @@
         <v>5379</v>
       </c>
       <c r="B1347" t="s">
-        <v>7927</v>
+        <v>7925</v>
       </c>
       <c r="C1347" t="s">
         <v>5708</v>
       </c>
       <c r="D1347" t="s">
-        <v>7928</v>
+        <v>7926</v>
       </c>
       <c r="E1347" t="s">
         <v>5380</v>
@@ -55659,13 +55675,13 @@
         <v>5383</v>
       </c>
       <c r="B1348" t="s">
-        <v>7929</v>
+        <v>7927</v>
       </c>
       <c r="C1348" t="s">
         <v>5782</v>
       </c>
       <c r="D1348" t="s">
-        <v>7930</v>
+        <v>7928</v>
       </c>
       <c r="E1348" t="s">
         <v>5384</v>
@@ -55682,13 +55698,13 @@
         <v>5387</v>
       </c>
       <c r="B1349" t="s">
-        <v>7931</v>
+        <v>7929</v>
       </c>
       <c r="C1349" t="s">
         <v>5732</v>
       </c>
       <c r="D1349" t="s">
-        <v>7932</v>
+        <v>7930</v>
       </c>
       <c r="E1349" t="s">
         <v>5388</v>
@@ -55728,13 +55744,13 @@
         <v>5395</v>
       </c>
       <c r="B1351" t="s">
-        <v>7933</v>
+        <v>7931</v>
       </c>
       <c r="C1351" t="s">
         <v>5817</v>
       </c>
       <c r="D1351" t="s">
-        <v>7934</v>
+        <v>7932</v>
       </c>
       <c r="E1351" t="s">
         <v>5396</v>
@@ -55751,13 +55767,13 @@
         <v>5399</v>
       </c>
       <c r="B1352" t="s">
-        <v>7935</v>
+        <v>7933</v>
       </c>
       <c r="C1352" t="s">
         <v>5711</v>
       </c>
       <c r="D1352" t="s">
-        <v>7936</v>
+        <v>7934</v>
       </c>
       <c r="E1352" t="s">
         <v>5400</v>
@@ -55774,13 +55790,13 @@
         <v>5403</v>
       </c>
       <c r="B1353" t="s">
-        <v>7937</v>
+        <v>7935</v>
       </c>
       <c r="C1353" t="s">
         <v>5890</v>
       </c>
       <c r="D1353" t="s">
-        <v>7938</v>
+        <v>7936</v>
       </c>
       <c r="E1353" t="s">
         <v>5404</v>
@@ -55797,13 +55813,13 @@
         <v>5407</v>
       </c>
       <c r="B1354" t="s">
-        <v>7939</v>
+        <v>7937</v>
       </c>
       <c r="C1354" t="s">
         <v>5711</v>
       </c>
       <c r="D1354" t="s">
-        <v>7940</v>
+        <v>7938</v>
       </c>
       <c r="E1354" t="s">
         <v>5408</v>
@@ -55820,13 +55836,13 @@
         <v>5411</v>
       </c>
       <c r="B1355" t="s">
-        <v>7941</v>
+        <v>7939</v>
       </c>
       <c r="C1355" t="s">
         <v>5714</v>
       </c>
       <c r="D1355" t="s">
-        <v>7942</v>
+        <v>7940</v>
       </c>
       <c r="E1355" t="s">
         <v>5412</v>
@@ -55843,13 +55859,13 @@
         <v>5415</v>
       </c>
       <c r="B1356" t="s">
-        <v>7943</v>
+        <v>7941</v>
       </c>
       <c r="C1356" t="s">
         <v>5714</v>
       </c>
       <c r="D1356" t="s">
-        <v>7944</v>
+        <v>7942</v>
       </c>
       <c r="E1356" t="s">
         <v>5416</v>
@@ -55866,13 +55882,13 @@
         <v>5419</v>
       </c>
       <c r="B1357" t="s">
+        <v>7943</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>7944</v>
+      </c>
+      <c r="D1357" t="s">
         <v>7945</v>
-      </c>
-      <c r="C1357" t="s">
-        <v>7946</v>
-      </c>
-      <c r="D1357" t="s">
-        <v>7947</v>
       </c>
       <c r="E1357" t="s">
         <v>5420</v>
@@ -55889,13 +55905,13 @@
         <v>5423</v>
       </c>
       <c r="B1358" t="s">
-        <v>7948</v>
+        <v>7946</v>
       </c>
       <c r="C1358" t="s">
         <v>5711</v>
       </c>
       <c r="D1358" t="s">
-        <v>7949</v>
+        <v>7947</v>
       </c>
       <c r="E1358" t="s">
         <v>5424</v>
@@ -55912,13 +55928,13 @@
         <v>5427</v>
       </c>
       <c r="B1359" t="s">
-        <v>7950</v>
+        <v>7948</v>
       </c>
       <c r="C1359" t="s">
         <v>5890</v>
       </c>
       <c r="D1359" t="s">
-        <v>7951</v>
+        <v>7949</v>
       </c>
       <c r="E1359" t="s">
         <v>5428</v>
@@ -55935,13 +55951,13 @@
         <v>5431</v>
       </c>
       <c r="B1360" t="s">
-        <v>7952</v>
+        <v>7950</v>
       </c>
       <c r="C1360" t="s">
         <v>5890</v>
       </c>
       <c r="D1360" t="s">
-        <v>7953</v>
+        <v>7951</v>
       </c>
       <c r="E1360" t="s">
         <v>5432</v>
@@ -55958,13 +55974,13 @@
         <v>5435</v>
       </c>
       <c r="B1361" t="s">
-        <v>7954</v>
+        <v>7952</v>
       </c>
       <c r="C1361" t="s">
         <v>5708</v>
       </c>
       <c r="D1361" t="s">
-        <v>7955</v>
+        <v>7953</v>
       </c>
       <c r="E1361" t="s">
         <v>5436</v>
@@ -55981,13 +55997,13 @@
         <v>5439</v>
       </c>
       <c r="B1362" t="s">
-        <v>7956</v>
+        <v>7954</v>
       </c>
       <c r="C1362" t="s">
         <v>5732</v>
       </c>
       <c r="D1362" t="s">
-        <v>7957</v>
+        <v>7955</v>
       </c>
       <c r="E1362" t="s">
         <v>5440</v>
@@ -56004,13 +56020,13 @@
         <v>5443</v>
       </c>
       <c r="B1363" t="s">
-        <v>7958</v>
+        <v>7956</v>
       </c>
       <c r="C1363" t="s">
         <v>5782</v>
       </c>
       <c r="D1363" t="s">
-        <v>7959</v>
+        <v>7957</v>
       </c>
       <c r="E1363" t="s">
         <v>5444</v>
@@ -56027,13 +56043,13 @@
         <v>5447</v>
       </c>
       <c r="B1364" t="s">
-        <v>7960</v>
+        <v>7958</v>
       </c>
       <c r="C1364" t="s">
         <v>5714</v>
       </c>
       <c r="D1364" t="s">
-        <v>7961</v>
+        <v>7959</v>
       </c>
       <c r="E1364" t="s">
         <v>5448</v>
@@ -56050,13 +56066,13 @@
         <v>5451</v>
       </c>
       <c r="B1365" t="s">
-        <v>7962</v>
+        <v>7960</v>
       </c>
       <c r="C1365" t="s">
         <v>5782</v>
       </c>
       <c r="D1365" t="s">
-        <v>7963</v>
+        <v>7961</v>
       </c>
       <c r="E1365" t="s">
         <v>5452</v>
@@ -56073,13 +56089,13 @@
         <v>5455</v>
       </c>
       <c r="B1366" t="s">
-        <v>7964</v>
+        <v>7962</v>
       </c>
       <c r="C1366" t="s">
         <v>5732</v>
       </c>
       <c r="D1366" t="s">
-        <v>7965</v>
+        <v>7963</v>
       </c>
       <c r="E1366" t="s">
         <v>5456</v>
@@ -56096,13 +56112,13 @@
         <v>5459</v>
       </c>
       <c r="B1367" t="s">
-        <v>7966</v>
+        <v>7964</v>
       </c>
       <c r="C1367" t="s">
         <v>5708</v>
       </c>
       <c r="D1367" t="s">
-        <v>7967</v>
+        <v>7965</v>
       </c>
       <c r="E1367" t="s">
         <v>5460</v>
@@ -56119,13 +56135,13 @@
         <v>5463</v>
       </c>
       <c r="B1368" t="s">
-        <v>7968</v>
+        <v>7966</v>
       </c>
       <c r="C1368" t="s">
         <v>5714</v>
       </c>
       <c r="D1368" t="s">
-        <v>7969</v>
+        <v>7967</v>
       </c>
       <c r="E1368" t="s">
         <v>5464</v>
@@ -56142,13 +56158,13 @@
         <v>5467</v>
       </c>
       <c r="B1369" t="s">
-        <v>7970</v>
+        <v>7968</v>
       </c>
       <c r="C1369" t="s">
         <v>5820</v>
       </c>
       <c r="D1369" t="s">
-        <v>7971</v>
+        <v>7969</v>
       </c>
       <c r="E1369" t="s">
         <v>5468</v>
@@ -56165,13 +56181,13 @@
         <v>5471</v>
       </c>
       <c r="B1370" t="s">
-        <v>7972</v>
+        <v>7970</v>
       </c>
       <c r="C1370" t="s">
         <v>5732</v>
       </c>
       <c r="D1370" t="s">
-        <v>7973</v>
+        <v>7971</v>
       </c>
       <c r="E1370" t="s">
         <v>5472</v>
@@ -56188,13 +56204,13 @@
         <v>5475</v>
       </c>
       <c r="B1371" t="s">
-        <v>7974</v>
+        <v>7972</v>
       </c>
       <c r="C1371" t="s">
         <v>5890</v>
       </c>
       <c r="D1371" t="s">
-        <v>7975</v>
+        <v>7973</v>
       </c>
       <c r="E1371" t="s">
         <v>5476</v>
@@ -56211,13 +56227,13 @@
         <v>5479</v>
       </c>
       <c r="B1372" t="s">
-        <v>7976</v>
+        <v>7974</v>
       </c>
       <c r="C1372" t="s">
         <v>5711</v>
       </c>
       <c r="D1372" t="s">
-        <v>7977</v>
+        <v>7975</v>
       </c>
       <c r="E1372" t="s">
         <v>5480</v>
@@ -56234,13 +56250,13 @@
         <v>5483</v>
       </c>
       <c r="B1373" t="s">
+        <v>7976</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D1373" t="s">
         <v>7978</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>7979</v>
-      </c>
-      <c r="D1373" t="s">
-        <v>7980</v>
       </c>
       <c r="E1373" t="s">
         <v>5484</v>
@@ -56257,13 +56273,13 @@
         <v>5487</v>
       </c>
       <c r="B1374" t="s">
-        <v>7981</v>
+        <v>7979</v>
       </c>
       <c r="C1374" t="s">
         <v>5711</v>
       </c>
       <c r="D1374" t="s">
-        <v>7982</v>
+        <v>7980</v>
       </c>
       <c r="E1374" t="s">
         <v>5488</v>
@@ -56280,13 +56296,13 @@
         <v>5491</v>
       </c>
       <c r="B1375" t="s">
-        <v>7983</v>
+        <v>7981</v>
       </c>
       <c r="C1375" t="s">
         <v>5732</v>
       </c>
       <c r="D1375" t="s">
-        <v>7984</v>
+        <v>7982</v>
       </c>
       <c r="E1375" t="s">
         <v>5492</v>
@@ -56326,13 +56342,13 @@
         <v>5499</v>
       </c>
       <c r="B1377" t="s">
-        <v>7985</v>
+        <v>7983</v>
       </c>
       <c r="C1377" t="s">
         <v>5930</v>
       </c>
       <c r="D1377" t="s">
-        <v>7986</v>
+        <v>7984</v>
       </c>
       <c r="E1377" t="s">
         <v>5500</v>
@@ -56349,13 +56365,13 @@
         <v>5503</v>
       </c>
       <c r="B1378" t="s">
-        <v>7987</v>
+        <v>7985</v>
       </c>
       <c r="C1378" t="s">
         <v>5732</v>
       </c>
       <c r="D1378" t="s">
-        <v>7988</v>
+        <v>7986</v>
       </c>
       <c r="E1378" t="s">
         <v>5504</v>
@@ -56372,13 +56388,13 @@
         <v>5507</v>
       </c>
       <c r="B1379" t="s">
-        <v>7989</v>
+        <v>7987</v>
       </c>
       <c r="C1379" t="s">
         <v>5732</v>
       </c>
       <c r="D1379" t="s">
-        <v>7990</v>
+        <v>7988</v>
       </c>
       <c r="E1379" t="s">
         <v>5508</v>
@@ -56395,13 +56411,13 @@
         <v>5511</v>
       </c>
       <c r="B1380" t="s">
-        <v>7991</v>
+        <v>7989</v>
       </c>
       <c r="C1380" t="s">
         <v>5711</v>
       </c>
       <c r="D1380" t="s">
-        <v>7992</v>
+        <v>7990</v>
       </c>
       <c r="E1380" t="s">
         <v>5512</v>
@@ -56418,13 +56434,13 @@
         <v>5515</v>
       </c>
       <c r="B1381" t="s">
-        <v>7993</v>
+        <v>7991</v>
       </c>
       <c r="C1381" t="s">
         <v>5732</v>
       </c>
       <c r="D1381" t="s">
-        <v>7994</v>
+        <v>7992</v>
       </c>
       <c r="E1381" t="s">
         <v>5516</v>
@@ -56441,13 +56457,13 @@
         <v>5519</v>
       </c>
       <c r="B1382" t="s">
-        <v>7995</v>
+        <v>7993</v>
       </c>
       <c r="C1382" t="s">
         <v>5927</v>
       </c>
       <c r="D1382" t="s">
-        <v>7996</v>
+        <v>7994</v>
       </c>
       <c r="E1382" t="s">
         <v>5520</v>
@@ -56464,13 +56480,13 @@
         <v>5523</v>
       </c>
       <c r="B1383" t="s">
-        <v>7997</v>
+        <v>7995</v>
       </c>
       <c r="C1383" t="s">
         <v>5732</v>
       </c>
       <c r="D1383" t="s">
-        <v>7998</v>
+        <v>7996</v>
       </c>
       <c r="E1383" t="s">
         <v>5524</v>
@@ -56487,13 +56503,13 @@
         <v>5527</v>
       </c>
       <c r="B1384" t="s">
-        <v>7999</v>
+        <v>7997</v>
       </c>
       <c r="C1384" t="s">
         <v>5732</v>
       </c>
       <c r="D1384" t="s">
-        <v>8000</v>
+        <v>7998</v>
       </c>
       <c r="E1384" t="s">
         <v>5528</v>
@@ -56510,13 +56526,13 @@
         <v>5531</v>
       </c>
       <c r="B1385" t="s">
-        <v>8001</v>
+        <v>7999</v>
       </c>
       <c r="C1385" t="s">
         <v>5711</v>
       </c>
       <c r="D1385" t="s">
-        <v>8002</v>
+        <v>8000</v>
       </c>
       <c r="E1385" t="s">
         <v>5532</v>
@@ -56533,13 +56549,13 @@
         <v>5535</v>
       </c>
       <c r="B1386" t="s">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C1386" t="s">
         <v>5732</v>
       </c>
       <c r="D1386" t="s">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="E1386" t="s">
         <v>5536</v>
@@ -56556,13 +56572,13 @@
         <v>5539</v>
       </c>
       <c r="B1387" t="s">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C1387" t="s">
         <v>5711</v>
       </c>
       <c r="D1387" t="s">
-        <v>8006</v>
+        <v>8004</v>
       </c>
       <c r="E1387" t="s">
         <v>5540</v>
@@ -56602,13 +56618,13 @@
         <v>5547</v>
       </c>
       <c r="B1389" t="s">
-        <v>8007</v>
+        <v>8005</v>
       </c>
       <c r="C1389" t="s">
         <v>5714</v>
       </c>
       <c r="D1389" t="s">
-        <v>8008</v>
+        <v>8006</v>
       </c>
       <c r="E1389" t="s">
         <v>5548</v>
@@ -56648,13 +56664,13 @@
         <v>5555</v>
       </c>
       <c r="B1391" t="s">
-        <v>8009</v>
+        <v>8007</v>
       </c>
       <c r="C1391" t="s">
         <v>5732</v>
       </c>
       <c r="D1391" t="s">
-        <v>8010</v>
+        <v>8008</v>
       </c>
       <c r="E1391" t="s">
         <v>5556</v>
@@ -56671,13 +56687,13 @@
         <v>5559</v>
       </c>
       <c r="B1392" t="s">
-        <v>8011</v>
+        <v>8009</v>
       </c>
       <c r="C1392" t="s">
         <v>5817</v>
       </c>
       <c r="D1392" t="s">
-        <v>8012</v>
+        <v>8010</v>
       </c>
       <c r="E1392" t="s">
         <v>5560</v>
@@ -56694,13 +56710,13 @@
         <v>5563</v>
       </c>
       <c r="B1393" t="s">
-        <v>8013</v>
+        <v>8011</v>
       </c>
       <c r="C1393" t="s">
         <v>5732</v>
       </c>
       <c r="D1393" t="s">
-        <v>8014</v>
+        <v>8012</v>
       </c>
       <c r="E1393" t="s">
         <v>5564</v>
@@ -56717,13 +56733,13 @@
         <v>5567</v>
       </c>
       <c r="B1394" t="s">
-        <v>8015</v>
+        <v>8013</v>
       </c>
       <c r="C1394" t="s">
         <v>5732</v>
       </c>
       <c r="D1394" t="s">
-        <v>8016</v>
+        <v>8014</v>
       </c>
       <c r="E1394" t="s">
         <v>5568</v>
@@ -56786,13 +56802,13 @@
         <v>5579</v>
       </c>
       <c r="B1397" t="s">
-        <v>8017</v>
+        <v>8015</v>
       </c>
       <c r="C1397" t="s">
         <v>5732</v>
       </c>
       <c r="D1397" t="s">
-        <v>8018</v>
+        <v>8016</v>
       </c>
       <c r="E1397" t="s">
         <v>5580</v>
@@ -56809,13 +56825,13 @@
         <v>5583</v>
       </c>
       <c r="B1398" t="s">
-        <v>8019</v>
+        <v>8017</v>
       </c>
       <c r="C1398" t="s">
         <v>5708</v>
       </c>
       <c r="D1398" t="s">
-        <v>8020</v>
+        <v>8018</v>
       </c>
       <c r="E1398" t="s">
         <v>5584</v>
@@ -56832,13 +56848,13 @@
         <v>5587</v>
       </c>
       <c r="B1399" t="s">
-        <v>8021</v>
+        <v>8019</v>
       </c>
       <c r="C1399" t="s">
         <v>5732</v>
       </c>
       <c r="D1399" t="s">
-        <v>8022</v>
+        <v>8020</v>
       </c>
       <c r="E1399" t="s">
         <v>5588</v>
@@ -56878,13 +56894,13 @@
         <v>5595</v>
       </c>
       <c r="B1401" t="s">
-        <v>8023</v>
+        <v>8021</v>
       </c>
       <c r="C1401" t="s">
         <v>5708</v>
       </c>
       <c r="D1401" t="s">
-        <v>8024</v>
+        <v>8022</v>
       </c>
       <c r="E1401" t="s">
         <v>5596</v>
@@ -56901,13 +56917,13 @@
         <v>5599</v>
       </c>
       <c r="B1402" t="s">
-        <v>8025</v>
+        <v>8023</v>
       </c>
       <c r="C1402" t="s">
         <v>5708</v>
       </c>
       <c r="D1402" t="s">
-        <v>8026</v>
+        <v>8024</v>
       </c>
       <c r="E1402" t="s">
         <v>5600</v>
@@ -56924,13 +56940,13 @@
         <v>5603</v>
       </c>
       <c r="B1403" t="s">
-        <v>8027</v>
+        <v>8025</v>
       </c>
       <c r="C1403" t="s">
         <v>5732</v>
       </c>
       <c r="D1403" t="s">
-        <v>8028</v>
+        <v>8026</v>
       </c>
       <c r="E1403" t="s">
         <v>5604</v>
@@ -56947,13 +56963,13 @@
         <v>5607</v>
       </c>
       <c r="B1404" t="s">
-        <v>8029</v>
+        <v>8027</v>
       </c>
       <c r="C1404" t="s">
         <v>5817</v>
       </c>
       <c r="D1404" t="s">
-        <v>8030</v>
+        <v>8028</v>
       </c>
       <c r="E1404" t="s">
         <v>5608</v>
@@ -56993,13 +57009,13 @@
         <v>5615</v>
       </c>
       <c r="B1406" t="s">
-        <v>8031</v>
+        <v>8029</v>
       </c>
       <c r="C1406" t="s">
         <v>5732</v>
       </c>
       <c r="D1406" t="s">
-        <v>8032</v>
+        <v>8030</v>
       </c>
       <c r="E1406" t="s">
         <v>5616</v>
@@ -57016,13 +57032,13 @@
         <v>5619</v>
       </c>
       <c r="B1407" t="s">
-        <v>8033</v>
+        <v>8031</v>
       </c>
       <c r="C1407" t="s">
         <v>5820</v>
       </c>
       <c r="D1407" t="s">
-        <v>8034</v>
+        <v>8032</v>
       </c>
       <c r="E1407" t="s">
         <v>5620</v>
@@ -57039,13 +57055,13 @@
         <v>5623</v>
       </c>
       <c r="B1408" t="s">
-        <v>8035</v>
+        <v>8033</v>
       </c>
       <c r="C1408" t="s">
         <v>5782</v>
       </c>
       <c r="D1408" t="s">
-        <v>8036</v>
+        <v>8034</v>
       </c>
       <c r="E1408" t="s">
         <v>5624</v>
@@ -57062,13 +57078,13 @@
         <v>5627</v>
       </c>
       <c r="B1409" t="s">
-        <v>8037</v>
+        <v>8035</v>
       </c>
       <c r="C1409" t="s">
         <v>5732</v>
       </c>
       <c r="D1409" t="s">
-        <v>8038</v>
+        <v>8036</v>
       </c>
       <c r="E1409" t="s">
         <v>5628</v>
@@ -57085,13 +57101,13 @@
         <v>5631</v>
       </c>
       <c r="B1410" t="s">
-        <v>8039</v>
+        <v>8037</v>
       </c>
       <c r="C1410" t="s">
         <v>5711</v>
       </c>
       <c r="D1410" t="s">
-        <v>8040</v>
+        <v>8038</v>
       </c>
       <c r="E1410" t="s">
         <v>5632</v>
@@ -57108,13 +57124,13 @@
         <v>5635</v>
       </c>
       <c r="B1411" t="s">
-        <v>8041</v>
+        <v>8039</v>
       </c>
       <c r="C1411" t="s">
         <v>5817</v>
       </c>
       <c r="D1411" t="s">
-        <v>8042</v>
+        <v>8040</v>
       </c>
       <c r="E1411" t="s">
         <v>5636</v>
@@ -57131,13 +57147,13 @@
         <v>5639</v>
       </c>
       <c r="B1412" t="s">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C1412" t="s">
         <v>5930</v>
       </c>
       <c r="D1412" t="s">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="E1412" t="s">
         <v>5640</v>
@@ -57177,13 +57193,13 @@
         <v>5647</v>
       </c>
       <c r="B1414" t="s">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C1414" t="s">
         <v>5732</v>
       </c>
       <c r="D1414" t="s">
-        <v>8046</v>
+        <v>8044</v>
       </c>
       <c r="E1414" t="s">
         <v>5648</v>
@@ -57200,13 +57216,13 @@
         <v>5651</v>
       </c>
       <c r="B1415" t="s">
-        <v>8047</v>
+        <v>8045</v>
       </c>
       <c r="C1415" t="s">
         <v>5708</v>
       </c>
       <c r="D1415" t="s">
-        <v>8048</v>
+        <v>8046</v>
       </c>
       <c r="E1415" t="s">
         <v>5652</v>
@@ -57223,13 +57239,13 @@
         <v>5655</v>
       </c>
       <c r="B1416" t="s">
-        <v>8049</v>
+        <v>8047</v>
       </c>
       <c r="C1416" t="s">
         <v>5732</v>
       </c>
       <c r="D1416" t="s">
-        <v>8050</v>
+        <v>8048</v>
       </c>
       <c r="E1416" t="s">
         <v>5656</v>
@@ -57246,13 +57262,13 @@
         <v>5659</v>
       </c>
       <c r="B1417" t="s">
-        <v>8051</v>
+        <v>8049</v>
       </c>
       <c r="C1417" t="s">
         <v>5782</v>
       </c>
       <c r="D1417" t="s">
-        <v>8052</v>
+        <v>8050</v>
       </c>
       <c r="E1417" t="s">
         <v>5660</v>
@@ -57269,13 +57285,13 @@
         <v>5663</v>
       </c>
       <c r="B1418" t="s">
-        <v>8053</v>
+        <v>8051</v>
       </c>
       <c r="C1418" t="s">
         <v>5927</v>
       </c>
       <c r="D1418" t="s">
-        <v>8054</v>
+        <v>8052</v>
       </c>
       <c r="E1418" t="s">
         <v>5664</v>
@@ -57292,13 +57308,13 @@
         <v>5667</v>
       </c>
       <c r="B1419" t="s">
-        <v>8055</v>
+        <v>8053</v>
       </c>
       <c r="C1419" t="s">
         <v>5711</v>
       </c>
       <c r="D1419" t="s">
-        <v>8056</v>
+        <v>8054</v>
       </c>
       <c r="E1419" t="s">
         <v>5668</v>
@@ -57315,13 +57331,13 @@
         <v>5671</v>
       </c>
       <c r="B1420" t="s">
-        <v>8057</v>
+        <v>8055</v>
       </c>
       <c r="C1420" t="s">
         <v>5711</v>
       </c>
       <c r="D1420" t="s">
-        <v>8058</v>
+        <v>8056</v>
       </c>
       <c r="E1420" t="s">
         <v>5672</v>
@@ -57338,13 +57354,13 @@
         <v>5675</v>
       </c>
       <c r="B1421" t="s">
-        <v>8059</v>
+        <v>8057</v>
       </c>
       <c r="C1421" t="s">
         <v>5714</v>
       </c>
       <c r="D1421" t="s">
-        <v>8060</v>
+        <v>8058</v>
       </c>
       <c r="E1421" t="s">
         <v>5676</v>
@@ -57361,13 +57377,13 @@
         <v>5679</v>
       </c>
       <c r="B1422" t="s">
-        <v>8061</v>
+        <v>8059</v>
       </c>
       <c r="C1422" t="s">
         <v>5714</v>
       </c>
       <c r="D1422" t="s">
-        <v>8062</v>
+        <v>8060</v>
       </c>
       <c r="E1422" t="s">
         <v>5680</v>
@@ -57390,7 +57406,7 @@
         <v>5711</v>
       </c>
       <c r="D1423" t="s">
-        <v>8063</v>
+        <v>8061</v>
       </c>
       <c r="E1423" t="s">
         <v>5684</v>
@@ -57407,13 +57423,13 @@
         <v>5687</v>
       </c>
       <c r="B1424" t="s">
-        <v>8064</v>
+        <v>8062</v>
       </c>
       <c r="C1424" t="s">
         <v>5732</v>
       </c>
       <c r="D1424" t="s">
-        <v>8065</v>
+        <v>8063</v>
       </c>
       <c r="E1424" t="s">
         <v>5688</v>
@@ -57430,13 +57446,13 @@
         <v>5691</v>
       </c>
       <c r="B1425" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>8065</v>
+      </c>
+      <c r="D1425" t="s">
         <v>8066</v>
-      </c>
-      <c r="C1425" t="s">
-        <v>8067</v>
-      </c>
-      <c r="D1425" t="s">
-        <v>8068</v>
       </c>
       <c r="E1425" t="s">
         <v>5692</v>
@@ -57449,9 +57465,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B748" r:id="rId1" xr:uid="{76CE1A96-1454-4A82-95F6-BE21DF0371D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
